--- a/doc/FP.xlsx
+++ b/doc/FP.xlsx
@@ -5,24 +5,39 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\bwSyncAndShare\vnvDoc\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projekte\vnvDoc\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7680"/>
+    <workbookView xWindow="1200" yWindow="0" windowWidth="15330" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="AcceptFriendRequests">Tabelle1!$K$103</definedName>
+    <definedName name="AddFriend">Tabelle1!$K$79</definedName>
     <definedName name="AdministrateBarsFP">Tabelle1!$K$111</definedName>
     <definedName name="ChangeInfoFP">Tabelle1!$K$87</definedName>
+    <definedName name="ChangePassword">Tabelle1!$K$55</definedName>
     <definedName name="CommentFP">Tabelle1!$K$79</definedName>
+    <definedName name="CreateNewOffer">Tabelle1!$K$127</definedName>
+    <definedName name="CreateNewRequest">Tabelle1!$K$119</definedName>
+    <definedName name="DeleteFriend">Tabelle1!$K$111</definedName>
+    <definedName name="DeleteUser">Tabelle1!$K$63</definedName>
+    <definedName name="EditProfile">Tabelle1!$K$47</definedName>
+    <definedName name="EditStatus">Tabelle1!$K$159</definedName>
     <definedName name="GetBarInfoFP">Tabelle1!$K$63</definedName>
+    <definedName name="ListOffers">Tabelle1!$K$151</definedName>
+    <definedName name="ListReceivedFriendRequests">Tabelle1!$K$87</definedName>
+    <definedName name="ListRequests">Tabelle1!$K$143</definedName>
+    <definedName name="ListSentFriendRequests">Tabelle1!$K$95</definedName>
     <definedName name="LoginFP">Tabelle1!$K$31</definedName>
     <definedName name="RateBarFP">Tabelle1!$K$71</definedName>
     <definedName name="RegisterFp">Tabelle1!$K$39</definedName>
     <definedName name="SearchBarFP">Tabelle1!$K$23</definedName>
+    <definedName name="SearchOfferAndRequests">Tabelle1!$K$135</definedName>
+    <definedName name="SearchUser">Tabelle1!$K$71</definedName>
     <definedName name="SeeMapsFP">Tabelle1!$K$95</definedName>
     <definedName name="SeePinboardsFP">Tabelle1!$K$55</definedName>
     <definedName name="SetTagsFP">Tabelle1!$K$103</definedName>
@@ -38,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="57">
   <si>
     <t>UC Name</t>
   </si>
@@ -97,9 +112,6 @@
     <t>Function points</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>The amount depends on the survey in the database. That makes presenting the survey more comlex</t>
   </si>
   <si>
@@ -109,22 +121,13 @@
     <t>Total w/o warmup</t>
   </si>
   <si>
-    <t>Google Maps</t>
-  </si>
-  <si>
     <t>A Tag will be saved</t>
-  </si>
-  <si>
-    <t>A complete bar needs to be saved</t>
   </si>
   <si>
     <t>FTR/RET</t>
   </si>
   <si>
     <t>Points</t>
-  </si>
-  <si>
-    <t>Presenter, Bar</t>
   </si>
   <si>
     <t>25 single, clickable stars</t>
@@ -139,16 +142,7 @@
     <t>Presenter, User Model</t>
   </si>
   <si>
-    <t>Presenter, Bar Model, Question Model</t>
-  </si>
-  <si>
-    <t>Presenter, Bar Model, Map Class</t>
-  </si>
-  <si>
     <t>Presenter, Bar Model</t>
-  </si>
-  <si>
-    <t>Presnter, Bar Class</t>
   </si>
   <si>
     <t>Explaniation</t>
@@ -214,9 +208,6 @@
     <t>Development</t>
   </si>
   <si>
-    <t>Spalte1</t>
-  </si>
-  <si>
     <t>Design</t>
   </si>
   <si>
@@ -230,6 +221,9 @@
   </si>
   <si>
     <t>Register/Login_Google</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -280,28 +274,6 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -331,11 +303,33 @@
     <dxf>
       <numFmt numFmtId="25" formatCode="hh:mm"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -473,13 +467,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>17.55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>24.7</c:v>
+                <c:pt idx="10">
+                  <c:v>17.55</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>26</c:v>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.55</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.05</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -494,7 +533,7 @@
                   <c:v>0.85416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26041666666666669</c:v>
+                  <c:v>0.34375</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.93055555555555569</c:v>
@@ -509,10 +548,10 @@
                   <c:v>0.20138888888888887</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.36805555555555552</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14930555555555555</c:v>
+                  <c:v>0.18402777777777776</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>7.6388888888888881E-2</c:v>
@@ -521,28 +560,28 @@
                   <c:v>7.6388888888888881E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.1423611111111111</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.50555555555555554</c:v>
+                  <c:v>0.54722222222222217</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>2.7777777777777776E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>2.7777777777777776E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>3.4722222222222224E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>2.4305555555555556E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -557,11 +596,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="457136712"/>
-        <c:axId val="457142200"/>
+        <c:axId val="317078048"/>
+        <c:axId val="318175904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="457136712"/>
+        <c:axId val="317078048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -618,12 +657,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457142200"/>
+        <c:crossAx val="318175904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="457142200"/>
+        <c:axId val="318175904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -680,7 +719,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457136712"/>
+        <c:crossAx val="317078048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.0833300000000003E-2"/>
@@ -833,18 +872,18 @@
   <tableColumns count="12">
     <tableColumn id="1" name="UC Name"/>
     <tableColumn id="2" name="Documentation"/>
-    <tableColumn id="7" name="Development" dataDxfId="11"/>
-    <tableColumn id="8" name="Testing" dataDxfId="10"/>
-    <tableColumn id="9" name="Design" dataDxfId="9"/>
+    <tableColumn id="7" name="Development" dataDxfId="9"/>
+    <tableColumn id="8" name="Testing" dataDxfId="8"/>
+    <tableColumn id="9" name="Design" dataDxfId="7"/>
     <tableColumn id="3" name="Deployment"/>
     <tableColumn id="4" name="Research"/>
-    <tableColumn id="10" name="Total w/o warmup" dataDxfId="8">
+    <tableColumn id="10" name="Total w/o warmup" dataDxfId="6">
       <calculatedColumnFormula>SUM(Tabelle1[[#This Row],[Documentation]:[Testing]])+SUM(Tabelle1[[#This Row],[Deployment]:[Research]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Total" dataDxfId="7">
+    <tableColumn id="5" name="Total" dataDxfId="5">
       <calculatedColumnFormula>SUM(Tabelle1[[#This Row],[Documentation]:[Research]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Estimate" dataDxfId="6">
+    <tableColumn id="12" name="Estimate" dataDxfId="4">
       <calculatedColumnFormula>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="FP"/>
@@ -858,7 +897,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabelle10" displayName="Tabelle10" ref="B86:K91" totalsRowShown="0">
   <autoFilter ref="B86:K91"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Spalte1"/>
+    <tableColumn id="1" name="List Received Friend Requests"/>
     <tableColumn id="2" name="Count"/>
     <tableColumn id="3" name="Simple"/>
     <tableColumn id="4" name="Average"/>
@@ -879,7 +918,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabelle11" displayName="Tabelle11" ref="B94:K99" totalsRowShown="0">
   <autoFilter ref="B94:K99"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Spalte1"/>
+    <tableColumn id="1" name="List Sent Friend Requests"/>
     <tableColumn id="2" name="Count"/>
     <tableColumn id="3" name="Simple"/>
     <tableColumn id="4" name="Average"/>
@@ -900,7 +939,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabelle12" displayName="Tabelle12" ref="B102:K107" totalsRowShown="0">
   <autoFilter ref="B102:K107"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Spalte1"/>
+    <tableColumn id="1" name="Accept Friend Request"/>
     <tableColumn id="2" name="Count"/>
     <tableColumn id="3" name="Simple"/>
     <tableColumn id="4" name="Average"/>
@@ -921,7 +960,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabelle1214" displayName="Tabelle1214" ref="B110:K115" totalsRowShown="0">
   <autoFilter ref="B110:K115"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Spalte1"/>
+    <tableColumn id="1" name="Delete Friend"/>
     <tableColumn id="2" name="Count"/>
     <tableColumn id="3" name="Simple"/>
     <tableColumn id="4" name="Average"/>
@@ -942,7 +981,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabelle121415" displayName="Tabelle121415" ref="B118:K123" totalsRowShown="0">
   <autoFilter ref="B118:K123"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Name"/>
+    <tableColumn id="1" name="Create New Request"/>
     <tableColumn id="2" name="Count"/>
     <tableColumn id="3" name="Simple"/>
     <tableColumn id="4" name="Average"/>
@@ -963,15 +1002,99 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabelle15" displayName="Tabelle15" ref="O26:Q27" totalsRowShown="0">
   <autoFilter ref="O26:Q27"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Time spent (w/o outliers)" dataDxfId="3">
+    <tableColumn id="1" name="Time spent (w/o outliers)" dataDxfId="1">
       <calculatedColumnFormula>SUM(I3:I10,I12,I14:I15)*24</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Function Points (w/o outliers)">
       <calculatedColumnFormula>SUM(L3:L10,L12,L14:L15)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Velocity" dataDxfId="2">
+    <tableColumn id="3" name="Velocity" dataDxfId="0">
       <calculatedColumnFormula>P27/O27</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabelle12141518" displayName="Tabelle12141518" ref="B134:K139" totalsRowShown="0">
+  <autoFilter ref="B134:K139"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="Search Offer and Requests"/>
+    <tableColumn id="2" name="Count"/>
+    <tableColumn id="3" name="Simple"/>
+    <tableColumn id="4" name="Average"/>
+    <tableColumn id="5" name="Complex">
+      <calculatedColumnFormula>IF(AND(Tabelle12141518[[#This Row],[Simple]]=0,Tabelle12141518[[#This Row],[Average]]=0), 1, 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="FTR/RET"/>
+    <tableColumn id="7" name="DET"/>
+    <tableColumn id="11" name="Points"/>
+    <tableColumn id="8" name="Reason"/>
+    <tableColumn id="9" name="Function points"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabelle12141519" displayName="Tabelle12141519" ref="B142:K147" totalsRowShown="0">
+  <autoFilter ref="B142:K147"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="List Requests"/>
+    <tableColumn id="2" name="Count"/>
+    <tableColumn id="3" name="Simple"/>
+    <tableColumn id="4" name="Average"/>
+    <tableColumn id="5" name="Complex">
+      <calculatedColumnFormula>IF(AND(Tabelle12141519[[#This Row],[Simple]]=0,Tabelle12141519[[#This Row],[Average]]=0), 1, 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="FTR/RET"/>
+    <tableColumn id="7" name="DET"/>
+    <tableColumn id="11" name="Points"/>
+    <tableColumn id="8" name="Reason"/>
+    <tableColumn id="9" name="Function points"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabelle12141520" displayName="Tabelle12141520" ref="B150:K155" totalsRowShown="0">
+  <autoFilter ref="B150:K155"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="List Offers"/>
+    <tableColumn id="2" name="Count"/>
+    <tableColumn id="3" name="Simple"/>
+    <tableColumn id="4" name="Average"/>
+    <tableColumn id="5" name="Complex">
+      <calculatedColumnFormula>IF(AND(Tabelle12141520[[#This Row],[Simple]]=0,Tabelle12141520[[#This Row],[Average]]=0), 1, 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="FTR/RET"/>
+    <tableColumn id="7" name="DET"/>
+    <tableColumn id="11" name="Points"/>
+    <tableColumn id="8" name="Reason"/>
+    <tableColumn id="9" name="Function points"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabelle12141521" displayName="Tabelle12141521" ref="B158:K163" totalsRowShown="0">
+  <autoFilter ref="B158:K163"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="Edit Status"/>
+    <tableColumn id="2" name="Count"/>
+    <tableColumn id="3" name="Simple"/>
+    <tableColumn id="4" name="Average"/>
+    <tableColumn id="5" name="Complex">
+      <calculatedColumnFormula>IF(AND(Tabelle12141521[[#This Row],[Simple]]=0,Tabelle12141521[[#This Row],[Average]]=0), 1, 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="FTR/RET"/>
+    <tableColumn id="7" name="DET"/>
+    <tableColumn id="11" name="Points"/>
+    <tableColumn id="8" name="Reason"/>
+    <tableColumn id="9" name="Function points"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -984,15 +1107,36 @@
     <tableColumn id="1" name="Login"/>
     <tableColumn id="2" name="Count"/>
     <tableColumn id="3" name="Simple"/>
-    <tableColumn id="4" name="Average" dataDxfId="5">
+    <tableColumn id="4" name="Average" dataDxfId="3">
       <calculatedColumnFormula>IF(OR(AND(Tabelle2[[#This Row],[FTR/RET]]=1, Tabelle2[[#This Row],[DET]] &gt; 50), AND(Tabelle2[[#This Row],[FTR/RET]]&lt;=5, Tabelle2[[#This Row],[FTR/RET]]&gt;=2, Tabelle2[[#This Row],[DET]] &gt;= 20, Tabelle2[[#This Row],[DET]] &lt;= 50), AND(Tabelle2[[#This Row],[FTR/RET]] &gt;= 5, Tabelle2[[#This Row],[DET]] &lt; 20)), "x", "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Complex" dataDxfId="4">
+    <tableColumn id="5" name="Complex" dataDxfId="2">
       <calculatedColumnFormula>IF(AND(Tabelle2[[#This Row],[Simple]]="",Tabelle2[[#This Row],[Average]]=""), "x", "")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="FTR/RET"/>
     <tableColumn id="7" name="DET"/>
     <tableColumn id="12" name="Points"/>
+    <tableColumn id="8" name="Reason"/>
+    <tableColumn id="9" name="Function points"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tabelle12141524" displayName="Tabelle12141524" ref="B126:K131" totalsRowShown="0">
+  <autoFilter ref="B126:K131"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="Create New Offer"/>
+    <tableColumn id="2" name="Count"/>
+    <tableColumn id="3" name="Simple"/>
+    <tableColumn id="4" name="Average"/>
+    <tableColumn id="5" name="Complex">
+      <calculatedColumnFormula>IF(AND(Tabelle12141524[[#This Row],[Simple]]=0,Tabelle12141524[[#This Row],[Average]]=0), 1, 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="FTR/RET"/>
+    <tableColumn id="7" name="DET"/>
+    <tableColumn id="11" name="Points"/>
     <tableColumn id="8" name="Reason"/>
     <tableColumn id="9" name="Function points"/>
   </tableColumns>
@@ -1046,7 +1190,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="B46:K51" totalsRowShown="0">
   <autoFilter ref="B46:K51"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Spalte1"/>
+    <tableColumn id="1" name="Edit Profile"/>
     <tableColumn id="2" name="Count"/>
     <tableColumn id="3" name="Simple"/>
     <tableColumn id="4" name="Average"/>
@@ -1067,7 +1211,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="B54:K59" totalsRowShown="0">
   <autoFilter ref="B54:K59"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Spalte1"/>
+    <tableColumn id="1" name="Change Password"/>
     <tableColumn id="2" name="Count"/>
     <tableColumn id="3" name="Simple"/>
     <tableColumn id="4" name="Average"/>
@@ -1088,7 +1232,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle7" displayName="Tabelle7" ref="B62:K67" totalsRowShown="0">
   <autoFilter ref="B62:K67"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Spalte1"/>
+    <tableColumn id="1" name="Delete User"/>
     <tableColumn id="2" name="Count"/>
     <tableColumn id="3" name="Simple"/>
     <tableColumn id="4" name="Average"/>
@@ -1109,7 +1253,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabelle8" displayName="Tabelle8" ref="B70:K75" totalsRowShown="0">
   <autoFilter ref="B70:K75"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Spalte1"/>
+    <tableColumn id="1" name="Search User"/>
     <tableColumn id="2" name="Count"/>
     <tableColumn id="3" name="Simple"/>
     <tableColumn id="4" name="Average"/>
@@ -1130,7 +1274,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabelle9" displayName="Tabelle9" ref="B78:K83" totalsRowShown="0">
   <autoFilter ref="B78:K83"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Spalte1"/>
+    <tableColumn id="1" name="Add Friend"/>
     <tableColumn id="2" name="Count"/>
     <tableColumn id="3" name="Simple"/>
     <tableColumn id="4" name="Average"/>
@@ -1411,10 +1555,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="B2:Q123"/>
+  <dimension ref="B2:Q163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,34 +1580,34 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
@@ -1498,11 +1642,11 @@
       </c>
       <c r="K3" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.64200680272108845</v>
+        <v>0.29956301057184043</v>
       </c>
       <c r="L3">
         <f>SearchBarFP</f>
-        <v>13</v>
+        <v>17.55</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
@@ -1510,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D4" s="1">
         <v>0.25</v>
@@ -1529,24 +1673,24 @@
       </c>
       <c r="I4" s="1">
         <f>SUM(Tabelle1[[#This Row],[Documentation]:[Testing]])+SUM(Tabelle1[[#This Row],[Deployment]:[Research]])</f>
-        <v>0.26041666666666669</v>
+        <v>0.34375</v>
       </c>
       <c r="J4" s="2">
         <f>SUM(Tabelle1[[#This Row],[Documentation]:[Research]])</f>
-        <v>0.26041666666666669</v>
+        <v>0.34375</v>
       </c>
       <c r="K4" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>1.219812925170068</v>
+        <v>0.48817675796892512</v>
       </c>
       <c r="L4">
         <f>LoginFP</f>
-        <v>24.7</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1">
         <v>4.8611111111111112E-2</v>
@@ -1576,16 +1720,16 @@
       </c>
       <c r="K5" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>1.2840136054421769</v>
+        <v>0.47708183165144957</v>
       </c>
       <c r="L5">
         <f>RegisterFp</f>
-        <v>26</v>
+        <v>27.95</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1">
         <v>3.4722222222222224E-2</v>
@@ -1615,12 +1759,16 @@
       </c>
       <c r="K6" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0</v>
+        <v>0.33455470126541725</v>
+      </c>
+      <c r="L6">
+        <f>SurveysFP</f>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1">
         <v>3.4722222222222224E-2</v>
@@ -1650,12 +1798,16 @@
       </c>
       <c r="K7" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0</v>
+        <v>0.21080360003203583</v>
+      </c>
+      <c r="L7">
+        <f>SeePinboardsFP</f>
+        <v>12.35</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -1685,15 +1837,19 @@
       </c>
       <c r="K8" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0</v>
+        <v>0.21080360003203583</v>
+      </c>
+      <c r="L8">
+        <f>ChangePassword</f>
+        <v>12.35</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="D9" s="1">
         <v>0.25</v>
@@ -1712,23 +1868,27 @@
       </c>
       <c r="I9" s="1">
         <f>SUM(Tabelle1[[#This Row],[Documentation]:[Testing]])+SUM(Tabelle1[[#This Row],[Deployment]:[Research]])</f>
-        <v>0.33333333333333331</v>
+        <v>0.36805555555555552</v>
       </c>
       <c r="J9" s="2">
         <f>SUM(Tabelle1[[#This Row],[Documentation]:[Research]])</f>
-        <v>0.33333333333333331</v>
+        <v>0.36805555555555552</v>
       </c>
       <c r="K9" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0</v>
+        <v>0.4105122737465961</v>
+      </c>
+      <c r="L9">
+        <f>DeleteUser</f>
+        <v>24.05</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="D10" s="1">
         <v>0.1076388888888889</v>
@@ -1747,20 +1907,24 @@
       </c>
       <c r="I10" s="1">
         <f>SUM(Tabelle1[[#This Row],[Documentation]:[Testing]])+SUM(Tabelle1[[#This Row],[Deployment]:[Research]])</f>
-        <v>0.14930555555555555</v>
+        <v>0.18402777777777776</v>
       </c>
       <c r="J10" s="2">
         <f>SUM(Tabelle1[[#This Row],[Documentation]:[Research]])</f>
-        <v>0.14930555555555555</v>
+        <v>0.18402777777777776</v>
       </c>
       <c r="K10" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0</v>
+        <v>0.18861374739708472</v>
+      </c>
+      <c r="L10">
+        <f>AddFriend</f>
+        <v>11.05</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1">
         <v>3.8194444444444441E-2</v>
@@ -1790,12 +1954,16 @@
       </c>
       <c r="K11" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0</v>
+        <v>0.26627823161941372</v>
+      </c>
+      <c r="L11">
+        <f>ListReceivedFriendRequests</f>
+        <v>15.600000000000001</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1">
         <v>3.8194444444444441E-2</v>
@@ -1825,21 +1993,25 @@
       </c>
       <c r="K12" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0</v>
+        <v>0.22189852634951143</v>
+      </c>
+      <c r="L12">
+        <f>ListSentFriendRequests</f>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1852,29 +2024,33 @@
       </c>
       <c r="I13" s="1">
         <f>SUM(Tabelle1[[#This Row],[Documentation]:[Testing]])+SUM(Tabelle1[[#This Row],[Deployment]:[Research]])</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="J13" s="2">
         <f>SUM(Tabelle1[[#This Row],[Documentation]:[Research]])</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K13" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0</v>
+        <v>0.29956301057184043</v>
+      </c>
+      <c r="L13">
+        <f>AcceptFriendRequests</f>
+        <v>17.55</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>6.9444444444444434E-2</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -1887,29 +2063,33 @@
       </c>
       <c r="I14" s="1">
         <f>SUM(Tabelle1[[#This Row],[Documentation]:[Testing]])+SUM(Tabelle1[[#This Row],[Deployment]:[Research]])</f>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J14" s="2">
         <f>SUM(Tabelle1[[#This Row],[Documentation]:[Research]])</f>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K14" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0</v>
+        <v>0.22189852634951143</v>
+      </c>
+      <c r="L14">
+        <f>DeleteFriend</f>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>6.9444444444444434E-2</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -1922,23 +2102,27 @@
       </c>
       <c r="I15" s="1">
         <f>SUM(Tabelle1[[#This Row],[Documentation]:[Testing]])+SUM(Tabelle1[[#This Row],[Deployment]:[Research]])</f>
-        <v>0</v>
+        <v>0.1423611111111111</v>
       </c>
       <c r="J15" s="2">
         <f>SUM(Tabelle1[[#This Row],[Documentation]:[Research]])</f>
-        <v>0</v>
+        <v>0.1423611111111111</v>
       </c>
       <c r="K15" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0</v>
+        <v>0.48817675796892512</v>
+      </c>
+      <c r="L15">
+        <f>CreateNewRequest</f>
+        <v>28.6</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D16" s="1">
         <v>0.43263888888888885</v>
@@ -1957,23 +2141,27 @@
       </c>
       <c r="I16" s="1">
         <f>SUM(Tabelle1[[#This Row],[Documentation]:[Testing]])+SUM(Tabelle1[[#This Row],[Deployment]:[Research]])</f>
-        <v>0.50555555555555554</v>
+        <v>0.54722222222222217</v>
       </c>
       <c r="J16" s="2">
         <f>SUM(Tabelle1[[#This Row],[Documentation]:[Research]])</f>
-        <v>0.50555555555555554</v>
+        <v>0.54722222222222217</v>
       </c>
       <c r="K16" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0</v>
+        <v>0.48817675796892512</v>
+      </c>
+      <c r="L16">
+        <f>CreateNewOffer</f>
+        <v>28.6</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -1992,23 +2180,27 @@
       </c>
       <c r="I17" s="1">
         <f>SUM(Tabelle1[[#This Row],[Documentation]:[Testing]])+SUM(Tabelle1[[#This Row],[Deployment]:[Research]])</f>
-        <v>0</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="J17" s="2">
         <f>SUM(Tabelle1[[#This Row],[Documentation]:[Research]])</f>
-        <v>0</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="K17" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0</v>
+        <v>0.29956301057184043</v>
+      </c>
+      <c r="L17">
+        <f>SearchOfferAndRequests</f>
+        <v>17.55</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -2027,23 +2219,27 @@
       </c>
       <c r="I18" s="1">
         <f>SUM(Tabelle1[[#This Row],[Documentation]:[Testing]])+SUM(Tabelle1[[#This Row],[Deployment]:[Research]])</f>
-        <v>0</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="J18" s="2">
         <f>SUM(Tabelle1[[#This Row],[Documentation]:[Research]])</f>
-        <v>0</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="K18" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0</v>
+        <v>0.18861374739708472</v>
+      </c>
+      <c r="L18">
+        <f>ListRequests</f>
+        <v>11.05</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -2062,23 +2258,27 @@
       </c>
       <c r="I19" s="1">
         <f>SUM(Tabelle1[[#This Row],[Documentation]:[Testing]])+SUM(Tabelle1[[#This Row],[Deployment]:[Research]])</f>
-        <v>0</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="J19" s="2">
         <f>SUM(Tabelle1[[#This Row],[Documentation]:[Research]])</f>
-        <v>0</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="K19" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0</v>
+        <v>0.18861374739708472</v>
+      </c>
+      <c r="L19">
+        <f>ListOffers</f>
+        <v>11.05</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1">
-        <v>0</v>
+        <v>2.4305555555555556E-2</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -2097,15 +2297,19 @@
       </c>
       <c r="I20" s="1">
         <f>SUM(Tabelle1[[#This Row],[Documentation]:[Testing]])+SUM(Tabelle1[[#This Row],[Deployment]:[Research]])</f>
-        <v>0</v>
+        <v>2.4305555555555556E-2</v>
       </c>
       <c r="J20" s="2">
         <f>SUM(Tabelle1[[#This Row],[Documentation]:[Research]])</f>
-        <v>0</v>
+        <v>2.4305555555555556E-2</v>
       </c>
       <c r="K20" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0</v>
+        <v>0.18861374739708472</v>
+      </c>
+      <c r="L20">
+        <f>EditStatus</f>
+        <v>11.05</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
@@ -2125,13 +2329,13 @@
         <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H22" t="s">
         <v>17</v>
       </c>
       <c r="I22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -2145,7 +2349,7 @@
         <v>12</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <f>IF(OR(AND(Tabelle2[[#This Row],[FTR/RET]]&lt;=1, Tabelle2[[#This Row],[DET]] &lt;= 15), AND(Tabelle2[[#This Row],[FTR/RET]]&lt;= 3, Tabelle2[[#This Row],[DET]] &lt;= 4)), 1, 0)</f>
@@ -2163,15 +2367,15 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <f>Tabelle2[[#This Row],[Count]]*(3*Tabelle2[[#This Row],[Simple]]+4*Tabelle2[[#This Row],[Average]]+6*Tabelle2[[#This Row],[Complex]])</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K23">
         <f>SUM(Tabelle2[Points])*0.65</f>
-        <v>13</v>
+        <v>17.55</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
@@ -2179,7 +2383,7 @@
         <v>13</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <f>IF(OR(AND(Tabelle2[[#This Row],[FTR/RET]]&lt;=1, Tabelle2[[#This Row],[DET]] &lt;= 19), AND(Tabelle2[[#This Row],[FTR/RET]]&lt;= 3, Tabelle2[[#This Row],[DET]] &lt;= 5)), 1, 0)</f>
@@ -2194,14 +2398,14 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <f>Tabelle2[[#This Row],[Count]]*(Tabelle2[[#This Row],[Simple]]*4+Tabelle2[[#This Row],[Average]]*5+Tabelle2[[#This Row],[Complex]]*7)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
@@ -2264,13 +2468,13 @@
         <v>7</v>
       </c>
       <c r="O26" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P26" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="Q26" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
@@ -2304,15 +2508,15 @@
       </c>
       <c r="O27" s="4">
         <f>SUM(I3:I10,I12,I14:I15)*24</f>
-        <v>75.5</v>
+        <v>85.25</v>
       </c>
       <c r="P27">
         <f>SUM(L3:L10,L12,L14:L15)</f>
-        <v>63.7</v>
+        <v>208.10000000000002</v>
       </c>
       <c r="Q27" s="3">
         <f>P27/O27</f>
-        <v>0.84370860927152325</v>
+        <v>2.4410557184750736</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
@@ -2332,13 +2536,13 @@
         <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H30" t="s">
         <v>17</v>
       </c>
       <c r="I30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -2378,7 +2582,7 @@
       </c>
       <c r="K31">
         <f>SUM(Tabelle3[Points])*0.65</f>
-        <v>24.7</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
@@ -2416,7 +2620,7 @@
         <v>14</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D33">
         <f>IF(OR(AND(Tabelle3[[#This Row],[FTR/RET]]&lt;=1, Tabelle3[[#This Row],[DET]] &lt;= 19), AND(Tabelle3[[#This Row],[FTR/RET]]&lt;= 3, Tabelle3[[#This Row],[DET]] &lt;= 5)), 1, 0)</f>
@@ -2431,14 +2635,14 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
         <f>Tabelle3[[#This Row],[Count]]*(3*Tabelle3[[#This Row],[Simple]]+4*Tabelle3[[#This Row],[Average]]+6*Tabelle3[[#This Row],[Complex]])</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
@@ -2503,7 +2707,7 @@
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
@@ -2518,13 +2722,13 @@
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H38" t="s">
         <v>17</v>
       </c>
       <c r="I38" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -2542,11 +2746,11 @@
       </c>
       <c r="D39">
         <f>IF(OR(AND(Tabelle4[[#This Row],[FTR/RET]]&lt;=1, Tabelle4[[#This Row],[DET]] &lt;= 15), AND(Tabelle4[[#This Row],[FTR/RET]]&lt;= 3, Tabelle4[[#This Row],[DET]] &lt;= 4)), 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <f>IF(OR(AND(Tabelle4[[#This Row],[FTR/RET]]&lt;=1, Tabelle4[[#This Row],[DET]] &gt; 15), AND(Tabelle4[[#This Row],[FTR/RET]]&lt;=5, Tabelle4[[#This Row],[FTR/RET]]&gt;=2, Tabelle4[[#This Row],[DET]] &gt;= 5, Tabelle4[[#This Row],[DET]] &lt;= 15), AND(Tabelle4[[#This Row],[FTR/RET]] &gt;= 5, Tabelle4[[#This Row],[DET]] &lt;= 4 )), 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <f>IF(AND(Tabelle4[[#This Row],[Simple]]=0,Tabelle4[[#This Row],[Average]]=0), 1, 0)</f>
@@ -2556,15 +2760,15 @@
         <v>2</v>
       </c>
       <c r="H39">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I39">
         <f>Tabelle4[[#This Row],[Count]]*(3*Tabelle4[[#This Row],[Simple]]+4*Tabelle4[[#This Row],[Average]]+6*Tabelle4[[#This Row],[Complex]])</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K39">
         <f>SUM(Tabelle4[Points])*0.65</f>
-        <v>26</v>
+        <v>27.95</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
@@ -2602,7 +2806,7 @@
         <v>14</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D41">
         <f>IF(OR(AND(Tabelle4[[#This Row],[FTR/RET]]&lt;=1, Tabelle4[[#This Row],[DET]] &lt;= 19), AND(Tabelle4[[#This Row],[FTR/RET]]&lt;= 3, Tabelle4[[#This Row],[DET]] &lt;= 5)), 1, 0)</f>
@@ -2624,7 +2828,7 @@
       </c>
       <c r="I41">
         <f>Tabelle4[[#This Row],[Count]]*(3*Tabelle4[[#This Row],[Simple]]+4*Tabelle4[[#This Row],[Average]]+6*Tabelle4[[#This Row],[Complex]])</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -2689,7 +2893,7 @@
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
@@ -2704,13 +2908,13 @@
         <v>9</v>
       </c>
       <c r="G46" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H46" t="s">
         <v>17</v>
       </c>
       <c r="I46" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -2724,7 +2928,7 @@
         <v>12</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D47">
         <f>IF(OR(AND(Tabelle5[[#This Row],[FTR/RET]]&lt;=1, Tabelle5[[#This Row],[DET]] &lt;= 15), AND(Tabelle5[[#This Row],[FTR/RET]]&lt;= 3, Tabelle5[[#This Row],[DET]] &lt;= 4)), 1, 0)</f>
@@ -2742,18 +2946,18 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I47">
         <f>Tabelle5[[#This Row],[Count]]*(3*Tabelle5[[#This Row],[Simple]]+4*Tabelle5[[#This Row],[Average]]+6*Tabelle5[[#This Row],[Complex]])</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K47">
         <f>SUM(Tabelle5[Points])*(0.65+(5)/100)</f>
-        <v>18.900000000000002</v>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
@@ -2761,7 +2965,7 @@
         <v>13</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48">
         <f>IF(OR(AND(Tabelle5[[#This Row],[FTR/RET]]&lt;=1, Tabelle5[[#This Row],[DET]] &lt;= 19), AND(Tabelle5[[#This Row],[FTR/RET]]&lt;= 3, Tabelle5[[#This Row],[DET]] &lt;= 5)), 1, 0)</f>
@@ -2776,14 +2980,14 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <f>Tabelle5[[#This Row],[Count]]*(Tabelle5[[#This Row],[Simple]]*4+Tabelle5[[#This Row],[Average]]*5+Tabelle5[[#This Row],[Complex]]*7)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
@@ -2821,7 +3025,7 @@
         <v>15</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D50">
         <f>IF(OR(AND(Tabelle5[[#This Row],[FTR/RET]]&lt;2, Tabelle5[[#This Row],[DET]] &lt;= 50), AND(Tabelle5[[#This Row],[FTR/RET]]&lt;=5, Tabelle5[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
@@ -2843,10 +3047,10 @@
       </c>
       <c r="I50">
         <f>Tabelle5[[#This Row],[Count]]*(7*Tabelle5[[#This Row],[Simple]]+10*Tabelle5[[#This Row],[Average]]+15*Tabelle5[[#This Row],[Complex]])</f>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="J50" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
@@ -2854,7 +3058,7 @@
         <v>16</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51">
         <f>IF(OR(AND(Tabelle5[[#This Row],[FTR/RET]]&lt;2, Tabelle5[[#This Row],[DET]] &lt;= 50), AND(Tabelle5[[#This Row],[FTR/RET]]&lt;=5, Tabelle5[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
@@ -2876,12 +3080,12 @@
       </c>
       <c r="I51">
         <f>Tabelle5[[#This Row],[Count]]*(5*Tabelle5[[#This Row],[Simple]]+7*Tabelle5[[#This Row],[Average]]+10*Tabelle5[[#This Row],[Complex]])</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
         <v>10</v>
@@ -2896,13 +3100,13 @@
         <v>9</v>
       </c>
       <c r="G54" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H54" t="s">
         <v>17</v>
       </c>
       <c r="I54" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J54" t="s">
         <v>11</v>
@@ -2916,7 +3120,7 @@
         <v>12</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D55">
         <f>IF(OR(AND(Tabelle6[[#This Row],[FTR/RET]]&lt;=1, Tabelle6[[#This Row],[DET]] &lt;= 15), AND(Tabelle6[[#This Row],[FTR/RET]]&lt;= 3, Tabelle6[[#This Row],[DET]] &lt;= 4)), 1, 0)</f>
@@ -2931,18 +3135,18 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I55">
         <f>Tabelle6[[#This Row],[Count]]*(3*Tabelle6[[#This Row],[Simple]]+4*Tabelle6[[#This Row],[Average]]+6*Tabelle6[[#This Row],[Complex]])</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K55">
         <f>SUM(Tabelle6[Points])*0.65</f>
-        <v>13.65</v>
+        <v>12.35</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
@@ -2965,10 +3169,10 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <f>Tabelle6[[#This Row],[Count]]*(Tabelle6[[#This Row],[Simple]]*4+Tabelle6[[#This Row],[Average]]*5+Tabelle6[[#This Row],[Complex]]*7)</f>
@@ -2980,7 +3184,7 @@
         <v>14</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57">
         <f>IF(OR(AND(Tabelle6[[#This Row],[FTR/RET]]&lt;=1, Tabelle6[[#This Row],[DET]] &lt;= 19), AND(Tabelle6[[#This Row],[FTR/RET]]&lt;= 3, Tabelle6[[#This Row],[DET]] &lt;= 5)), 1, 0)</f>
@@ -2995,14 +3199,14 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57">
         <f>Tabelle6[[#This Row],[Count]]*(3*Tabelle6[[#This Row],[Simple]]+4*Tabelle6[[#This Row],[Average]]+6*Tabelle6[[#This Row],[Complex]])</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
@@ -3010,7 +3214,7 @@
         <v>15</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <f>IF(OR(AND(Tabelle6[[#This Row],[FTR/RET]]&lt;2, Tabelle6[[#This Row],[DET]] &lt;= 50), AND(Tabelle6[[#This Row],[FTR/RET]]&lt;=5, Tabelle6[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
@@ -3028,14 +3232,14 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <f>Tabelle6[[#This Row],[Count]]*(7*Tabelle6[[#This Row],[Simple]]+10*Tabelle6[[#This Row],[Average]]+15*Tabelle6[[#This Row],[Complex]])</f>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
@@ -3070,7 +3274,7 @@
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="C62" t="s">
         <v>10</v>
@@ -3085,13 +3289,13 @@
         <v>9</v>
       </c>
       <c r="G62" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H62" t="s">
         <v>17</v>
       </c>
       <c r="I62" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J62" t="s">
         <v>11</v>
@@ -3105,7 +3309,7 @@
         <v>12</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D63">
         <f>IF(OR(AND(Tabelle7[[#This Row],[FTR/RET]]&lt;=1, Tabelle7[[#This Row],[DET]] &lt;= 15), AND(Tabelle7[[#This Row],[FTR/RET]]&lt;= 3, Tabelle7[[#This Row],[DET]] &lt;= 4)), 1, 0)</f>
@@ -3127,11 +3331,11 @@
       </c>
       <c r="I63">
         <f>Tabelle7[[#This Row],[Count]]*(3*Tabelle7[[#This Row],[Simple]]+4*Tabelle7[[#This Row],[Average]]+6*Tabelle7[[#This Row],[Complex]])</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K63">
         <f>SUM(Tabelle7[Points])*0.65</f>
-        <v>18.2</v>
+        <v>24.05</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
@@ -3169,7 +3373,7 @@
         <v>14</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65">
         <f>IF(OR(AND(Tabelle7[[#This Row],[FTR/RET]]&lt;=1, Tabelle7[[#This Row],[DET]] &lt;= 19), AND(Tabelle7[[#This Row],[FTR/RET]]&lt;= 3, Tabelle7[[#This Row],[DET]] &lt;= 5)), 1, 0)</f>
@@ -3191,7 +3395,7 @@
       </c>
       <c r="I65">
         <f>Tabelle7[[#This Row],[Count]]*(3*Tabelle7[[#This Row],[Simple]]+4*Tabelle7[[#This Row],[Average]]+6*Tabelle7[[#This Row],[Complex]])</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
@@ -3224,7 +3428,7 @@
         <v>21</v>
       </c>
       <c r="J66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
@@ -3259,7 +3463,7 @@
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C70" t="s">
         <v>10</v>
@@ -3274,13 +3478,13 @@
         <v>9</v>
       </c>
       <c r="G70" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H70" t="s">
         <v>17</v>
       </c>
       <c r="I70" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J70" t="s">
         <v>11</v>
@@ -3294,7 +3498,7 @@
         <v>12</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71">
         <f>IF(OR(AND(Tabelle8[[#This Row],[FTR/RET]]&lt;=1, Tabelle8[[#This Row],[DET]] &lt;= 15), AND(Tabelle8[[#This Row],[FTR/RET]]&lt;= 3, Tabelle8[[#This Row],[DET]] &lt;= 4)), 1, 0)</f>
@@ -3316,14 +3520,14 @@
       </c>
       <c r="I71">
         <f>Tabelle8[[#This Row],[Count]]*(3*Tabelle8[[#This Row],[Simple]]+4*Tabelle8[[#This Row],[Average]]+6*Tabelle8[[#This Row],[Complex]])</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J71" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K71">
         <f>SUM(Tabelle8[Points])*(0.65+(5)/100)</f>
-        <v>17.5</v>
+        <v>15.400000000000002</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
@@ -3331,7 +3535,7 @@
         <v>13</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72">
         <f>IF(OR(AND(Tabelle8[[#This Row],[FTR/RET]]&lt;=1, Tabelle8[[#This Row],[DET]] &lt;= 19), AND(Tabelle8[[#This Row],[FTR/RET]]&lt;= 3, Tabelle8[[#This Row],[DET]] &lt;= 5)), 1, 0)</f>
@@ -3353,7 +3557,7 @@
       </c>
       <c r="I72">
         <f>Tabelle8[[#This Row],[Count]]*(Tabelle8[[#This Row],[Simple]]*4+Tabelle8[[#This Row],[Average]]*5+Tabelle8[[#This Row],[Complex]]*7)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
@@ -3361,7 +3565,7 @@
         <v>14</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73">
         <f>IF(OR(AND(Tabelle8[[#This Row],[FTR/RET]]&lt;=1, Tabelle8[[#This Row],[DET]] &lt;= 19), AND(Tabelle8[[#This Row],[FTR/RET]]&lt;= 3, Tabelle8[[#This Row],[DET]] &lt;= 5)), 1, 0)</f>
@@ -3383,7 +3587,7 @@
       </c>
       <c r="I73">
         <f>Tabelle8[[#This Row],[Count]]*(3*Tabelle8[[#This Row],[Simple]]+4*Tabelle8[[#This Row],[Average]]+6*Tabelle8[[#This Row],[Complex]])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
@@ -3391,7 +3595,7 @@
         <v>15</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D74">
         <f>IF(OR(AND(Tabelle8[[#This Row],[FTR/RET]]&lt;2, Tabelle8[[#This Row],[DET]] &lt;= 50), AND(Tabelle8[[#This Row],[FTR/RET]]&lt;=5, Tabelle8[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
@@ -3413,10 +3617,10 @@
       </c>
       <c r="I74">
         <f>Tabelle8[[#This Row],[Count]]*(7*Tabelle8[[#This Row],[Simple]]+10*Tabelle8[[#This Row],[Average]]+15*Tabelle8[[#This Row],[Complex]])</f>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="J74" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
@@ -3451,7 +3655,7 @@
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C78" t="s">
         <v>10</v>
@@ -3466,13 +3670,13 @@
         <v>9</v>
       </c>
       <c r="G78" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H78" t="s">
         <v>17</v>
       </c>
       <c r="I78" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J78" t="s">
         <v>11</v>
@@ -3501,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -3520,7 +3724,7 @@
         <v>13</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80">
         <f>IF(OR(AND(Tabelle9[[#This Row],[FTR/RET]]&lt;=1, Tabelle9[[#This Row],[DET]] &lt;= 19), AND(Tabelle9[[#This Row],[FTR/RET]]&lt;= 3, Tabelle9[[#This Row],[DET]] &lt;= 5)), 1, 0)</f>
@@ -3535,14 +3739,14 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
         <v>0</v>
       </c>
       <c r="I80">
         <f>Tabelle9[[#This Row],[Count]]*(Tabelle9[[#This Row],[Simple]]*4+Tabelle9[[#This Row],[Average]]*5+Tabelle9[[#This Row],[Complex]]*7)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.25">
@@ -3550,7 +3754,7 @@
         <v>14</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81">
         <f>IF(OR(AND(Tabelle9[[#This Row],[FTR/RET]]&lt;=1, Tabelle9[[#This Row],[DET]] &lt;= 19), AND(Tabelle9[[#This Row],[FTR/RET]]&lt;= 3, Tabelle9[[#This Row],[DET]] &lt;= 5)), 1, 0)</f>
@@ -3572,7 +3776,7 @@
       </c>
       <c r="I81">
         <f>Tabelle9[[#This Row],[Count]]*(3*Tabelle9[[#This Row],[Simple]]+4*Tabelle9[[#This Row],[Average]]+6*Tabelle9[[#This Row],[Complex]])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
@@ -3580,7 +3784,7 @@
         <v>15</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82">
         <f>IF(OR(AND(Tabelle9[[#This Row],[FTR/RET]]&lt;2, Tabelle9[[#This Row],[DET]] &lt;= 50), AND(Tabelle9[[#This Row],[FTR/RET]]&lt;=5, Tabelle9[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
@@ -3595,17 +3799,17 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82">
         <f>Tabelle9[[#This Row],[Count]]*(7*Tabelle9[[#This Row],[Simple]]+10*Tabelle9[[#This Row],[Average]]+15*Tabelle9[[#This Row],[Complex]])</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J82" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.25">
@@ -3640,7 +3844,7 @@
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C86" t="s">
         <v>10</v>
@@ -3655,13 +3859,13 @@
         <v>9</v>
       </c>
       <c r="G86" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H86" t="s">
         <v>17</v>
       </c>
       <c r="I86" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J86" t="s">
         <v>11</v>
@@ -3675,7 +3879,7 @@
         <v>12</v>
       </c>
       <c r="C87">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D87">
         <f>IF(OR(AND(Tabelle10[[#This Row],[FTR/RET]]&lt;=1, Tabelle10[[#This Row],[DET]] &lt;= 15), AND(Tabelle10[[#This Row],[FTR/RET]]&lt;= 3, Tabelle10[[#This Row],[DET]] &lt;= 4)), 1, 0)</f>
@@ -3697,11 +3901,11 @@
       </c>
       <c r="I87">
         <f>Tabelle10[[#This Row],[Count]]*(3*Tabelle10[[#This Row],[Simple]]+4*Tabelle10[[#This Row],[Average]]+6*Tabelle10[[#This Row],[Complex]])</f>
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="K87">
         <f>SUM(Tabelle10[Points])*0.65</f>
-        <v>28.6</v>
+        <v>15.600000000000001</v>
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.25">
@@ -3709,7 +3913,7 @@
         <v>13</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88">
         <f>IF(OR(AND(Tabelle10[[#This Row],[FTR/RET]]&lt;=1, Tabelle10[[#This Row],[DET]] &lt;= 19), AND(Tabelle10[[#This Row],[FTR/RET]]&lt;= 3, Tabelle10[[#This Row],[DET]] &lt;= 5)), 1, 0)</f>
@@ -3731,7 +3935,7 @@
       </c>
       <c r="I88">
         <f>Tabelle10[[#This Row],[Count]]*(Tabelle10[[#This Row],[Simple]]*4+Tabelle10[[#This Row],[Average]]*5+Tabelle10[[#This Row],[Complex]]*7)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.25">
@@ -3794,7 +3998,7 @@
         <v>14</v>
       </c>
       <c r="J90" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.25">
@@ -3829,7 +4033,7 @@
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C94" t="s">
         <v>10</v>
@@ -3844,13 +4048,13 @@
         <v>9</v>
       </c>
       <c r="G94" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H94" t="s">
         <v>17</v>
       </c>
       <c r="I94" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J94" t="s">
         <v>11</v>
@@ -3863,6 +4067,9 @@
       <c r="B95" t="s">
         <v>12</v>
       </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
       <c r="D95">
         <f>IF(OR(AND(Tabelle11[[#This Row],[FTR/RET]]&lt;=1, Tabelle11[[#This Row],[DET]] &lt;= 15), AND(Tabelle11[[#This Row],[FTR/RET]]&lt;= 3, Tabelle11[[#This Row],[DET]] &lt;= 4)), 1, 0)</f>
         <v>1</v>
@@ -3883,17 +4090,20 @@
       </c>
       <c r="I95">
         <f>Tabelle11[[#This Row],[Count]]*(3*Tabelle11[[#This Row],[Simple]]+4*Tabelle11[[#This Row],[Average]]+6*Tabelle11[[#This Row],[Complex]])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K95">
         <f>SUM(Tabelle11[Points])*0.65</f>
-        <v>20.150000000000002</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>13</v>
       </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
       <c r="D96">
         <f>IF(OR(AND(Tabelle11[[#This Row],[FTR/RET]]&lt;=1, Tabelle11[[#This Row],[DET]] &lt;= 19), AND(Tabelle11[[#This Row],[FTR/RET]]&lt;= 3, Tabelle11[[#This Row],[DET]] &lt;= 5)), 1, 0)</f>
         <v>1</v>
@@ -3914,7 +4124,7 @@
       </c>
       <c r="I96">
         <f>Tabelle11[[#This Row],[Count]]*(Tabelle11[[#This Row],[Simple]]*4+Tabelle11[[#This Row],[Average]]*5+Tabelle11[[#This Row],[Complex]]*7)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
@@ -3922,7 +4132,7 @@
         <v>14</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D97">
         <f>IF(OR(AND(Tabelle11[[#This Row],[FTR/RET]]&lt;=1, Tabelle11[[#This Row],[DET]] &lt;= 19), AND(Tabelle11[[#This Row],[FTR/RET]]&lt;= 3, Tabelle11[[#This Row],[DET]] &lt;= 5)), 1, 0)</f>
@@ -3944,11 +4154,11 @@
       </c>
       <c r="I97">
         <f>Tabelle11[[#This Row],[Count]]*(3*Tabelle11[[#This Row],[Simple]]+4*Tabelle11[[#This Row],[Average]]+6*Tabelle11[[#This Row],[Complex]])</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K97">
         <f>SeeMapsFP/Tabelle15[Velocity]</f>
-        <v>23.882653061224492</v>
+        <v>5.3255646323882742</v>
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.25">
@@ -3956,7 +4166,7 @@
         <v>15</v>
       </c>
       <c r="C98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D98">
         <f>IF(OR(AND(Tabelle11[[#This Row],[FTR/RET]]&lt;2, Tabelle11[[#This Row],[DET]] &lt;= 50), AND(Tabelle11[[#This Row],[FTR/RET]]&lt;=5, Tabelle11[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
@@ -3978,10 +4188,10 @@
       </c>
       <c r="I98">
         <f>Tabelle11[[#This Row],[Count]]*(7*Tabelle11[[#This Row],[Simple]]+10*Tabelle11[[#This Row],[Average]]+15*Tabelle11[[#This Row],[Complex]])</f>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="J98" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.25">
@@ -3989,7 +4199,7 @@
         <v>16</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99">
         <f>IF(OR(AND(Tabelle11[[#This Row],[FTR/RET]]&lt;2, Tabelle11[[#This Row],[DET]] &lt;= 50), AND(Tabelle11[[#This Row],[FTR/RET]]&lt;=5, Tabelle11[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
@@ -4011,15 +4221,15 @@
       </c>
       <c r="I99">
         <f>Tabelle11[[#This Row],[Count]]*(5*Tabelle11[[#This Row],[Simple]]+7*Tabelle11[[#This Row],[Average]]+10*Tabelle11[[#This Row],[Complex]])</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C102" t="s">
         <v>10</v>
@@ -4034,13 +4244,13 @@
         <v>9</v>
       </c>
       <c r="G102" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H102" t="s">
         <v>17</v>
       </c>
       <c r="I102" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J102" t="s">
         <v>11</v>
@@ -4079,11 +4289,11 @@
         <v>3</v>
       </c>
       <c r="J103" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K103">
         <f>SUM(Tabelle12[Points])*0.65</f>
-        <v>11.05</v>
+        <v>17.55</v>
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
@@ -4091,7 +4301,7 @@
         <v>13</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104">
         <f>IF(OR(AND(Tabelle12[[#This Row],[FTR/RET]]&lt;=1, Tabelle12[[#This Row],[DET]] &lt;= 19), AND(Tabelle12[[#This Row],[FTR/RET]]&lt;= 3, Tabelle12[[#This Row],[DET]] &lt;= 5)), 1, 0)</f>
@@ -4113,7 +4323,7 @@
       </c>
       <c r="I104">
         <f>Tabelle12[[#This Row],[Count]]*(Tabelle12[[#This Row],[Simple]]*4+Tabelle12[[#This Row],[Average]]*5+Tabelle12[[#This Row],[Complex]]*7)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
@@ -4121,7 +4331,7 @@
         <v>14</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D105">
         <f>IF(OR(AND(Tabelle12[[#This Row],[FTR/RET]]&lt;=1, Tabelle12[[#This Row],[DET]] &lt;= 19), AND(Tabelle12[[#This Row],[FTR/RET]]&lt;= 3, Tabelle12[[#This Row],[DET]] &lt;= 5)), 1, 0)</f>
@@ -4143,11 +4353,11 @@
       </c>
       <c r="I105">
         <f>Tabelle12[[#This Row],[Count]]*(3*Tabelle12[[#This Row],[Simple]]+4*Tabelle12[[#This Row],[Average]]+6*Tabelle12[[#This Row],[Complex]])</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K105">
         <f>SetTagsFP/Tabelle15[Velocity]</f>
-        <v>13.096938775510203</v>
+        <v>7.1895122537241702</v>
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
@@ -4180,7 +4390,7 @@
         <v>14</v>
       </c>
       <c r="J106" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.25">
@@ -4215,7 +4425,7 @@
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C110" t="s">
         <v>10</v>
@@ -4230,13 +4440,13 @@
         <v>9</v>
       </c>
       <c r="G110" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H110" t="s">
         <v>17</v>
       </c>
       <c r="I110" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J110" t="s">
         <v>11</v>
@@ -4250,7 +4460,7 @@
         <v>12</v>
       </c>
       <c r="C111">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D111">
         <f>IF(OR(AND(Tabelle1214[[#This Row],[FTR/RET]]&lt;=1, Tabelle1214[[#This Row],[DET]] &lt;= 15), AND(Tabelle1214[[#This Row],[FTR/RET]]&lt;= 3, Tabelle1214[[#This Row],[DET]] &lt;= 4)), 1, 0)</f>
@@ -4272,14 +4482,14 @@
       </c>
       <c r="I111">
         <f>Tabelle1214[[#This Row],[Count]]*(3*Tabelle1214[[#This Row],[Simple]]+4*Tabelle1214[[#This Row],[Average]]+6*Tabelle1214[[#This Row],[Complex]])</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J111" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="K111">
         <f>SUM(Tabelle1214[Points])*0.65</f>
-        <v>16.900000000000002</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
@@ -4287,7 +4497,7 @@
         <v>13</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112">
         <f>IF(OR(AND(Tabelle1214[[#This Row],[FTR/RET]]&lt;=1, Tabelle1214[[#This Row],[DET]] &lt;= 19), AND(Tabelle1214[[#This Row],[FTR/RET]]&lt;= 3, Tabelle1214[[#This Row],[DET]] &lt;= 5)), 1, 0)</f>
@@ -4309,7 +4519,7 @@
       </c>
       <c r="I112">
         <f>Tabelle1214[[#This Row],[Count]]*(Tabelle1214[[#This Row],[Simple]]*4+Tabelle1214[[#This Row],[Average]]*5+Tabelle1214[[#This Row],[Complex]]*7)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.25">
@@ -4317,7 +4527,7 @@
         <v>14</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D113">
         <f>IF(OR(AND(Tabelle1214[[#This Row],[FTR/RET]]&lt;=1, Tabelle1214[[#This Row],[DET]] &lt;= 19), AND(Tabelle1214[[#This Row],[FTR/RET]]&lt;= 3, Tabelle1214[[#This Row],[DET]] &lt;= 5)), 1, 0)</f>
@@ -4339,11 +4549,11 @@
       </c>
       <c r="I113">
         <f>Tabelle1214[[#This Row],[Count]]*(3*Tabelle1214[[#This Row],[Simple]]+4*Tabelle1214[[#This Row],[Average]]+6*Tabelle1214[[#This Row],[Complex]])</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K113">
         <f>AdministrateBarsFP/Tabelle15[Velocity]</f>
-        <v>20.030612244897959</v>
+        <v>5.3255646323882742</v>
       </c>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.25">
@@ -4351,7 +4561,7 @@
         <v>15</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D114">
         <f>IF(OR(AND(Tabelle1214[[#This Row],[FTR/RET]]&lt;2, Tabelle1214[[#This Row],[DET]] &lt;= 50), AND(Tabelle1214[[#This Row],[FTR/RET]]&lt;=5, Tabelle1214[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
@@ -4373,10 +4583,10 @@
       </c>
       <c r="I114">
         <f>Tabelle1214[[#This Row],[Count]]*(7*Tabelle1214[[#This Row],[Simple]]+10*Tabelle1214[[#This Row],[Average]]+15*Tabelle1214[[#This Row],[Complex]])</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J114" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.25">
@@ -4411,7 +4621,7 @@
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C118" t="s">
         <v>10</v>
@@ -4426,13 +4636,13 @@
         <v>9</v>
       </c>
       <c r="G118" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H118" t="s">
         <v>17</v>
       </c>
       <c r="I118" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J118" t="s">
         <v>11</v>
@@ -4446,33 +4656,33 @@
         <v>12</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D119">
         <f>IF(OR(AND(Tabelle121415[[#This Row],[FTR/RET]]&lt;=1, Tabelle121415[[#This Row],[DET]] &lt;= 15), AND(Tabelle121415[[#This Row],[FTR/RET]]&lt;= 3, Tabelle121415[[#This Row],[DET]] &lt;= 4)), 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119">
         <f>IF(OR(AND(Tabelle121415[[#This Row],[FTR/RET]]&lt;=1, Tabelle121415[[#This Row],[DET]] &gt; 15), AND(Tabelle121415[[#This Row],[FTR/RET]]&lt;=5, Tabelle121415[[#This Row],[FTR/RET]]&gt;=2, Tabelle121415[[#This Row],[DET]] &gt;= 5, Tabelle121415[[#This Row],[DET]] &lt;= 15), AND(Tabelle121415[[#This Row],[FTR/RET]] &gt;= 5, Tabelle121415[[#This Row],[DET]] &lt;= 4 )), 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119">
         <f>IF(AND(Tabelle121415[[#This Row],[Simple]]=0,Tabelle121415[[#This Row],[Average]]=0), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I119">
         <f>Tabelle121415[[#This Row],[Count]]*(3*Tabelle121415[[#This Row],[Simple]]+4*Tabelle121415[[#This Row],[Average]]+6*Tabelle121415[[#This Row],[Complex]])</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K119">
         <f>SUM(Tabelle121415[Points])*0.65</f>
-        <v>0</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.25">
@@ -4480,7 +4690,7 @@
         <v>13</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120">
         <f>IF(OR(AND(Tabelle121415[[#This Row],[FTR/RET]]&lt;=1, Tabelle121415[[#This Row],[DET]] &lt;= 19), AND(Tabelle121415[[#This Row],[FTR/RET]]&lt;= 3, Tabelle121415[[#This Row],[DET]] &lt;= 5)), 1, 0)</f>
@@ -4495,14 +4705,14 @@
         <v>0</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120">
         <f>Tabelle121415[[#This Row],[Count]]*(Tabelle121415[[#This Row],[Simple]]*4+Tabelle121415[[#This Row],[Average]]*5+Tabelle121415[[#This Row],[Complex]]*7)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.25">
@@ -4510,7 +4720,7 @@
         <v>14</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D121">
         <f>IF(OR(AND(Tabelle121415[[#This Row],[FTR/RET]]&lt;=1, Tabelle121415[[#This Row],[DET]] &lt;= 19), AND(Tabelle121415[[#This Row],[FTR/RET]]&lt;= 3, Tabelle121415[[#This Row],[DET]] &lt;= 5)), 1, 0)</f>
@@ -4525,14 +4735,14 @@
         <v>0</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121">
         <f>Tabelle121415[[#This Row],[Count]]*(3*Tabelle121415[[#This Row],[Simple]]+4*Tabelle121415[[#This Row],[Average]]+6*Tabelle121415[[#This Row],[Complex]])</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.25">
@@ -4540,7 +4750,7 @@
         <v>15</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D122">
         <f>IF(OR(AND(Tabelle121415[[#This Row],[FTR/RET]]&lt;2, Tabelle121415[[#This Row],[DET]] &lt;= 50), AND(Tabelle121415[[#This Row],[FTR/RET]]&lt;=5, Tabelle121415[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
@@ -4555,14 +4765,14 @@
         <v>0</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122">
         <f>Tabelle121415[[#This Row],[Count]]*(7*Tabelle121415[[#This Row],[Simple]]+10*Tabelle121415[[#This Row],[Average]]+15*Tabelle121415[[#This Row],[Complex]])</f>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.25">
@@ -4592,6 +4802,936 @@
       </c>
       <c r="I123">
         <f>Tabelle121415[[#This Row],[Count]]*(5*Tabelle121415[[#This Row],[Simple]]+7*Tabelle121415[[#This Row],[Average]]+10*Tabelle121415[[#This Row],[Complex]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>45</v>
+      </c>
+      <c r="C126" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126" t="s">
+        <v>9</v>
+      </c>
+      <c r="G126" t="s">
+        <v>23</v>
+      </c>
+      <c r="H126" t="s">
+        <v>17</v>
+      </c>
+      <c r="I126" t="s">
+        <v>24</v>
+      </c>
+      <c r="J126" t="s">
+        <v>11</v>
+      </c>
+      <c r="K126" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127">
+        <v>5</v>
+      </c>
+      <c r="D127">
+        <f>IF(OR(AND(Tabelle12141524[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141524[[#This Row],[DET]] &lt;= 15), AND(Tabelle12141524[[#This Row],[FTR/RET]]&lt;= 3, Tabelle12141524[[#This Row],[DET]] &lt;= 4)), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <f>IF(OR(AND(Tabelle12141524[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141524[[#This Row],[DET]] &gt; 15), AND(Tabelle12141524[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141524[[#This Row],[FTR/RET]]&gt;=2, Tabelle12141524[[#This Row],[DET]] &gt;= 5, Tabelle12141524[[#This Row],[DET]] &lt;= 15), AND(Tabelle12141524[[#This Row],[FTR/RET]] &gt;= 5, Tabelle12141524[[#This Row],[DET]] &lt;= 4 )), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <f>IF(AND(Tabelle12141524[[#This Row],[Simple]]=0,Tabelle12141524[[#This Row],[Average]]=0), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>2</v>
+      </c>
+      <c r="H127">
+        <v>5</v>
+      </c>
+      <c r="I127">
+        <f>Tabelle12141524[[#This Row],[Count]]*(3*Tabelle12141524[[#This Row],[Simple]]+4*Tabelle12141524[[#This Row],[Average]]+6*Tabelle12141524[[#This Row],[Complex]])</f>
+        <v>20</v>
+      </c>
+      <c r="K127">
+        <f>SUM(Tabelle12141524[Points])*0.65</f>
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <f>IF(OR(AND(Tabelle12141524[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141524[[#This Row],[DET]] &lt;= 19), AND(Tabelle12141524[[#This Row],[FTR/RET]]&lt;= 3, Tabelle12141524[[#This Row],[DET]] &lt;= 5)), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <f>IF(OR(AND(Tabelle12141524[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141524[[#This Row],[DET]] &gt; 20), AND(Tabelle12141524[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141524[[#This Row],[FTR/RET]]&gt;=2, Tabelle12141524[[#This Row],[DET]] &gt;= 6, Tabelle12141524[[#This Row],[DET]] &lt;= 19), AND(Tabelle12141524[[#This Row],[FTR/RET]] &gt;= 5, Tabelle12141524[[#This Row],[DET]] &lt;= 5 )), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <f>IF(AND(Tabelle12141524[[#This Row],[Simple]]=0,Tabelle12141524[[#This Row],[Average]]=0), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <f>Tabelle12141524[[#This Row],[Count]]*(Tabelle12141524[[#This Row],[Simple]]*4+Tabelle12141524[[#This Row],[Average]]*5+Tabelle12141524[[#This Row],[Complex]]*7)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129">
+        <v>2</v>
+      </c>
+      <c r="D129">
+        <f>IF(OR(AND(Tabelle12141524[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141524[[#This Row],[DET]] &lt;= 19), AND(Tabelle12141524[[#This Row],[FTR/RET]]&lt;= 3, Tabelle12141524[[#This Row],[DET]] &lt;= 5)), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <f>IF(OR(AND(Tabelle12141524[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141524[[#This Row],[DET]] &gt; 20), AND(Tabelle12141524[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141524[[#This Row],[FTR/RET]]&gt;=2, Tabelle12141524[[#This Row],[DET]] &gt;= 6, Tabelle12141524[[#This Row],[DET]] &lt;= 19), AND(Tabelle12141524[[#This Row],[FTR/RET]] &gt;= 5, Tabelle12141524[[#This Row],[DET]] &lt;= 5 )), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <f>IF(AND(Tabelle12141524[[#This Row],[Simple]]=0,Tabelle12141524[[#This Row],[Average]]=0), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
+        <f>Tabelle12141524[[#This Row],[Count]]*(3*Tabelle12141524[[#This Row],[Simple]]+4*Tabelle12141524[[#This Row],[Average]]+6*Tabelle12141524[[#This Row],[Complex]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130">
+        <v>2</v>
+      </c>
+      <c r="D130">
+        <f>IF(OR(AND(Tabelle12141524[[#This Row],[FTR/RET]]&lt;2, Tabelle12141524[[#This Row],[DET]] &lt;= 50), AND(Tabelle12141524[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141524[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <f>IF(OR(AND(Tabelle12141524[[#This Row],[FTR/RET]]=1, Tabelle12141524[[#This Row],[DET]] &gt; 50), AND(Tabelle12141524[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141524[[#This Row],[FTR/RET]]&gt;=2, Tabelle12141524[[#This Row],[DET]] &gt;= 20, Tabelle12141524[[#This Row],[DET]] &lt;= 50), AND(Tabelle12141524[[#This Row],[FTR/RET]] &gt;= 5, Tabelle12141524[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <f>IF(AND(Tabelle12141524[[#This Row],[Simple]]=0,Tabelle12141524[[#This Row],[Average]]=0), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>3</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <f>Tabelle12141524[[#This Row],[Count]]*(7*Tabelle12141524[[#This Row],[Simple]]+10*Tabelle12141524[[#This Row],[Average]]+15*Tabelle12141524[[#This Row],[Complex]])</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <f>IF(OR(AND(Tabelle12141524[[#This Row],[FTR/RET]]&lt;2, Tabelle12141524[[#This Row],[DET]] &lt;= 50), AND(Tabelle12141524[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141524[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <f>IF(OR(AND(Tabelle12141524[[#This Row],[FTR/RET]]=1, Tabelle12141524[[#This Row],[DET]] &gt; 50), AND(Tabelle12141524[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141524[[#This Row],[FTR/RET]]&gt;=2, Tabelle12141524[[#This Row],[DET]] &gt;= 20, Tabelle12141524[[#This Row],[DET]] &lt;= 50), AND(Tabelle12141524[[#This Row],[FTR/RET]] &gt;= 5, Tabelle12141524[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <f>IF(AND(Tabelle12141524[[#This Row],[Simple]]=0,Tabelle12141524[[#This Row],[Average]]=0), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <f>Tabelle12141524[[#This Row],[Count]]*(5*Tabelle12141524[[#This Row],[Simple]]+7*Tabelle12141524[[#This Row],[Average]]+10*Tabelle12141524[[#This Row],[Complex]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>46</v>
+      </c>
+      <c r="C134" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134" t="s">
+        <v>9</v>
+      </c>
+      <c r="G134" t="s">
+        <v>23</v>
+      </c>
+      <c r="H134" t="s">
+        <v>17</v>
+      </c>
+      <c r="I134" t="s">
+        <v>24</v>
+      </c>
+      <c r="J134" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
+      <c r="D135">
+        <f>IF(OR(AND(Tabelle12141518[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141518[[#This Row],[DET]] &lt;= 15), AND(Tabelle12141518[[#This Row],[FTR/RET]]&lt;= 3, Tabelle12141518[[#This Row],[DET]] &lt;= 4)), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <f>IF(OR(AND(Tabelle12141518[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141518[[#This Row],[DET]] &gt; 15), AND(Tabelle12141518[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141518[[#This Row],[FTR/RET]]&gt;=2, Tabelle12141518[[#This Row],[DET]] &gt;= 5, Tabelle12141518[[#This Row],[DET]] &lt;= 15), AND(Tabelle12141518[[#This Row],[FTR/RET]] &gt;= 5, Tabelle12141518[[#This Row],[DET]] &lt;= 4 )), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <f>IF(AND(Tabelle12141518[[#This Row],[Simple]]=0,Tabelle12141518[[#This Row],[Average]]=0), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <v>2</v>
+      </c>
+      <c r="I135">
+        <f>Tabelle12141518[[#This Row],[Count]]*(3*Tabelle12141518[[#This Row],[Simple]]+4*Tabelle12141518[[#This Row],[Average]]+6*Tabelle12141518[[#This Row],[Complex]])</f>
+        <v>6</v>
+      </c>
+      <c r="K135">
+        <f>SUM(Tabelle12141518[Points])*0.65</f>
+        <v>17.55</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <f>IF(OR(AND(Tabelle12141518[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141518[[#This Row],[DET]] &lt;= 19), AND(Tabelle12141518[[#This Row],[FTR/RET]]&lt;= 3, Tabelle12141518[[#This Row],[DET]] &lt;= 5)), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <f>IF(OR(AND(Tabelle12141518[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141518[[#This Row],[DET]] &gt; 20), AND(Tabelle12141518[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141518[[#This Row],[FTR/RET]]&gt;=2, Tabelle12141518[[#This Row],[DET]] &gt;= 6, Tabelle12141518[[#This Row],[DET]] &lt;= 19), AND(Tabelle12141518[[#This Row],[FTR/RET]] &gt;= 5, Tabelle12141518[[#This Row],[DET]] &lt;= 5 )), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <f>IF(AND(Tabelle12141518[[#This Row],[Simple]]=0,Tabelle12141518[[#This Row],[Average]]=0), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136">
+        <f>Tabelle12141518[[#This Row],[Count]]*(Tabelle12141518[[#This Row],[Simple]]*4+Tabelle12141518[[#This Row],[Average]]*5+Tabelle12141518[[#This Row],[Complex]]*7)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <f>IF(OR(AND(Tabelle12141518[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141518[[#This Row],[DET]] &lt;= 19), AND(Tabelle12141518[[#This Row],[FTR/RET]]&lt;= 3, Tabelle12141518[[#This Row],[DET]] &lt;= 5)), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <f>IF(OR(AND(Tabelle12141518[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141518[[#This Row],[DET]] &gt; 20), AND(Tabelle12141518[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141518[[#This Row],[FTR/RET]]&gt;=2, Tabelle12141518[[#This Row],[DET]] &gt;= 6, Tabelle12141518[[#This Row],[DET]] &lt;= 19), AND(Tabelle12141518[[#This Row],[FTR/RET]] &gt;= 5, Tabelle12141518[[#This Row],[DET]] &lt;= 5 )), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <f>IF(AND(Tabelle12141518[[#This Row],[Simple]]=0,Tabelle12141518[[#This Row],[Average]]=0), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>2</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <f>Tabelle12141518[[#This Row],[Count]]*(3*Tabelle12141518[[#This Row],[Simple]]+4*Tabelle12141518[[#This Row],[Average]]+6*Tabelle12141518[[#This Row],[Complex]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>15</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+      <c r="D138">
+        <f>IF(OR(AND(Tabelle12141518[[#This Row],[FTR/RET]]&lt;2, Tabelle12141518[[#This Row],[DET]] &lt;= 50), AND(Tabelle12141518[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141518[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <f>IF(OR(AND(Tabelle12141518[[#This Row],[FTR/RET]]=1, Tabelle12141518[[#This Row],[DET]] &gt; 50), AND(Tabelle12141518[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141518[[#This Row],[FTR/RET]]&gt;=2, Tabelle12141518[[#This Row],[DET]] &gt;= 20, Tabelle12141518[[#This Row],[DET]] &lt;= 50), AND(Tabelle12141518[[#This Row],[FTR/RET]] &gt;= 5, Tabelle12141518[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <f>IF(AND(Tabelle12141518[[#This Row],[Simple]]=0,Tabelle12141518[[#This Row],[Average]]=0), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>4</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <f>Tabelle12141518[[#This Row],[Count]]*(7*Tabelle12141518[[#This Row],[Simple]]+10*Tabelle12141518[[#This Row],[Average]]+15*Tabelle12141518[[#This Row],[Complex]])</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>16</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <f>IF(OR(AND(Tabelle12141518[[#This Row],[FTR/RET]]&lt;2, Tabelle12141518[[#This Row],[DET]] &lt;= 50), AND(Tabelle12141518[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141518[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <f>IF(OR(AND(Tabelle12141518[[#This Row],[FTR/RET]]=1, Tabelle12141518[[#This Row],[DET]] &gt; 50), AND(Tabelle12141518[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141518[[#This Row],[FTR/RET]]&gt;=2, Tabelle12141518[[#This Row],[DET]] &gt;= 20, Tabelle12141518[[#This Row],[DET]] &lt;= 50), AND(Tabelle12141518[[#This Row],[FTR/RET]] &gt;= 5, Tabelle12141518[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <f>IF(AND(Tabelle12141518[[#This Row],[Simple]]=0,Tabelle12141518[[#This Row],[Average]]=0), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <f>Tabelle12141518[[#This Row],[Count]]*(5*Tabelle12141518[[#This Row],[Simple]]+7*Tabelle12141518[[#This Row],[Average]]+10*Tabelle12141518[[#This Row],[Complex]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>47</v>
+      </c>
+      <c r="C142" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142" t="s">
+        <v>7</v>
+      </c>
+      <c r="E142" t="s">
+        <v>8</v>
+      </c>
+      <c r="F142" t="s">
+        <v>9</v>
+      </c>
+      <c r="G142" t="s">
+        <v>23</v>
+      </c>
+      <c r="H142" t="s">
+        <v>17</v>
+      </c>
+      <c r="I142" t="s">
+        <v>24</v>
+      </c>
+      <c r="J142" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <f>IF(OR(AND(Tabelle12141519[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141519[[#This Row],[DET]] &lt;= 15), AND(Tabelle12141519[[#This Row],[FTR/RET]]&lt;= 3, Tabelle12141519[[#This Row],[DET]] &lt;= 4)), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <f>IF(OR(AND(Tabelle12141519[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141519[[#This Row],[DET]] &gt; 15), AND(Tabelle12141519[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141519[[#This Row],[FTR/RET]]&gt;=2, Tabelle12141519[[#This Row],[DET]] &gt;= 5, Tabelle12141519[[#This Row],[DET]] &lt;= 15), AND(Tabelle12141519[[#This Row],[FTR/RET]] &gt;= 5, Tabelle12141519[[#This Row],[DET]] &lt;= 4 )), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <f>IF(AND(Tabelle12141519[[#This Row],[Simple]]=0,Tabelle12141519[[#This Row],[Average]]=0), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143">
+        <f>Tabelle12141519[[#This Row],[Count]]*(3*Tabelle12141519[[#This Row],[Simple]]+4*Tabelle12141519[[#This Row],[Average]]+6*Tabelle12141519[[#This Row],[Complex]])</f>
+        <v>3</v>
+      </c>
+      <c r="K143">
+        <f>SUM(Tabelle12141519[Points])*0.65</f>
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <f>IF(OR(AND(Tabelle12141519[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141519[[#This Row],[DET]] &lt;= 19), AND(Tabelle12141519[[#This Row],[FTR/RET]]&lt;= 3, Tabelle12141519[[#This Row],[DET]] &lt;= 5)), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <f>IF(OR(AND(Tabelle12141519[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141519[[#This Row],[DET]] &gt; 20), AND(Tabelle12141519[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141519[[#This Row],[FTR/RET]]&gt;=2, Tabelle12141519[[#This Row],[DET]] &gt;= 6, Tabelle12141519[[#This Row],[DET]] &lt;= 19), AND(Tabelle12141519[[#This Row],[FTR/RET]] &gt;= 5, Tabelle12141519[[#This Row],[DET]] &lt;= 5 )), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <f>IF(AND(Tabelle12141519[[#This Row],[Simple]]=0,Tabelle12141519[[#This Row],[Average]]=0), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <f>Tabelle12141519[[#This Row],[Count]]*(Tabelle12141519[[#This Row],[Simple]]*4+Tabelle12141519[[#This Row],[Average]]*5+Tabelle12141519[[#This Row],[Complex]]*7)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <f>IF(OR(AND(Tabelle12141519[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141519[[#This Row],[DET]] &lt;= 19), AND(Tabelle12141519[[#This Row],[FTR/RET]]&lt;= 3, Tabelle12141519[[#This Row],[DET]] &lt;= 5)), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <f>IF(OR(AND(Tabelle12141519[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141519[[#This Row],[DET]] &gt; 20), AND(Tabelle12141519[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141519[[#This Row],[FTR/RET]]&gt;=2, Tabelle12141519[[#This Row],[DET]] &gt;= 6, Tabelle12141519[[#This Row],[DET]] &lt;= 19), AND(Tabelle12141519[[#This Row],[FTR/RET]] &gt;= 5, Tabelle12141519[[#This Row],[DET]] &lt;= 5 )), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <f>IF(AND(Tabelle12141519[[#This Row],[Simple]]=0,Tabelle12141519[[#This Row],[Average]]=0), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <f>Tabelle12141519[[#This Row],[Count]]*(3*Tabelle12141519[[#This Row],[Simple]]+4*Tabelle12141519[[#This Row],[Average]]+6*Tabelle12141519[[#This Row],[Complex]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>15</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <f>IF(OR(AND(Tabelle12141519[[#This Row],[FTR/RET]]&lt;2, Tabelle12141519[[#This Row],[DET]] &lt;= 50), AND(Tabelle12141519[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141519[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <f>IF(OR(AND(Tabelle12141519[[#This Row],[FTR/RET]]=1, Tabelle12141519[[#This Row],[DET]] &gt; 50), AND(Tabelle12141519[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141519[[#This Row],[FTR/RET]]&gt;=2, Tabelle12141519[[#This Row],[DET]] &gt;= 20, Tabelle12141519[[#This Row],[DET]] &lt;= 50), AND(Tabelle12141519[[#This Row],[FTR/RET]] &gt;= 5, Tabelle12141519[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <f>IF(AND(Tabelle12141519[[#This Row],[Simple]]=0,Tabelle12141519[[#This Row],[Average]]=0), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <f>Tabelle12141519[[#This Row],[Count]]*(7*Tabelle12141519[[#This Row],[Simple]]+10*Tabelle12141519[[#This Row],[Average]]+15*Tabelle12141519[[#This Row],[Complex]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>16</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <f>IF(OR(AND(Tabelle12141519[[#This Row],[FTR/RET]]&lt;2, Tabelle12141519[[#This Row],[DET]] &lt;= 50), AND(Tabelle12141519[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141519[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <f>IF(OR(AND(Tabelle12141519[[#This Row],[FTR/RET]]=1, Tabelle12141519[[#This Row],[DET]] &gt; 50), AND(Tabelle12141519[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141519[[#This Row],[FTR/RET]]&gt;=2, Tabelle12141519[[#This Row],[DET]] &gt;= 20, Tabelle12141519[[#This Row],[DET]] &lt;= 50), AND(Tabelle12141519[[#This Row],[FTR/RET]] &gt;= 5, Tabelle12141519[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <f>IF(AND(Tabelle12141519[[#This Row],[Simple]]=0,Tabelle12141519[[#This Row],[Average]]=0), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <f>Tabelle12141519[[#This Row],[Count]]*(5*Tabelle12141519[[#This Row],[Simple]]+7*Tabelle12141519[[#This Row],[Average]]+10*Tabelle12141519[[#This Row],[Complex]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>48</v>
+      </c>
+      <c r="C150" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" t="s">
+        <v>8</v>
+      </c>
+      <c r="F150" t="s">
+        <v>9</v>
+      </c>
+      <c r="G150" t="s">
+        <v>23</v>
+      </c>
+      <c r="H150" t="s">
+        <v>17</v>
+      </c>
+      <c r="I150" t="s">
+        <v>24</v>
+      </c>
+      <c r="J150" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <f>IF(OR(AND(Tabelle12141520[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141520[[#This Row],[DET]] &lt;= 15), AND(Tabelle12141520[[#This Row],[FTR/RET]]&lt;= 3, Tabelle12141520[[#This Row],[DET]] &lt;= 4)), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <f>IF(OR(AND(Tabelle12141520[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141520[[#This Row],[DET]] &gt; 15), AND(Tabelle12141520[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141520[[#This Row],[FTR/RET]]&gt;=2, Tabelle12141520[[#This Row],[DET]] &gt;= 5, Tabelle12141520[[#This Row],[DET]] &lt;= 15), AND(Tabelle12141520[[#This Row],[FTR/RET]] &gt;= 5, Tabelle12141520[[#This Row],[DET]] &lt;= 4 )), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <f>IF(AND(Tabelle12141520[[#This Row],[Simple]]=0,Tabelle12141520[[#This Row],[Average]]=0), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="I151">
+        <f>Tabelle12141520[[#This Row],[Count]]*(3*Tabelle12141520[[#This Row],[Simple]]+4*Tabelle12141520[[#This Row],[Average]]+6*Tabelle12141520[[#This Row],[Complex]])</f>
+        <v>3</v>
+      </c>
+      <c r="K151">
+        <f>SUM(Tabelle12141520[Points])*0.65</f>
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <f>IF(OR(AND(Tabelle12141520[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141520[[#This Row],[DET]] &lt;= 19), AND(Tabelle12141520[[#This Row],[FTR/RET]]&lt;= 3, Tabelle12141520[[#This Row],[DET]] &lt;= 5)), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <f>IF(OR(AND(Tabelle12141520[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141520[[#This Row],[DET]] &gt; 20), AND(Tabelle12141520[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141520[[#This Row],[FTR/RET]]&gt;=2, Tabelle12141520[[#This Row],[DET]] &gt;= 6, Tabelle12141520[[#This Row],[DET]] &lt;= 19), AND(Tabelle12141520[[#This Row],[FTR/RET]] &gt;= 5, Tabelle12141520[[#This Row],[DET]] &lt;= 5 )), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <f>IF(AND(Tabelle12141520[[#This Row],[Simple]]=0,Tabelle12141520[[#This Row],[Average]]=0), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <f>Tabelle12141520[[#This Row],[Count]]*(Tabelle12141520[[#This Row],[Simple]]*4+Tabelle12141520[[#This Row],[Average]]*5+Tabelle12141520[[#This Row],[Complex]]*7)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <f>IF(OR(AND(Tabelle12141520[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141520[[#This Row],[DET]] &lt;= 19), AND(Tabelle12141520[[#This Row],[FTR/RET]]&lt;= 3, Tabelle12141520[[#This Row],[DET]] &lt;= 5)), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <f>IF(OR(AND(Tabelle12141520[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141520[[#This Row],[DET]] &gt; 20), AND(Tabelle12141520[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141520[[#This Row],[FTR/RET]]&gt;=2, Tabelle12141520[[#This Row],[DET]] &gt;= 6, Tabelle12141520[[#This Row],[DET]] &lt;= 19), AND(Tabelle12141520[[#This Row],[FTR/RET]] &gt;= 5, Tabelle12141520[[#This Row],[DET]] &lt;= 5 )), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <f>IF(AND(Tabelle12141520[[#This Row],[Simple]]=0,Tabelle12141520[[#This Row],[Average]]=0), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <f>Tabelle12141520[[#This Row],[Count]]*(3*Tabelle12141520[[#This Row],[Simple]]+4*Tabelle12141520[[#This Row],[Average]]+6*Tabelle12141520[[#This Row],[Complex]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <f>IF(OR(AND(Tabelle12141520[[#This Row],[FTR/RET]]&lt;2, Tabelle12141520[[#This Row],[DET]] &lt;= 50), AND(Tabelle12141520[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141520[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E154">
+        <f>IF(OR(AND(Tabelle12141520[[#This Row],[FTR/RET]]=1, Tabelle12141520[[#This Row],[DET]] &gt; 50), AND(Tabelle12141520[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141520[[#This Row],[FTR/RET]]&gt;=2, Tabelle12141520[[#This Row],[DET]] &gt;= 20, Tabelle12141520[[#This Row],[DET]] &lt;= 50), AND(Tabelle12141520[[#This Row],[FTR/RET]] &gt;= 5, Tabelle12141520[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <f>IF(AND(Tabelle12141520[[#This Row],[Simple]]=0,Tabelle12141520[[#This Row],[Average]]=0), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <f>Tabelle12141520[[#This Row],[Count]]*(7*Tabelle12141520[[#This Row],[Simple]]+10*Tabelle12141520[[#This Row],[Average]]+15*Tabelle12141520[[#This Row],[Complex]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>16</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <f>IF(OR(AND(Tabelle12141520[[#This Row],[FTR/RET]]&lt;2, Tabelle12141520[[#This Row],[DET]] &lt;= 50), AND(Tabelle12141520[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141520[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <f>IF(OR(AND(Tabelle12141520[[#This Row],[FTR/RET]]=1, Tabelle12141520[[#This Row],[DET]] &gt; 50), AND(Tabelle12141520[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141520[[#This Row],[FTR/RET]]&gt;=2, Tabelle12141520[[#This Row],[DET]] &gt;= 20, Tabelle12141520[[#This Row],[DET]] &lt;= 50), AND(Tabelle12141520[[#This Row],[FTR/RET]] &gt;= 5, Tabelle12141520[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <f>IF(AND(Tabelle12141520[[#This Row],[Simple]]=0,Tabelle12141520[[#This Row],[Average]]=0), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <f>Tabelle12141520[[#This Row],[Count]]*(5*Tabelle12141520[[#This Row],[Simple]]+7*Tabelle12141520[[#This Row],[Average]]+10*Tabelle12141520[[#This Row],[Complex]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>49</v>
+      </c>
+      <c r="C158" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" t="s">
+        <v>7</v>
+      </c>
+      <c r="E158" t="s">
+        <v>8</v>
+      </c>
+      <c r="F158" t="s">
+        <v>9</v>
+      </c>
+      <c r="G158" t="s">
+        <v>23</v>
+      </c>
+      <c r="H158" t="s">
+        <v>17</v>
+      </c>
+      <c r="I158" t="s">
+        <v>24</v>
+      </c>
+      <c r="J158" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <f>IF(OR(AND(Tabelle12141521[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141521[[#This Row],[DET]] &lt;= 15), AND(Tabelle12141521[[#This Row],[FTR/RET]]&lt;= 3, Tabelle12141521[[#This Row],[DET]] &lt;= 4)), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <f>IF(OR(AND(Tabelle12141521[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141521[[#This Row],[DET]] &gt; 15), AND(Tabelle12141521[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141521[[#This Row],[FTR/RET]]&gt;=2, Tabelle12141521[[#This Row],[DET]] &gt;= 5, Tabelle12141521[[#This Row],[DET]] &lt;= 15), AND(Tabelle12141521[[#This Row],[FTR/RET]] &gt;= 5, Tabelle12141521[[#This Row],[DET]] &lt;= 4 )), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <f>IF(AND(Tabelle12141521[[#This Row],[Simple]]=0,Tabelle12141521[[#This Row],[Average]]=0), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>1</v>
+      </c>
+      <c r="I159">
+        <f>Tabelle12141521[[#This Row],[Count]]*(3*Tabelle12141521[[#This Row],[Simple]]+4*Tabelle12141521[[#This Row],[Average]]+6*Tabelle12141521[[#This Row],[Complex]])</f>
+        <v>3</v>
+      </c>
+      <c r="K159">
+        <f>SUM(Tabelle12141521[Points])*0.65</f>
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="160" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <f>IF(OR(AND(Tabelle12141521[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141521[[#This Row],[DET]] &lt;= 19), AND(Tabelle12141521[[#This Row],[FTR/RET]]&lt;= 3, Tabelle12141521[[#This Row],[DET]] &lt;= 5)), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E160">
+        <f>IF(OR(AND(Tabelle12141521[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141521[[#This Row],[DET]] &gt; 20), AND(Tabelle12141521[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141521[[#This Row],[FTR/RET]]&gt;=2, Tabelle12141521[[#This Row],[DET]] &gt;= 6, Tabelle12141521[[#This Row],[DET]] &lt;= 19), AND(Tabelle12141521[[#This Row],[FTR/RET]] &gt;= 5, Tabelle12141521[[#This Row],[DET]] &lt;= 5 )), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <f>IF(AND(Tabelle12141521[[#This Row],[Simple]]=0,Tabelle12141521[[#This Row],[Average]]=0), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <f>Tabelle12141521[[#This Row],[Count]]*(Tabelle12141521[[#This Row],[Simple]]*4+Tabelle12141521[[#This Row],[Average]]*5+Tabelle12141521[[#This Row],[Complex]]*7)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>14</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <f>IF(OR(AND(Tabelle12141521[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141521[[#This Row],[DET]] &lt;= 19), AND(Tabelle12141521[[#This Row],[FTR/RET]]&lt;= 3, Tabelle12141521[[#This Row],[DET]] &lt;= 5)), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E161">
+        <f>IF(OR(AND(Tabelle12141521[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141521[[#This Row],[DET]] &gt; 20), AND(Tabelle12141521[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141521[[#This Row],[FTR/RET]]&gt;=2, Tabelle12141521[[#This Row],[DET]] &gt;= 6, Tabelle12141521[[#This Row],[DET]] &lt;= 19), AND(Tabelle12141521[[#This Row],[FTR/RET]] &gt;= 5, Tabelle12141521[[#This Row],[DET]] &lt;= 5 )), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <f>IF(AND(Tabelle12141521[[#This Row],[Simple]]=0,Tabelle12141521[[#This Row],[Average]]=0), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <f>Tabelle12141521[[#This Row],[Count]]*(3*Tabelle12141521[[#This Row],[Simple]]+4*Tabelle12141521[[#This Row],[Average]]+6*Tabelle12141521[[#This Row],[Complex]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>15</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <f>IF(OR(AND(Tabelle12141521[[#This Row],[FTR/RET]]&lt;2, Tabelle12141521[[#This Row],[DET]] &lt;= 50), AND(Tabelle12141521[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141521[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <f>IF(OR(AND(Tabelle12141521[[#This Row],[FTR/RET]]=1, Tabelle12141521[[#This Row],[DET]] &gt; 50), AND(Tabelle12141521[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141521[[#This Row],[FTR/RET]]&gt;=2, Tabelle12141521[[#This Row],[DET]] &gt;= 20, Tabelle12141521[[#This Row],[DET]] &lt;= 50), AND(Tabelle12141521[[#This Row],[FTR/RET]] &gt;= 5, Tabelle12141521[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <f>IF(AND(Tabelle12141521[[#This Row],[Simple]]=0,Tabelle12141521[[#This Row],[Average]]=0), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>1</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <f>Tabelle12141521[[#This Row],[Count]]*(7*Tabelle12141521[[#This Row],[Simple]]+10*Tabelle12141521[[#This Row],[Average]]+15*Tabelle12141521[[#This Row],[Complex]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>16</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <f>IF(OR(AND(Tabelle12141521[[#This Row],[FTR/RET]]&lt;2, Tabelle12141521[[#This Row],[DET]] &lt;= 50), AND(Tabelle12141521[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141521[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E163">
+        <f>IF(OR(AND(Tabelle12141521[[#This Row],[FTR/RET]]=1, Tabelle12141521[[#This Row],[DET]] &gt; 50), AND(Tabelle12141521[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141521[[#This Row],[FTR/RET]]&gt;=2, Tabelle12141521[[#This Row],[DET]] &gt;= 20, Tabelle12141521[[#This Row],[DET]] &lt;= 50), AND(Tabelle12141521[[#This Row],[FTR/RET]] &gt;= 5, Tabelle12141521[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <f>IF(AND(Tabelle12141521[[#This Row],[Simple]]=0,Tabelle12141521[[#This Row],[Average]]=0), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <f>Tabelle12141521[[#This Row],[Count]]*(5*Tabelle12141521[[#This Row],[Simple]]+7*Tabelle12141521[[#This Row],[Average]]+10*Tabelle12141521[[#This Row],[Complex]])</f>
         <v>0</v>
       </c>
     </row>
@@ -4599,7 +5739,7 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="15">
+  <tableParts count="20">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
@@ -4615,6 +5755,11 @@
     <tablePart r:id="rId15"/>
     <tablePart r:id="rId16"/>
     <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId19"/>
+    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId21"/>
+    <tablePart r:id="rId22"/>
   </tableParts>
 </worksheet>
 </file>
--- a/doc/FP.xlsx
+++ b/doc/FP.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projekte\vnvDoc\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\bwSyncAndShare\vnvDoc\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -43,7 +43,7 @@
     <definedName name="SetTagsFP">Tabelle1!$K$103</definedName>
     <definedName name="SurveysFP">Tabelle1!$K$47</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="52">
   <si>
     <t>UC Name</t>
   </si>
@@ -115,34 +115,13 @@
     <t>The amount depends on the survey in the database. That makes presenting the survey more comlex</t>
   </si>
   <si>
-    <t xml:space="preserve">View, Presenter, Database, Model, </t>
-  </si>
-  <si>
     <t>Total w/o warmup</t>
-  </si>
-  <si>
-    <t>A Tag will be saved</t>
   </si>
   <si>
     <t>FTR/RET</t>
   </si>
   <si>
     <t>Points</t>
-  </si>
-  <si>
-    <t>25 single, clickable stars</t>
-  </si>
-  <si>
-    <t>Presenter, Rating Class, Bar Class. Influences many fields in the database</t>
-  </si>
-  <si>
-    <t>Presenter, Bar model</t>
-  </si>
-  <si>
-    <t>Presenter, User Model</t>
-  </si>
-  <si>
-    <t>Presenter, Bar Model</t>
   </si>
   <si>
     <t>Explaniation</t>
@@ -225,11 +204,17 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>Outlier because first use case</t>
+  </si>
+  <si>
+    <t>Outlier because lot of tries</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -344,7 +329,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -383,7 +368,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -403,74 +387,35 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Register</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Total</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400">
+            <a:ln w="19050">
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:forward val="5"/>
+            <c:backward val="11"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$L$3:$L$21</c:f>
+              <c:f>Tabelle1!$L$3:$L$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>17.55</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>27.95</c:v>
@@ -507,28 +452,16 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>28.6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.55</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11.05</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11.05</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$I$3:$I$21</c:f>
+              <c:f>Tabelle1!$J$3:$J$16</c:f>
               <c:numCache>
-                <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.85416666666666663</c:v>
                 </c:pt>
@@ -570,23 +503,488 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.54722222222222217</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.7777777777777776E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.7777777777777776E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.4722222222222224E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.4305555555555556E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8E71-4C64-9F21-0A8419E9B8B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Documentation</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$L$3:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$3:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8611111111111112E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4722222222222224E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4722222222222224E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4722222222222224E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4722222222222224E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8194444444444441E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8194444444444441E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3888888888888888E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.4722222222222224E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.9444444444444434E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8E71-4C64-9F21-0A8419E9B8B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Development</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$L$3:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$3:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.85416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88194444444444453</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2916666666666671E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2916666666666671E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20138888888888887</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1076388888888889</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8194444444444441E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8194444444444441E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4722222222222224E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.9444444444444434E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.43263888888888885</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8E71-4C64-9F21-0A8419E9B8B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Testing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$L$3:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$E$3:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3888888888888888E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.9444444444444441E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.2916666666666671E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8E71-4C64-9F21-0A8419E9B8B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Total w/o outliers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:forward val="5"/>
+            <c:backward val="11"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Tabelle1!$L$5,Tabelle1!$L$7:$L$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>27.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Tabelle1!$J$4,Tabelle1!$J$6:$J$16)</c:f>
+              <c:numCache>
+                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.34375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1701388888888889</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1701388888888889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20138888888888887</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36805555555555552</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18402777777777776</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.6388888888888881E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6388888888888881E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1423611111111111</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.54722222222222217</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8E71-4C64-9F21-0A8419E9B8B0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -682,7 +1080,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="[h]:mm:ss;@" sourceLinked="0"/>
+        <c:numFmt formatCode="h:mm;@" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -746,6 +1144,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -780,7 +1182,6 @@
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -794,14 +1195,20 @@
       <xdr:rowOff>187324</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>31749</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -817,50 +1224,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.08088</cdr:x>
-      <cdr:y>0.11718</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.79289</cdr:x>
-      <cdr:y>0.92978</cdr:y>
-    </cdr:to>
-    <cdr:cxnSp macro="">
-      <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="10" name="Gerader Verbinder 9"/>
-        <cdr:cNvCxnSpPr/>
-      </cdr:nvCxnSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="523875" y="463551"/>
-          <a:ext cx="4611688" cy="3214688"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </cdr:style>
-    </cdr:cxnSp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1003,10 +1366,10 @@
   <autoFilter ref="O26:Q27"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Time spent (w/o outliers)" dataDxfId="1">
-      <calculatedColumnFormula>SUM(I3:I10,I12,I14:I15)*24</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(I3:I16)*24</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Function Points (w/o outliers)">
-      <calculatedColumnFormula>SUM(L3:L10,L12,L14:L15)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(L3:L16)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="Velocity" dataDxfId="0">
       <calculatedColumnFormula>P27/O27</calculatedColumnFormula>
@@ -1292,7 +1655,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1367,6 +1730,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1402,6 +1782,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1557,8 +1954,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="B2:Q163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="K2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,34 +1977,34 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
@@ -1642,11 +2039,14 @@
       </c>
       <c r="K3" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.29956301057184043</v>
+        <v>0.44918421756943155</v>
       </c>
       <c r="L3">
-        <f>SearchBarFP</f>
-        <v>17.55</v>
+        <f>LoginFP</f>
+        <v>28.6</v>
+      </c>
+      <c r="M3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
@@ -1681,16 +2081,16 @@
       </c>
       <c r="K4" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.48817675796892512</v>
+        <v>0.27563576987215116</v>
       </c>
       <c r="L4">
-        <f>LoginFP</f>
-        <v>28.6</v>
+        <f>SearchBarFP</f>
+        <v>17.55</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1">
         <v>4.8611111111111112E-2</v>
@@ -1720,16 +2120,19 @@
       </c>
       <c r="K5" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.47708183165144957</v>
+        <v>0.43897548535194436</v>
       </c>
       <c r="L5">
         <f>RegisterFp</f>
         <v>27.95</v>
       </c>
+      <c r="M5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1">
         <v>3.4722222222222224E-2</v>
@@ -1759,7 +2162,7 @@
       </c>
       <c r="K6" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.33455470126541725</v>
+        <v>0.30783254071191812</v>
       </c>
       <c r="L6">
         <f>SurveysFP</f>
@@ -1768,7 +2171,7 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1">
         <v>3.4722222222222224E-2</v>
@@ -1798,7 +2201,7 @@
       </c>
       <c r="K7" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.21080360003203583</v>
+        <v>0.19396591213225448</v>
       </c>
       <c r="L7">
         <f>SeePinboardsFP</f>
@@ -1807,7 +2210,7 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -1837,7 +2240,7 @@
       </c>
       <c r="K8" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.21080360003203583</v>
+        <v>0.19396591213225448</v>
       </c>
       <c r="L8">
         <f>ChangePassword</f>
@@ -1846,7 +2249,7 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1">
         <v>3.4722222222222224E-2</v>
@@ -1876,7 +2279,7 @@
       </c>
       <c r="K9" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.4105122737465961</v>
+        <v>0.37772309204702198</v>
       </c>
       <c r="L9">
         <f>DeleteUser</f>
@@ -1885,7 +2288,7 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1">
         <v>3.4722222222222224E-2</v>
@@ -1915,7 +2318,7 @@
       </c>
       <c r="K10" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.18861374739708472</v>
+        <v>0.17354844769728037</v>
       </c>
       <c r="L10">
         <f>AddFriend</f>
@@ -1924,7 +2327,7 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1">
         <v>3.8194444444444441E-2</v>
@@ -1954,7 +2357,7 @@
       </c>
       <c r="K11" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.26627823161941372</v>
+        <v>0.24500957321968994</v>
       </c>
       <c r="L11">
         <f>ListReceivedFriendRequests</f>
@@ -1963,7 +2366,7 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1">
         <v>3.8194444444444441E-2</v>
@@ -1993,7 +2396,7 @@
       </c>
       <c r="K12" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.22189852634951143</v>
+        <v>0.20417464434974161</v>
       </c>
       <c r="L12">
         <f>ListSentFriendRequests</f>
@@ -2002,7 +2405,7 @@
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1">
         <v>1.3888888888888888E-2</v>
@@ -2032,7 +2435,7 @@
       </c>
       <c r="K13" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.29956301057184043</v>
+        <v>0.27563576987215116</v>
       </c>
       <c r="L13">
         <f>AcceptFriendRequests</f>
@@ -2041,7 +2444,7 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1">
         <v>3.4722222222222224E-2</v>
@@ -2071,7 +2474,7 @@
       </c>
       <c r="K14" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.22189852634951143</v>
+        <v>0.20417464434974161</v>
       </c>
       <c r="L14">
         <f>DeleteFriend</f>
@@ -2080,7 +2483,7 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1">
         <v>6.9444444444444434E-2</v>
@@ -2110,7 +2513,7 @@
       </c>
       <c r="K15" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.48817675796892512</v>
+        <v>0.44918421756943155</v>
       </c>
       <c r="L15">
         <f>CreateNewRequest</f>
@@ -2119,7 +2522,7 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1">
         <v>4.1666666666666664E-2</v>
@@ -2149,7 +2552,7 @@
       </c>
       <c r="K16" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.48817675796892512</v>
+        <v>0.44918421756943155</v>
       </c>
       <c r="L16">
         <f>CreateNewOffer</f>
@@ -2158,7 +2561,7 @@
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1">
         <v>2.7777777777777776E-2</v>
@@ -2188,7 +2591,7 @@
       </c>
       <c r="K17" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.29956301057184043</v>
+        <v>0.27563576987215116</v>
       </c>
       <c r="L17">
         <f>SearchOfferAndRequests</f>
@@ -2197,7 +2600,7 @@
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1">
         <v>2.7777777777777776E-2</v>
@@ -2227,7 +2630,7 @@
       </c>
       <c r="K18" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.18861374739708472</v>
+        <v>0.17354844769728037</v>
       </c>
       <c r="L18">
         <f>ListRequests</f>
@@ -2236,7 +2639,7 @@
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1">
         <v>3.4722222222222224E-2</v>
@@ -2266,7 +2669,7 @@
       </c>
       <c r="K19" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.18861374739708472</v>
+        <v>0.17354844769728037</v>
       </c>
       <c r="L19">
         <f>ListOffers</f>
@@ -2275,7 +2678,7 @@
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C20" s="1">
         <v>2.4305555555555556E-2</v>
@@ -2305,7 +2708,7 @@
       </c>
       <c r="K20" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.18861374739708472</v>
+        <v>0.17354844769728037</v>
       </c>
       <c r="L20">
         <f>EditStatus</f>
@@ -2329,13 +2732,13 @@
         <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H22" t="s">
         <v>17</v>
       </c>
       <c r="I22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -2468,13 +2871,13 @@
         <v>7</v>
       </c>
       <c r="O26" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="P26" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="Q26" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
@@ -2507,16 +2910,16 @@
         <v>0</v>
       </c>
       <c r="O27" s="4">
-        <f>SUM(I3:I10,I12,I14:I15)*24</f>
-        <v>85.25</v>
+        <f>SUM(I3:I16)*24</f>
+        <v>101.71666666666665</v>
       </c>
       <c r="P27">
-        <f>SUM(L3:L10,L12,L14:L15)</f>
-        <v>208.10000000000002</v>
+        <f>SUM(L3:L16)</f>
+        <v>269.85000000000002</v>
       </c>
       <c r="Q27" s="3">
         <f>P27/O27</f>
-        <v>2.4410557184750736</v>
+        <v>2.652957561854826</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
@@ -2536,13 +2939,13 @@
         <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H30" t="s">
         <v>17</v>
       </c>
       <c r="I30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -2707,7 +3110,7 @@
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
@@ -2722,13 +3125,13 @@
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H38" t="s">
         <v>17</v>
       </c>
       <c r="I38" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -2893,7 +3296,7 @@
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
@@ -2908,13 +3311,13 @@
         <v>9</v>
       </c>
       <c r="G46" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H46" t="s">
         <v>17</v>
       </c>
       <c r="I46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -3050,7 +3453,7 @@
         <v>7</v>
       </c>
       <c r="J50" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
@@ -3085,7 +3488,7 @@
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C54" t="s">
         <v>10</v>
@@ -3100,13 +3503,13 @@
         <v>9</v>
       </c>
       <c r="G54" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H54" t="s">
         <v>17</v>
       </c>
       <c r="I54" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J54" t="s">
         <v>11</v>
@@ -3239,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
@@ -3274,7 +3677,7 @@
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C62" t="s">
         <v>10</v>
@@ -3289,13 +3692,13 @@
         <v>9</v>
       </c>
       <c r="G62" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H62" t="s">
         <v>17</v>
       </c>
       <c r="I62" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J62" t="s">
         <v>11</v>
@@ -3427,9 +3830,6 @@
         <f>Tabelle7[[#This Row],[Count]]*(7*Tabelle7[[#This Row],[Simple]]+10*Tabelle7[[#This Row],[Average]]+15*Tabelle7[[#This Row],[Complex]])</f>
         <v>21</v>
       </c>
-      <c r="J66" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
@@ -3463,7 +3863,7 @@
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C70" t="s">
         <v>10</v>
@@ -3478,13 +3878,13 @@
         <v>9</v>
       </c>
       <c r="G70" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H70" t="s">
         <v>17</v>
       </c>
       <c r="I70" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J70" t="s">
         <v>11</v>
@@ -3522,9 +3922,6 @@
         <f>Tabelle8[[#This Row],[Count]]*(3*Tabelle8[[#This Row],[Simple]]+4*Tabelle8[[#This Row],[Average]]+6*Tabelle8[[#This Row],[Complex]])</f>
         <v>8</v>
       </c>
-      <c r="J71" t="s">
-        <v>25</v>
-      </c>
       <c r="K71">
         <f>SUM(Tabelle8[Points])*(0.65+(5)/100)</f>
         <v>15.400000000000002</v>
@@ -3619,9 +4016,6 @@
         <f>Tabelle8[[#This Row],[Count]]*(7*Tabelle8[[#This Row],[Simple]]+10*Tabelle8[[#This Row],[Average]]+15*Tabelle8[[#This Row],[Complex]])</f>
         <v>7</v>
       </c>
-      <c r="J74" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
@@ -3655,7 +4049,7 @@
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C78" t="s">
         <v>10</v>
@@ -3670,13 +4064,13 @@
         <v>9</v>
       </c>
       <c r="G78" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H78" t="s">
         <v>17</v>
       </c>
       <c r="I78" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J78" t="s">
         <v>11</v>
@@ -3808,9 +4202,6 @@
         <f>Tabelle9[[#This Row],[Count]]*(7*Tabelle9[[#This Row],[Simple]]+10*Tabelle9[[#This Row],[Average]]+15*Tabelle9[[#This Row],[Complex]])</f>
         <v>7</v>
       </c>
-      <c r="J82" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
@@ -3844,7 +4235,7 @@
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C86" t="s">
         <v>10</v>
@@ -3859,13 +4250,13 @@
         <v>9</v>
       </c>
       <c r="G86" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H86" t="s">
         <v>17</v>
       </c>
       <c r="I86" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J86" t="s">
         <v>11</v>
@@ -3997,9 +4388,6 @@
         <f>Tabelle10[[#This Row],[Count]]*(7*Tabelle10[[#This Row],[Simple]]+10*Tabelle10[[#This Row],[Average]]+15*Tabelle10[[#This Row],[Complex]])</f>
         <v>14</v>
       </c>
-      <c r="J90" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
@@ -4033,7 +4421,7 @@
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C94" t="s">
         <v>10</v>
@@ -4048,13 +4436,13 @@
         <v>9</v>
       </c>
       <c r="G94" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H94" t="s">
         <v>17</v>
       </c>
       <c r="I94" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J94" t="s">
         <v>11</v>
@@ -4158,7 +4546,7 @@
       </c>
       <c r="K97">
         <f>SeeMapsFP/Tabelle15[Velocity]</f>
-        <v>5.3255646323882742</v>
+        <v>4.9001914643937985</v>
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.25">
@@ -4191,7 +4579,7 @@
         <v>7</v>
       </c>
       <c r="J98" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.25">
@@ -4224,12 +4612,12 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C102" t="s">
         <v>10</v>
@@ -4244,13 +4632,13 @@
         <v>9</v>
       </c>
       <c r="G102" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H102" t="s">
         <v>17</v>
       </c>
       <c r="I102" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J102" t="s">
         <v>11</v>
@@ -4288,9 +4676,6 @@
         <f>Tabelle12[[#This Row],[Count]]*(3*Tabelle12[[#This Row],[Simple]]+4*Tabelle12[[#This Row],[Average]]+6*Tabelle12[[#This Row],[Complex]])</f>
         <v>3</v>
       </c>
-      <c r="J103" t="s">
-        <v>22</v>
-      </c>
       <c r="K103">
         <f>SUM(Tabelle12[Points])*0.65</f>
         <v>17.55</v>
@@ -4357,7 +4742,7 @@
       </c>
       <c r="K105">
         <f>SetTagsFP/Tabelle15[Velocity]</f>
-        <v>7.1895122537241702</v>
+        <v>6.6152584769316274</v>
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
@@ -4389,9 +4774,6 @@
         <f>Tabelle12[[#This Row],[Count]]*(7*Tabelle12[[#This Row],[Simple]]+10*Tabelle12[[#This Row],[Average]]+15*Tabelle12[[#This Row],[Complex]])</f>
         <v>14</v>
       </c>
-      <c r="J106" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
@@ -4425,7 +4807,7 @@
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C110" t="s">
         <v>10</v>
@@ -4440,13 +4822,13 @@
         <v>9</v>
       </c>
       <c r="G110" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H110" t="s">
         <v>17</v>
       </c>
       <c r="I110" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J110" t="s">
         <v>11</v>
@@ -4485,7 +4867,7 @@
         <v>3</v>
       </c>
       <c r="J111" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="K111">
         <f>SUM(Tabelle1214[Points])*0.65</f>
@@ -4553,7 +4935,7 @@
       </c>
       <c r="K113">
         <f>AdministrateBarsFP/Tabelle15[Velocity]</f>
-        <v>5.3255646323882742</v>
+        <v>4.9001914643937985</v>
       </c>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.25">
@@ -4586,7 +4968,7 @@
         <v>7</v>
       </c>
       <c r="J114" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.25">
@@ -4621,7 +5003,7 @@
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C118" t="s">
         <v>10</v>
@@ -4636,13 +5018,13 @@
         <v>9</v>
       </c>
       <c r="G118" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H118" t="s">
         <v>17</v>
       </c>
       <c r="I118" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J118" t="s">
         <v>11</v>
@@ -4807,7 +5189,7 @@
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C126" t="s">
         <v>10</v>
@@ -4822,13 +5204,13 @@
         <v>9</v>
       </c>
       <c r="G126" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H126" t="s">
         <v>17</v>
       </c>
       <c r="I126" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J126" t="s">
         <v>11</v>
@@ -4993,7 +5375,7 @@
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C134" t="s">
         <v>10</v>
@@ -5008,13 +5390,13 @@
         <v>9</v>
       </c>
       <c r="G134" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H134" t="s">
         <v>17</v>
       </c>
       <c r="I134" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J134" t="s">
         <v>11</v>
@@ -5179,7 +5561,7 @@
     </row>
     <row r="142" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C142" t="s">
         <v>10</v>
@@ -5194,13 +5576,13 @@
         <v>9</v>
       </c>
       <c r="G142" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H142" t="s">
         <v>17</v>
       </c>
       <c r="I142" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J142" t="s">
         <v>11</v>
@@ -5365,7 +5747,7 @@
     </row>
     <row r="150" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C150" t="s">
         <v>10</v>
@@ -5380,13 +5762,13 @@
         <v>9</v>
       </c>
       <c r="G150" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H150" t="s">
         <v>17</v>
       </c>
       <c r="I150" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J150" t="s">
         <v>11</v>
@@ -5551,7 +5933,7 @@
     </row>
     <row r="158" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C158" t="s">
         <v>10</v>
@@ -5566,13 +5948,13 @@
         <v>9</v>
       </c>
       <c r="G158" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H158" t="s">
         <v>17</v>
       </c>
       <c r="I158" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J158" t="s">
         <v>11</v>

--- a/doc/FP.xlsx
+++ b/doc/FP.xlsx
@@ -394,17 +394,6 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:forward val="5"/>
-            <c:backward val="11"/>
-            <c:intercept val="0"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Tabelle1!$L$3:$L$16</c:f>
@@ -412,13 +401,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>28.6</c:v>
+                  <c:v>35.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>17.55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.95</c:v>
+                  <c:v>33.800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>19.600000000000001</c:v>
@@ -430,10 +419,10 @@
                   <c:v>12.35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.05</c:v>
+                  <c:v>27.95</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.05</c:v>
+                  <c:v>14.950000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>15.600000000000001</c:v>
@@ -442,16 +431,16 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.55</c:v>
+                  <c:v>23.400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>16.900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28.6</c:v>
+                  <c:v>29.25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28.6</c:v>
+                  <c:v>29.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -532,13 +521,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>28.6</c:v>
+                  <c:v>35.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>17.55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.95</c:v>
+                  <c:v>33.800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>19.600000000000001</c:v>
@@ -550,10 +539,10 @@
                   <c:v>12.35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.05</c:v>
+                  <c:v>27.95</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.05</c:v>
+                  <c:v>14.950000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>15.600000000000001</c:v>
@@ -562,16 +551,16 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.55</c:v>
+                  <c:v>23.400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>16.900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28.6</c:v>
+                  <c:v>29.25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28.6</c:v>
+                  <c:v>29.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -652,13 +641,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>28.6</c:v>
+                  <c:v>35.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>17.55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.95</c:v>
+                  <c:v>33.800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>19.600000000000001</c:v>
@@ -670,10 +659,10 @@
                   <c:v>12.35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.05</c:v>
+                  <c:v>27.95</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.05</c:v>
+                  <c:v>14.950000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>15.600000000000001</c:v>
@@ -682,16 +671,16 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.55</c:v>
+                  <c:v>23.400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>16.900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28.6</c:v>
+                  <c:v>29.25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28.6</c:v>
+                  <c:v>29.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -772,13 +761,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>28.6</c:v>
+                  <c:v>35.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>17.55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.95</c:v>
+                  <c:v>33.800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>19.600000000000001</c:v>
@@ -790,10 +779,10 @@
                   <c:v>12.35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.05</c:v>
+                  <c:v>27.95</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.05</c:v>
+                  <c:v>14.950000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>15.600000000000001</c:v>
@@ -802,16 +791,16 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.55</c:v>
+                  <c:v>23.400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>16.900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28.6</c:v>
+                  <c:v>29.25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28.6</c:v>
+                  <c:v>29.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -888,7 +877,8 @@
           <c:trendline>
             <c:trendlineType val="linear"/>
             <c:forward val="5"/>
-            <c:backward val="11"/>
+            <c:backward val="12"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -899,7 +889,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>27.95</c:v>
+                  <c:v>33.800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>12.35</c:v>
@@ -908,10 +898,10 @@
                   <c:v>12.35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.05</c:v>
+                  <c:v>27.95</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.05</c:v>
+                  <c:v>14.950000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>15.600000000000001</c:v>
@@ -920,16 +910,16 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.55</c:v>
+                  <c:v>23.400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13</c:v>
+                  <c:v>16.900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28.6</c:v>
+                  <c:v>29.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28.6</c:v>
+                  <c:v>29.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1954,8 +1944,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="B2:Q163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2039,11 +2029,11 @@
       </c>
       <c r="K3" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.44918421756943155</v>
+        <v>0.49413926258096663</v>
       </c>
       <c r="L3">
         <f>LoginFP</f>
-        <v>28.6</v>
+        <v>35.1</v>
       </c>
       <c r="M3" t="s">
         <v>50</v>
@@ -2081,7 +2071,7 @@
       </c>
       <c r="K4" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.27563576987215116</v>
+        <v>0.24706963129048332</v>
       </c>
       <c r="L4">
         <f>SearchBarFP</f>
@@ -2120,11 +2110,11 @@
       </c>
       <c r="K5" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.43897548535194436</v>
+        <v>0.47583780841130124</v>
       </c>
       <c r="L5">
         <f>RegisterFp</f>
-        <v>27.95</v>
+        <v>33.800000000000004</v>
       </c>
       <c r="M5" t="s">
         <v>51</v>
@@ -2162,7 +2152,7 @@
       </c>
       <c r="K6" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.30783254071191812</v>
+        <v>0.27592961671187882</v>
       </c>
       <c r="L6">
         <f>SurveysFP</f>
@@ -2201,7 +2191,7 @@
       </c>
       <c r="K7" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.19396591213225448</v>
+        <v>0.17386381461182157</v>
       </c>
       <c r="L7">
         <f>SeePinboardsFP</f>
@@ -2240,7 +2230,7 @@
       </c>
       <c r="K8" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.19396591213225448</v>
+        <v>0.17386381461182157</v>
       </c>
       <c r="L8">
         <f>ChangePassword</f>
@@ -2279,11 +2269,11 @@
       </c>
       <c r="K9" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.37772309204702198</v>
+        <v>0.39348126464780675</v>
       </c>
       <c r="L9">
         <f>DeleteUser</f>
-        <v>24.05</v>
+        <v>27.95</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
@@ -2318,11 +2308,11 @@
       </c>
       <c r="K10" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.17354844769728037</v>
+        <v>0.21046672295115246</v>
       </c>
       <c r="L10">
         <f>AddFriend</f>
-        <v>11.05</v>
+        <v>14.950000000000001</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
@@ -2357,7 +2347,7 @@
       </c>
       <c r="K11" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.24500957321968994</v>
+        <v>0.21961745003598518</v>
       </c>
       <c r="L11">
         <f>ListReceivedFriendRequests</f>
@@ -2396,7 +2386,7 @@
       </c>
       <c r="K12" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.20417464434974161</v>
+        <v>0.18301454169665429</v>
       </c>
       <c r="L12">
         <f>ListSentFriendRequests</f>
@@ -2435,11 +2425,11 @@
       </c>
       <c r="K13" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.27563576987215116</v>
+        <v>0.32942617505397775</v>
       </c>
       <c r="L13">
         <f>AcceptFriendRequests</f>
-        <v>17.55</v>
+        <v>23.400000000000002</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
@@ -2474,11 +2464,11 @@
       </c>
       <c r="K14" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.20417464434974161</v>
+        <v>0.23791890420565062</v>
       </c>
       <c r="L14">
         <f>DeleteFriend</f>
-        <v>13</v>
+        <v>16.900000000000002</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
@@ -2513,11 +2503,11 @@
       </c>
       <c r="K15" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.44918421756943155</v>
+        <v>0.41178271881747214</v>
       </c>
       <c r="L15">
         <f>CreateNewRequest</f>
-        <v>28.6</v>
+        <v>29.25</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
@@ -2552,11 +2542,11 @@
       </c>
       <c r="K16" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.44918421756943155</v>
+        <v>0.41178271881747214</v>
       </c>
       <c r="L16">
         <f>CreateNewOffer</f>
-        <v>28.6</v>
+        <v>29.25</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
@@ -2591,11 +2581,11 @@
       </c>
       <c r="K17" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.27563576987215116</v>
+        <v>0.31112472088431231</v>
       </c>
       <c r="L17">
         <f>SearchOfferAndRequests</f>
-        <v>17.55</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
@@ -2630,11 +2620,11 @@
       </c>
       <c r="K18" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.17354844769728037</v>
+        <v>0.19216526878148701</v>
       </c>
       <c r="L18">
         <f>ListRequests</f>
-        <v>11.05</v>
+        <v>13.65</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
@@ -2669,11 +2659,11 @@
       </c>
       <c r="K19" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.17354844769728037</v>
+        <v>0.19216526878148701</v>
       </c>
       <c r="L19">
         <f>ListOffers</f>
-        <v>11.05</v>
+        <v>13.65</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
@@ -2708,11 +2698,11 @@
       </c>
       <c r="K20" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.17354844769728037</v>
+        <v>0.19216526878148701</v>
       </c>
       <c r="L20">
         <f>EditStatus</f>
-        <v>11.05</v>
+        <v>13.65</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
@@ -2770,7 +2760,7 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I23">
         <f>Tabelle2[[#This Row],[Count]]*(3*Tabelle2[[#This Row],[Simple]]+4*Tabelle2[[#This Row],[Average]]+6*Tabelle2[[#This Row],[Complex]])</f>
@@ -2801,10 +2791,10 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I24">
         <f>Tabelle2[[#This Row],[Count]]*(Tabelle2[[#This Row],[Simple]]*4+Tabelle2[[#This Row],[Average]]*5+Tabelle2[[#This Row],[Complex]]*7)</f>
@@ -2834,7 +2824,7 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <f>Tabelle2[[#This Row],[Count]]*(3*Tabelle2[[#This Row],[Simple]]+4*Tabelle2[[#This Row],[Average]]+6*Tabelle2[[#This Row],[Complex]])</f>
@@ -2864,7 +2854,7 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I26">
         <f>Tabelle2[[#This Row],[Count]]*(7*Tabelle2[[#This Row],[Simple]]+10*Tabelle2[[#This Row],[Average]]+15*Tabelle2[[#This Row],[Complex]])</f>
@@ -2915,11 +2905,11 @@
       </c>
       <c r="P27">
         <f>SUM(L3:L16)</f>
-        <v>269.85000000000002</v>
+        <v>301.04999999999995</v>
       </c>
       <c r="Q27" s="3">
         <f>P27/O27</f>
-        <v>2.652957561854826</v>
+        <v>2.9596919547763396</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
@@ -2967,25 +2957,25 @@
       </c>
       <c r="E31">
         <f>IF(OR(AND(Tabelle3[[#This Row],[FTR/RET]]&lt;=1, Tabelle3[[#This Row],[DET]] &gt; 15), AND(Tabelle3[[#This Row],[FTR/RET]]&lt;=5, Tabelle3[[#This Row],[FTR/RET]]&gt;=2, Tabelle3[[#This Row],[DET]] &gt;= 5, Tabelle3[[#This Row],[DET]] &lt;= 15), AND(Tabelle3[[#This Row],[FTR/RET]] &gt;= 5, Tabelle3[[#This Row],[DET]] &lt;= 4 )), 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <f>IF(AND(Tabelle3[[#This Row],[Simple]]=0,Tabelle3[[#This Row],[Average]]=0), 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>2</v>
       </c>
       <c r="H31">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="I31">
         <f>Tabelle3[[#This Row],[Count]]*(3*Tabelle3[[#This Row],[Simple]]+4*Tabelle3[[#This Row],[Average]]+6*Tabelle3[[#This Row],[Complex]])</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K31">
         <f>SUM(Tabelle3[Points])*0.65</f>
-        <v>28.6</v>
+        <v>35.1</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
@@ -3011,7 +3001,7 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I32">
         <f>Tabelle3[[#This Row],[Count]]*(Tabelle3[[#This Row],[Simple]]*4+Tabelle3[[#This Row],[Average]]*5+Tabelle3[[#This Row],[Complex]]*7)</f>
@@ -3038,10 +3028,10 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <f>Tabelle3[[#This Row],[Count]]*(3*Tabelle3[[#This Row],[Simple]]+4*Tabelle3[[#This Row],[Average]]+6*Tabelle3[[#This Row],[Complex]])</f>
@@ -3071,7 +3061,7 @@
         <v>2</v>
       </c>
       <c r="H34">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I34">
         <f>Tabelle3[[#This Row],[Count]]*(7*Tabelle3[[#This Row],[Simple]]+10*Tabelle3[[#This Row],[Average]]+15*Tabelle3[[#This Row],[Complex]])</f>
@@ -3149,7 +3139,7 @@
       </c>
       <c r="D39">
         <f>IF(OR(AND(Tabelle4[[#This Row],[FTR/RET]]&lt;=1, Tabelle4[[#This Row],[DET]] &lt;= 15), AND(Tabelle4[[#This Row],[FTR/RET]]&lt;= 3, Tabelle4[[#This Row],[DET]] &lt;= 4)), 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <f>IF(OR(AND(Tabelle4[[#This Row],[FTR/RET]]&lt;=1, Tabelle4[[#This Row],[DET]] &gt; 15), AND(Tabelle4[[#This Row],[FTR/RET]]&lt;=5, Tabelle4[[#This Row],[FTR/RET]]&gt;=2, Tabelle4[[#This Row],[DET]] &gt;= 5, Tabelle4[[#This Row],[DET]] &lt;= 15), AND(Tabelle4[[#This Row],[FTR/RET]] &gt;= 5, Tabelle4[[#This Row],[DET]] &lt;= 4 )), 1, 0)</f>
@@ -3157,21 +3147,21 @@
       </c>
       <c r="F39">
         <f>IF(AND(Tabelle4[[#This Row],[Simple]]=0,Tabelle4[[#This Row],[Average]]=0), 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
         <v>2</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I39">
         <f>Tabelle4[[#This Row],[Count]]*(3*Tabelle4[[#This Row],[Simple]]+4*Tabelle4[[#This Row],[Average]]+6*Tabelle4[[#This Row],[Complex]])</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="K39">
         <f>SUM(Tabelle4[Points])*0.65</f>
-        <v>27.95</v>
+        <v>33.800000000000004</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
@@ -3197,7 +3187,7 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I40">
         <f>Tabelle4[[#This Row],[Count]]*(Tabelle4[[#This Row],[Simple]]*4+Tabelle4[[#This Row],[Average]]*5+Tabelle4[[#This Row],[Complex]]*7)</f>
@@ -3224,10 +3214,10 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <f>Tabelle4[[#This Row],[Count]]*(3*Tabelle4[[#This Row],[Simple]]+4*Tabelle4[[#This Row],[Average]]+6*Tabelle4[[#This Row],[Complex]])</f>
@@ -3257,7 +3247,7 @@
         <v>2</v>
       </c>
       <c r="H42">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="I42">
         <f>Tabelle4[[#This Row],[Count]]*(7*Tabelle4[[#This Row],[Simple]]+10*Tabelle4[[#This Row],[Average]]+15*Tabelle4[[#This Row],[Complex]])</f>
@@ -3284,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H43">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I43">
         <f>Tabelle4[[#This Row],[Count]]*(5*Tabelle4[[#This Row],[Simple]]+7*Tabelle4[[#This Row],[Average]]+10*Tabelle4[[#This Row],[Complex]])</f>
@@ -3346,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47">
         <v>3</v>
@@ -3386,7 +3376,7 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I48">
         <f>Tabelle5[[#This Row],[Count]]*(Tabelle5[[#This Row],[Simple]]*4+Tabelle5[[#This Row],[Average]]*5+Tabelle5[[#This Row],[Complex]]*7)</f>
@@ -3413,10 +3403,10 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <f>Tabelle5[[#This Row],[Count]]*(3*Tabelle5[[#This Row],[Simple]]+4*Tabelle5[[#This Row],[Average]]+6*Tabelle5[[#This Row],[Complex]])</f>
@@ -3443,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I50">
         <f>Tabelle5[[#This Row],[Count]]*(7*Tabelle5[[#This Row],[Simple]]+10*Tabelle5[[#This Row],[Average]]+15*Tabelle5[[#This Row],[Complex]])</f>
@@ -3541,7 +3531,7 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I55">
         <f>Tabelle6[[#This Row],[Count]]*(3*Tabelle6[[#This Row],[Simple]]+4*Tabelle6[[#This Row],[Average]]+6*Tabelle6[[#This Row],[Complex]])</f>
@@ -3575,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I56">
         <f>Tabelle6[[#This Row],[Count]]*(Tabelle6[[#This Row],[Simple]]*4+Tabelle6[[#This Row],[Average]]*5+Tabelle6[[#This Row],[Complex]]*7)</f>
@@ -3632,10 +3622,10 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I58">
         <f>Tabelle6[[#This Row],[Count]]*(7*Tabelle6[[#This Row],[Simple]]+10*Tabelle6[[#This Row],[Average]]+15*Tabelle6[[#This Row],[Complex]])</f>
@@ -3716,7 +3706,7 @@
       </c>
       <c r="D63">
         <f>IF(OR(AND(Tabelle7[[#This Row],[FTR/RET]]&lt;=1, Tabelle7[[#This Row],[DET]] &lt;= 15), AND(Tabelle7[[#This Row],[FTR/RET]]&lt;= 3, Tabelle7[[#This Row],[DET]] &lt;= 4)), 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <f>IF(OR(AND(Tabelle7[[#This Row],[FTR/RET]]&lt;=1, Tabelle7[[#This Row],[DET]] &gt; 15), AND(Tabelle7[[#This Row],[FTR/RET]]&lt;=5, Tabelle7[[#This Row],[FTR/RET]]&gt;=2, Tabelle7[[#This Row],[DET]] &gt;= 5, Tabelle7[[#This Row],[DET]] &lt;= 15), AND(Tabelle7[[#This Row],[FTR/RET]] &gt;= 5, Tabelle7[[#This Row],[DET]] &lt;= 4 )), 1, 0)</f>
@@ -3724,21 +3714,21 @@
       </c>
       <c r="F63">
         <f>IF(AND(Tabelle7[[#This Row],[Simple]]=0,Tabelle7[[#This Row],[Average]]=0), 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I63">
         <f>Tabelle7[[#This Row],[Count]]*(3*Tabelle7[[#This Row],[Simple]]+4*Tabelle7[[#This Row],[Average]]+6*Tabelle7[[#This Row],[Complex]])</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K63">
         <f>SUM(Tabelle7[Points])*0.65</f>
-        <v>24.05</v>
+        <v>27.95</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
@@ -3761,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <f>Tabelle7[[#This Row],[Count]]*(Tabelle7[[#This Row],[Simple]]*4+Tabelle7[[#This Row],[Average]]*5+Tabelle7[[#This Row],[Complex]]*7)</f>
@@ -3791,10 +3781,10 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <f>Tabelle7[[#This Row],[Count]]*(3*Tabelle7[[#This Row],[Simple]]+4*Tabelle7[[#This Row],[Average]]+6*Tabelle7[[#This Row],[Complex]])</f>
@@ -3821,10 +3811,10 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I66">
         <f>Tabelle7[[#This Row],[Count]]*(7*Tabelle7[[#This Row],[Simple]]+10*Tabelle7[[#This Row],[Average]]+15*Tabelle7[[#This Row],[Complex]])</f>
@@ -3902,29 +3892,29 @@
       </c>
       <c r="D71">
         <f>IF(OR(AND(Tabelle8[[#This Row],[FTR/RET]]&lt;=1, Tabelle8[[#This Row],[DET]] &lt;= 15), AND(Tabelle8[[#This Row],[FTR/RET]]&lt;= 3, Tabelle8[[#This Row],[DET]] &lt;= 4)), 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71">
         <f>IF(OR(AND(Tabelle8[[#This Row],[FTR/RET]]&lt;=1, Tabelle8[[#This Row],[DET]] &gt; 15), AND(Tabelle8[[#This Row],[FTR/RET]]&lt;=5, Tabelle8[[#This Row],[FTR/RET]]&gt;=2, Tabelle8[[#This Row],[DET]] &gt;= 5, Tabelle8[[#This Row],[DET]] &lt;= 15), AND(Tabelle8[[#This Row],[FTR/RET]] &gt;= 5, Tabelle8[[#This Row],[DET]] &lt;= 4 )), 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
         <f>IF(AND(Tabelle8[[#This Row],[Simple]]=0,Tabelle8[[#This Row],[Average]]=0), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <f>Tabelle8[[#This Row],[Count]]*(3*Tabelle8[[#This Row],[Simple]]+4*Tabelle8[[#This Row],[Average]]+6*Tabelle8[[#This Row],[Complex]])</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K71">
         <f>SUM(Tabelle8[Points])*(0.65+(5)/100)</f>
-        <v>15.400000000000002</v>
+        <v>14.000000000000002</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
@@ -3947,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I72">
         <f>Tabelle8[[#This Row],[Count]]*(Tabelle8[[#This Row],[Simple]]*4+Tabelle8[[#This Row],[Average]]*5+Tabelle8[[#This Row],[Complex]]*7)</f>
@@ -3977,10 +3967,10 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
         <f>Tabelle8[[#This Row],[Count]]*(3*Tabelle8[[#This Row],[Simple]]+4*Tabelle8[[#This Row],[Average]]+6*Tabelle8[[#This Row],[Complex]])</f>
@@ -4007,10 +3997,10 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H74">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I74">
         <f>Tabelle8[[#This Row],[Count]]*(7*Tabelle8[[#This Row],[Simple]]+10*Tabelle8[[#This Row],[Average]]+15*Tabelle8[[#This Row],[Complex]])</f>
@@ -4102,7 +4092,7 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79">
         <f>Tabelle9[[#This Row],[Count]]*(3*Tabelle9[[#This Row],[Simple]]+4*Tabelle9[[#This Row],[Average]]+6*Tabelle9[[#This Row],[Complex]])</f>
@@ -4110,7 +4100,7 @@
       </c>
       <c r="K79">
         <f>SUM(Tabelle9[Points])*0.65</f>
-        <v>11.05</v>
+        <v>14.950000000000001</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
@@ -4122,7 +4112,7 @@
       </c>
       <c r="D80">
         <f>IF(OR(AND(Tabelle9[[#This Row],[FTR/RET]]&lt;=1, Tabelle9[[#This Row],[DET]] &lt;= 19), AND(Tabelle9[[#This Row],[FTR/RET]]&lt;= 3, Tabelle9[[#This Row],[DET]] &lt;= 5)), 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <f>IF(OR(AND(Tabelle9[[#This Row],[FTR/RET]]&lt;=1, Tabelle9[[#This Row],[DET]] &gt; 20), AND(Tabelle9[[#This Row],[FTR/RET]]&lt;=5, Tabelle9[[#This Row],[FTR/RET]]&gt;=2, Tabelle9[[#This Row],[DET]] &gt;= 6, Tabelle9[[#This Row],[DET]] &lt;= 19), AND(Tabelle9[[#This Row],[FTR/RET]] &gt;= 5, Tabelle9[[#This Row],[DET]] &lt;= 5 )), 1, 0)</f>
@@ -4130,17 +4120,17 @@
       </c>
       <c r="F80">
         <f>IF(AND(Tabelle9[[#This Row],[Simple]]=0,Tabelle9[[#This Row],[Average]]=0), 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I80">
         <f>Tabelle9[[#This Row],[Count]]*(Tabelle9[[#This Row],[Simple]]*4+Tabelle9[[#This Row],[Average]]*5+Tabelle9[[#This Row],[Complex]]*7)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.25">
@@ -4163,10 +4153,10 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81">
         <f>Tabelle9[[#This Row],[Count]]*(3*Tabelle9[[#This Row],[Simple]]+4*Tabelle9[[#This Row],[Average]]+6*Tabelle9[[#This Row],[Complex]])</f>
@@ -4182,25 +4172,25 @@
       </c>
       <c r="D82">
         <f>IF(OR(AND(Tabelle9[[#This Row],[FTR/RET]]&lt;2, Tabelle9[[#This Row],[DET]] &lt;= 50), AND(Tabelle9[[#This Row],[FTR/RET]]&lt;=5, Tabelle9[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82">
         <f>IF(OR(AND(Tabelle9[[#This Row],[FTR/RET]]=1, Tabelle9[[#This Row],[DET]] &gt; 50), AND(Tabelle9[[#This Row],[FTR/RET]]&lt;=5, Tabelle9[[#This Row],[FTR/RET]]&gt;=2, Tabelle9[[#This Row],[DET]] &gt;= 20, Tabelle9[[#This Row],[DET]] &lt;= 50), AND(Tabelle9[[#This Row],[FTR/RET]] &gt;= 5, Tabelle9[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
         <f>IF(AND(Tabelle9[[#This Row],[Simple]]=0,Tabelle9[[#This Row],[Average]]=0), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="G82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I82">
         <f>Tabelle9[[#This Row],[Count]]*(7*Tabelle9[[#This Row],[Simple]]+10*Tabelle9[[#This Row],[Average]]+15*Tabelle9[[#This Row],[Complex]])</f>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.25">
@@ -4288,7 +4278,7 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I87">
         <f>Tabelle10[[#This Row],[Count]]*(3*Tabelle10[[#This Row],[Simple]]+4*Tabelle10[[#This Row],[Average]]+6*Tabelle10[[#This Row],[Complex]])</f>
@@ -4319,10 +4309,10 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I88">
         <f>Tabelle10[[#This Row],[Count]]*(Tabelle10[[#This Row],[Simple]]*4+Tabelle10[[#This Row],[Average]]*5+Tabelle10[[#This Row],[Complex]]*7)</f>
@@ -4349,10 +4339,10 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
         <f>Tabelle10[[#This Row],[Count]]*(3*Tabelle10[[#This Row],[Simple]]+4*Tabelle10[[#This Row],[Average]]+6*Tabelle10[[#This Row],[Complex]])</f>
@@ -4379,10 +4369,10 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I90">
         <f>Tabelle10[[#This Row],[Count]]*(7*Tabelle10[[#This Row],[Simple]]+10*Tabelle10[[#This Row],[Average]]+15*Tabelle10[[#This Row],[Complex]])</f>
@@ -4471,10 +4461,10 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95">
         <f>Tabelle11[[#This Row],[Count]]*(3*Tabelle11[[#This Row],[Simple]]+4*Tabelle11[[#This Row],[Average]]+6*Tabelle11[[#This Row],[Complex]])</f>
@@ -4505,10 +4495,10 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I96">
         <f>Tabelle11[[#This Row],[Count]]*(Tabelle11[[#This Row],[Simple]]*4+Tabelle11[[#This Row],[Average]]*5+Tabelle11[[#This Row],[Complex]]*7)</f>
@@ -4535,10 +4525,10 @@
         <v>0</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <f>Tabelle11[[#This Row],[Count]]*(3*Tabelle11[[#This Row],[Simple]]+4*Tabelle11[[#This Row],[Average]]+6*Tabelle11[[#This Row],[Complex]])</f>
@@ -4546,7 +4536,7 @@
       </c>
       <c r="K97">
         <f>SeeMapsFP/Tabelle15[Velocity]</f>
-        <v>4.9001914643937985</v>
+        <v>4.3923490007197028</v>
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.25">
@@ -4569,10 +4559,10 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I98">
         <f>Tabelle11[[#This Row],[Count]]*(7*Tabelle11[[#This Row],[Simple]]+10*Tabelle11[[#This Row],[Average]]+15*Tabelle11[[#This Row],[Complex]])</f>
@@ -4667,10 +4657,10 @@
         <v>0</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103">
         <f>Tabelle12[[#This Row],[Count]]*(3*Tabelle12[[#This Row],[Simple]]+4*Tabelle12[[#This Row],[Average]]+6*Tabelle12[[#This Row],[Complex]])</f>
@@ -4678,7 +4668,7 @@
       </c>
       <c r="K103">
         <f>SUM(Tabelle12[Points])*0.65</f>
-        <v>17.55</v>
+        <v>23.400000000000002</v>
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
@@ -4690,7 +4680,7 @@
       </c>
       <c r="D104">
         <f>IF(OR(AND(Tabelle12[[#This Row],[FTR/RET]]&lt;=1, Tabelle12[[#This Row],[DET]] &lt;= 19), AND(Tabelle12[[#This Row],[FTR/RET]]&lt;= 3, Tabelle12[[#This Row],[DET]] &lt;= 5)), 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104">
         <f>IF(OR(AND(Tabelle12[[#This Row],[FTR/RET]]&lt;=1, Tabelle12[[#This Row],[DET]] &gt; 20), AND(Tabelle12[[#This Row],[FTR/RET]]&lt;=5, Tabelle12[[#This Row],[FTR/RET]]&gt;=2, Tabelle12[[#This Row],[DET]] &gt;= 6, Tabelle12[[#This Row],[DET]] &lt;= 19), AND(Tabelle12[[#This Row],[FTR/RET]] &gt;= 5, Tabelle12[[#This Row],[DET]] &lt;= 5 )), 1, 0)</f>
@@ -4698,17 +4688,17 @@
       </c>
       <c r="F104">
         <f>IF(AND(Tabelle12[[#This Row],[Simple]]=0,Tabelle12[[#This Row],[Average]]=0), 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I104">
         <f>Tabelle12[[#This Row],[Count]]*(Tabelle12[[#This Row],[Simple]]*4+Tabelle12[[#This Row],[Average]]*5+Tabelle12[[#This Row],[Complex]]*7)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
@@ -4731,10 +4721,10 @@
         <v>0</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105">
         <f>Tabelle12[[#This Row],[Count]]*(3*Tabelle12[[#This Row],[Simple]]+4*Tabelle12[[#This Row],[Average]]+6*Tabelle12[[#This Row],[Complex]])</f>
@@ -4742,7 +4732,7 @@
       </c>
       <c r="K105">
         <f>SetTagsFP/Tabelle15[Velocity]</f>
-        <v>6.6152584769316274</v>
+        <v>7.9062282012954661</v>
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
@@ -4754,25 +4744,25 @@
       </c>
       <c r="D106">
         <f>IF(OR(AND(Tabelle12[[#This Row],[FTR/RET]]&lt;2, Tabelle12[[#This Row],[DET]] &lt;= 50), AND(Tabelle12[[#This Row],[FTR/RET]]&lt;=5, Tabelle12[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106">
         <f>IF(OR(AND(Tabelle12[[#This Row],[FTR/RET]]=1, Tabelle12[[#This Row],[DET]] &gt; 50), AND(Tabelle12[[#This Row],[FTR/RET]]&lt;=5, Tabelle12[[#This Row],[FTR/RET]]&gt;=2, Tabelle12[[#This Row],[DET]] &gt;= 20, Tabelle12[[#This Row],[DET]] &lt;= 50), AND(Tabelle12[[#This Row],[FTR/RET]] &gt;= 5, Tabelle12[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106">
         <f>IF(AND(Tabelle12[[#This Row],[Simple]]=0,Tabelle12[[#This Row],[Average]]=0), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I106">
         <f>Tabelle12[[#This Row],[Count]]*(7*Tabelle12[[#This Row],[Simple]]+10*Tabelle12[[#This Row],[Average]]+15*Tabelle12[[#This Row],[Complex]])</f>
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.25">
@@ -4857,10 +4847,10 @@
         <v>0</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I111">
         <f>Tabelle1214[[#This Row],[Count]]*(3*Tabelle1214[[#This Row],[Simple]]+4*Tabelle1214[[#This Row],[Average]]+6*Tabelle1214[[#This Row],[Complex]])</f>
@@ -4871,7 +4861,7 @@
       </c>
       <c r="K111">
         <f>SUM(Tabelle1214[Points])*0.65</f>
-        <v>13</v>
+        <v>16.900000000000002</v>
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
@@ -4883,7 +4873,7 @@
       </c>
       <c r="D112">
         <f>IF(OR(AND(Tabelle1214[[#This Row],[FTR/RET]]&lt;=1, Tabelle1214[[#This Row],[DET]] &lt;= 19), AND(Tabelle1214[[#This Row],[FTR/RET]]&lt;= 3, Tabelle1214[[#This Row],[DET]] &lt;= 5)), 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E112">
         <f>IF(OR(AND(Tabelle1214[[#This Row],[FTR/RET]]&lt;=1, Tabelle1214[[#This Row],[DET]] &gt; 20), AND(Tabelle1214[[#This Row],[FTR/RET]]&lt;=5, Tabelle1214[[#This Row],[FTR/RET]]&gt;=2, Tabelle1214[[#This Row],[DET]] &gt;= 6, Tabelle1214[[#This Row],[DET]] &lt;= 19), AND(Tabelle1214[[#This Row],[FTR/RET]] &gt;= 5, Tabelle1214[[#This Row],[DET]] &lt;= 5 )), 1, 0)</f>
@@ -4891,17 +4881,17 @@
       </c>
       <c r="F112">
         <f>IF(AND(Tabelle1214[[#This Row],[Simple]]=0,Tabelle1214[[#This Row],[Average]]=0), 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I112">
         <f>Tabelle1214[[#This Row],[Count]]*(Tabelle1214[[#This Row],[Simple]]*4+Tabelle1214[[#This Row],[Average]]*5+Tabelle1214[[#This Row],[Complex]]*7)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.25">
@@ -4924,10 +4914,10 @@
         <v>0</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113">
         <f>Tabelle1214[[#This Row],[Count]]*(3*Tabelle1214[[#This Row],[Simple]]+4*Tabelle1214[[#This Row],[Average]]+6*Tabelle1214[[#This Row],[Complex]])</f>
@@ -4935,7 +4925,7 @@
       </c>
       <c r="K113">
         <f>AdministrateBarsFP/Tabelle15[Velocity]</f>
-        <v>4.9001914643937985</v>
+        <v>5.7100537009356147</v>
       </c>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.25">
@@ -4947,25 +4937,25 @@
       </c>
       <c r="D114">
         <f>IF(OR(AND(Tabelle1214[[#This Row],[FTR/RET]]&lt;2, Tabelle1214[[#This Row],[DET]] &lt;= 50), AND(Tabelle1214[[#This Row],[FTR/RET]]&lt;=5, Tabelle1214[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E114">
         <f>IF(OR(AND(Tabelle1214[[#This Row],[FTR/RET]]=1, Tabelle1214[[#This Row],[DET]] &gt; 50), AND(Tabelle1214[[#This Row],[FTR/RET]]&lt;=5, Tabelle1214[[#This Row],[FTR/RET]]&gt;=2, Tabelle1214[[#This Row],[DET]] &gt;= 20, Tabelle1214[[#This Row],[DET]] &lt;= 50), AND(Tabelle1214[[#This Row],[FTR/RET]] &gt;= 5, Tabelle1214[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114">
         <f>IF(AND(Tabelle1214[[#This Row],[Simple]]=0,Tabelle1214[[#This Row],[Average]]=0), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I114">
         <f>Tabelle1214[[#This Row],[Count]]*(7*Tabelle1214[[#This Row],[Simple]]+10*Tabelle1214[[#This Row],[Average]]+15*Tabelle1214[[#This Row],[Complex]])</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J114" t="s">
         <v>49</v>
@@ -5042,29 +5032,29 @@
       </c>
       <c r="D119">
         <f>IF(OR(AND(Tabelle121415[[#This Row],[FTR/RET]]&lt;=1, Tabelle121415[[#This Row],[DET]] &lt;= 15), AND(Tabelle121415[[#This Row],[FTR/RET]]&lt;= 3, Tabelle121415[[#This Row],[DET]] &lt;= 4)), 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119">
         <f>IF(OR(AND(Tabelle121415[[#This Row],[FTR/RET]]&lt;=1, Tabelle121415[[#This Row],[DET]] &gt; 15), AND(Tabelle121415[[#This Row],[FTR/RET]]&lt;=5, Tabelle121415[[#This Row],[FTR/RET]]&gt;=2, Tabelle121415[[#This Row],[DET]] &gt;= 5, Tabelle121415[[#This Row],[DET]] &lt;= 15), AND(Tabelle121415[[#This Row],[FTR/RET]] &gt;= 5, Tabelle121415[[#This Row],[DET]] &lt;= 4 )), 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
         <f>IF(AND(Tabelle121415[[#This Row],[Simple]]=0,Tabelle121415[[#This Row],[Average]]=0), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="G119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H119">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I119">
         <f>Tabelle121415[[#This Row],[Count]]*(3*Tabelle121415[[#This Row],[Simple]]+4*Tabelle121415[[#This Row],[Average]]+6*Tabelle121415[[#This Row],[Complex]])</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K119">
         <f>SUM(Tabelle121415[Points])*0.65</f>
-        <v>28.6</v>
+        <v>29.25</v>
       </c>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.25">
@@ -5136,11 +5126,11 @@
       </c>
       <c r="D122">
         <f>IF(OR(AND(Tabelle121415[[#This Row],[FTR/RET]]&lt;2, Tabelle121415[[#This Row],[DET]] &lt;= 50), AND(Tabelle121415[[#This Row],[FTR/RET]]&lt;=5, Tabelle121415[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122">
         <f>IF(OR(AND(Tabelle121415[[#This Row],[FTR/RET]]=1, Tabelle121415[[#This Row],[DET]] &gt; 50), AND(Tabelle121415[[#This Row],[FTR/RET]]&lt;=5, Tabelle121415[[#This Row],[FTR/RET]]&gt;=2, Tabelle121415[[#This Row],[DET]] &gt;= 20, Tabelle121415[[#This Row],[DET]] &lt;= 50), AND(Tabelle121415[[#This Row],[FTR/RET]] &gt;= 5, Tabelle121415[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122">
         <f>IF(AND(Tabelle121415[[#This Row],[Simple]]=0,Tabelle121415[[#This Row],[Average]]=0), 1, 0)</f>
@@ -5150,11 +5140,11 @@
         <v>3</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="I122">
         <f>Tabelle121415[[#This Row],[Count]]*(7*Tabelle121415[[#This Row],[Simple]]+10*Tabelle121415[[#This Row],[Average]]+15*Tabelle121415[[#This Row],[Complex]])</f>
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.25">
@@ -5228,29 +5218,29 @@
       </c>
       <c r="D127">
         <f>IF(OR(AND(Tabelle12141524[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141524[[#This Row],[DET]] &lt;= 15), AND(Tabelle12141524[[#This Row],[FTR/RET]]&lt;= 3, Tabelle12141524[[#This Row],[DET]] &lt;= 4)), 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E127">
         <f>IF(OR(AND(Tabelle12141524[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141524[[#This Row],[DET]] &gt; 15), AND(Tabelle12141524[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141524[[#This Row],[FTR/RET]]&gt;=2, Tabelle12141524[[#This Row],[DET]] &gt;= 5, Tabelle12141524[[#This Row],[DET]] &lt;= 15), AND(Tabelle12141524[[#This Row],[FTR/RET]] &gt;= 5, Tabelle12141524[[#This Row],[DET]] &lt;= 4 )), 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
         <f>IF(AND(Tabelle12141524[[#This Row],[Simple]]=0,Tabelle12141524[[#This Row],[Average]]=0), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="G127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H127">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I127">
         <f>Tabelle12141524[[#This Row],[Count]]*(3*Tabelle12141524[[#This Row],[Simple]]+4*Tabelle12141524[[#This Row],[Average]]+6*Tabelle12141524[[#This Row],[Complex]])</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K127">
         <f>SUM(Tabelle12141524[Points])*0.65</f>
-        <v>28.6</v>
+        <v>29.25</v>
       </c>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.25">
@@ -5322,11 +5312,11 @@
       </c>
       <c r="D130">
         <f>IF(OR(AND(Tabelle12141524[[#This Row],[FTR/RET]]&lt;2, Tabelle12141524[[#This Row],[DET]] &lt;= 50), AND(Tabelle12141524[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141524[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E130">
         <f>IF(OR(AND(Tabelle12141524[[#This Row],[FTR/RET]]=1, Tabelle12141524[[#This Row],[DET]] &gt; 50), AND(Tabelle12141524[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141524[[#This Row],[FTR/RET]]&gt;=2, Tabelle12141524[[#This Row],[DET]] &gt;= 20, Tabelle12141524[[#This Row],[DET]] &lt;= 50), AND(Tabelle12141524[[#This Row],[FTR/RET]] &gt;= 5, Tabelle12141524[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130">
         <f>IF(AND(Tabelle12141524[[#This Row],[Simple]]=0,Tabelle12141524[[#This Row],[Average]]=0), 1, 0)</f>
@@ -5336,11 +5326,11 @@
         <v>3</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="I130">
         <f>Tabelle12141524[[#This Row],[Count]]*(7*Tabelle12141524[[#This Row],[Simple]]+10*Tabelle12141524[[#This Row],[Average]]+15*Tabelle12141524[[#This Row],[Complex]])</f>
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.25">
@@ -5425,10 +5415,10 @@
         <v>0</v>
       </c>
       <c r="G135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135">
         <f>Tabelle12141518[[#This Row],[Count]]*(3*Tabelle12141518[[#This Row],[Simple]]+4*Tabelle12141518[[#This Row],[Average]]+6*Tabelle12141518[[#This Row],[Complex]])</f>
@@ -5436,7 +5426,7 @@
       </c>
       <c r="K135">
         <f>SUM(Tabelle12141518[Points])*0.65</f>
-        <v>17.55</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="136" spans="2:11" x14ac:dyDescent="0.25">
@@ -5448,25 +5438,25 @@
       </c>
       <c r="D136">
         <f>IF(OR(AND(Tabelle12141518[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141518[[#This Row],[DET]] &lt;= 19), AND(Tabelle12141518[[#This Row],[FTR/RET]]&lt;= 3, Tabelle12141518[[#This Row],[DET]] &lt;= 5)), 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E136">
         <f>IF(OR(AND(Tabelle12141518[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141518[[#This Row],[DET]] &gt; 20), AND(Tabelle12141518[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141518[[#This Row],[FTR/RET]]&gt;=2, Tabelle12141518[[#This Row],[DET]] &gt;= 6, Tabelle12141518[[#This Row],[DET]] &lt;= 19), AND(Tabelle12141518[[#This Row],[FTR/RET]] &gt;= 5, Tabelle12141518[[#This Row],[DET]] &lt;= 5 )), 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136">
         <f>IF(AND(Tabelle12141518[[#This Row],[Simple]]=0,Tabelle12141518[[#This Row],[Average]]=0), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="G136">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I136">
         <f>Tabelle12141518[[#This Row],[Count]]*(Tabelle12141518[[#This Row],[Simple]]*4+Tabelle12141518[[#This Row],[Average]]*5+Tabelle12141518[[#This Row],[Complex]]*7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="2:11" x14ac:dyDescent="0.25">
@@ -5489,10 +5479,10 @@
         <v>0</v>
       </c>
       <c r="G137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137">
         <f>Tabelle12141518[[#This Row],[Count]]*(3*Tabelle12141518[[#This Row],[Simple]]+4*Tabelle12141518[[#This Row],[Average]]+6*Tabelle12141518[[#This Row],[Complex]])</f>
@@ -5508,25 +5498,25 @@
       </c>
       <c r="D138">
         <f>IF(OR(AND(Tabelle12141518[[#This Row],[FTR/RET]]&lt;2, Tabelle12141518[[#This Row],[DET]] &lt;= 50), AND(Tabelle12141518[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141518[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E138">
         <f>IF(OR(AND(Tabelle12141518[[#This Row],[FTR/RET]]=1, Tabelle12141518[[#This Row],[DET]] &gt; 50), AND(Tabelle12141518[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141518[[#This Row],[FTR/RET]]&gt;=2, Tabelle12141518[[#This Row],[DET]] &gt;= 20, Tabelle12141518[[#This Row],[DET]] &lt;= 50), AND(Tabelle12141518[[#This Row],[FTR/RET]] &gt;= 5, Tabelle12141518[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138">
         <f>IF(AND(Tabelle12141518[[#This Row],[Simple]]=0,Tabelle12141518[[#This Row],[Average]]=0), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="G138">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I138">
         <f>Tabelle12141518[[#This Row],[Count]]*(7*Tabelle12141518[[#This Row],[Simple]]+10*Tabelle12141518[[#This Row],[Average]]+15*Tabelle12141518[[#This Row],[Complex]])</f>
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139" spans="2:11" x14ac:dyDescent="0.25">
@@ -5611,10 +5601,10 @@
         <v>0</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <f>Tabelle12141519[[#This Row],[Count]]*(3*Tabelle12141519[[#This Row],[Simple]]+4*Tabelle12141519[[#This Row],[Average]]+6*Tabelle12141519[[#This Row],[Complex]])</f>
@@ -5622,7 +5612,7 @@
       </c>
       <c r="K143">
         <f>SUM(Tabelle12141519[Points])*0.65</f>
-        <v>11.05</v>
+        <v>13.65</v>
       </c>
     </row>
     <row r="144" spans="2:11" x14ac:dyDescent="0.25">
@@ -5634,25 +5624,25 @@
       </c>
       <c r="D144">
         <f>IF(OR(AND(Tabelle12141519[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141519[[#This Row],[DET]] &lt;= 19), AND(Tabelle12141519[[#This Row],[FTR/RET]]&lt;= 3, Tabelle12141519[[#This Row],[DET]] &lt;= 5)), 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E144">
         <f>IF(OR(AND(Tabelle12141519[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141519[[#This Row],[DET]] &gt; 20), AND(Tabelle12141519[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141519[[#This Row],[FTR/RET]]&gt;=2, Tabelle12141519[[#This Row],[DET]] &gt;= 6, Tabelle12141519[[#This Row],[DET]] &lt;= 19), AND(Tabelle12141519[[#This Row],[FTR/RET]] &gt;= 5, Tabelle12141519[[#This Row],[DET]] &lt;= 5 )), 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144">
         <f>IF(AND(Tabelle12141519[[#This Row],[Simple]]=0,Tabelle12141519[[#This Row],[Average]]=0), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I144">
         <f>Tabelle12141519[[#This Row],[Count]]*(Tabelle12141519[[#This Row],[Simple]]*4+Tabelle12141519[[#This Row],[Average]]*5+Tabelle12141519[[#This Row],[Complex]]*7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="2:11" x14ac:dyDescent="0.25">
@@ -5675,10 +5665,10 @@
         <v>0</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145">
         <f>Tabelle12141519[[#This Row],[Count]]*(3*Tabelle12141519[[#This Row],[Simple]]+4*Tabelle12141519[[#This Row],[Average]]+6*Tabelle12141519[[#This Row],[Complex]])</f>
@@ -5694,25 +5684,25 @@
       </c>
       <c r="D146">
         <f>IF(OR(AND(Tabelle12141519[[#This Row],[FTR/RET]]&lt;2, Tabelle12141519[[#This Row],[DET]] &lt;= 50), AND(Tabelle12141519[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141519[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E146">
         <f>IF(OR(AND(Tabelle12141519[[#This Row],[FTR/RET]]=1, Tabelle12141519[[#This Row],[DET]] &gt; 50), AND(Tabelle12141519[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141519[[#This Row],[FTR/RET]]&gt;=2, Tabelle12141519[[#This Row],[DET]] &gt;= 20, Tabelle12141519[[#This Row],[DET]] &lt;= 50), AND(Tabelle12141519[[#This Row],[FTR/RET]] &gt;= 5, Tabelle12141519[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146">
         <f>IF(AND(Tabelle12141519[[#This Row],[Simple]]=0,Tabelle12141519[[#This Row],[Average]]=0), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="G146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I146">
         <f>Tabelle12141519[[#This Row],[Count]]*(7*Tabelle12141519[[#This Row],[Simple]]+10*Tabelle12141519[[#This Row],[Average]]+15*Tabelle12141519[[#This Row],[Complex]])</f>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="2:11" x14ac:dyDescent="0.25">
@@ -5797,10 +5787,10 @@
         <v>0</v>
       </c>
       <c r="G151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151">
         <f>Tabelle12141520[[#This Row],[Count]]*(3*Tabelle12141520[[#This Row],[Simple]]+4*Tabelle12141520[[#This Row],[Average]]+6*Tabelle12141520[[#This Row],[Complex]])</f>
@@ -5808,7 +5798,7 @@
       </c>
       <c r="K151">
         <f>SUM(Tabelle12141520[Points])*0.65</f>
-        <v>11.05</v>
+        <v>13.65</v>
       </c>
     </row>
     <row r="152" spans="2:11" x14ac:dyDescent="0.25">
@@ -5820,25 +5810,25 @@
       </c>
       <c r="D152">
         <f>IF(OR(AND(Tabelle12141520[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141520[[#This Row],[DET]] &lt;= 19), AND(Tabelle12141520[[#This Row],[FTR/RET]]&lt;= 3, Tabelle12141520[[#This Row],[DET]] &lt;= 5)), 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E152">
         <f>IF(OR(AND(Tabelle12141520[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141520[[#This Row],[DET]] &gt; 20), AND(Tabelle12141520[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141520[[#This Row],[FTR/RET]]&gt;=2, Tabelle12141520[[#This Row],[DET]] &gt;= 6, Tabelle12141520[[#This Row],[DET]] &lt;= 19), AND(Tabelle12141520[[#This Row],[FTR/RET]] &gt;= 5, Tabelle12141520[[#This Row],[DET]] &lt;= 5 )), 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152">
         <f>IF(AND(Tabelle12141520[[#This Row],[Simple]]=0,Tabelle12141520[[#This Row],[Average]]=0), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="G152">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I152">
         <f>Tabelle12141520[[#This Row],[Count]]*(Tabelle12141520[[#This Row],[Simple]]*4+Tabelle12141520[[#This Row],[Average]]*5+Tabelle12141520[[#This Row],[Complex]]*7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.25">
@@ -5861,10 +5851,10 @@
         <v>0</v>
       </c>
       <c r="G153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153">
         <f>Tabelle12141520[[#This Row],[Count]]*(3*Tabelle12141520[[#This Row],[Simple]]+4*Tabelle12141520[[#This Row],[Average]]+6*Tabelle12141520[[#This Row],[Complex]])</f>
@@ -5880,25 +5870,25 @@
       </c>
       <c r="D154">
         <f>IF(OR(AND(Tabelle12141520[[#This Row],[FTR/RET]]&lt;2, Tabelle12141520[[#This Row],[DET]] &lt;= 50), AND(Tabelle12141520[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141520[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E154">
         <f>IF(OR(AND(Tabelle12141520[[#This Row],[FTR/RET]]=1, Tabelle12141520[[#This Row],[DET]] &gt; 50), AND(Tabelle12141520[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141520[[#This Row],[FTR/RET]]&gt;=2, Tabelle12141520[[#This Row],[DET]] &gt;= 20, Tabelle12141520[[#This Row],[DET]] &lt;= 50), AND(Tabelle12141520[[#This Row],[FTR/RET]] &gt;= 5, Tabelle12141520[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154">
         <f>IF(AND(Tabelle12141520[[#This Row],[Simple]]=0,Tabelle12141520[[#This Row],[Average]]=0), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="G154">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I154">
         <f>Tabelle12141520[[#This Row],[Count]]*(7*Tabelle12141520[[#This Row],[Simple]]+10*Tabelle12141520[[#This Row],[Average]]+15*Tabelle12141520[[#This Row],[Complex]])</f>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="2:11" x14ac:dyDescent="0.25">
@@ -5983,10 +5973,10 @@
         <v>0</v>
       </c>
       <c r="G159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159">
         <f>Tabelle12141521[[#This Row],[Count]]*(3*Tabelle12141521[[#This Row],[Simple]]+4*Tabelle12141521[[#This Row],[Average]]+6*Tabelle12141521[[#This Row],[Complex]])</f>
@@ -5994,7 +5984,7 @@
       </c>
       <c r="K159">
         <f>SUM(Tabelle12141521[Points])*0.65</f>
-        <v>11.05</v>
+        <v>13.65</v>
       </c>
     </row>
     <row r="160" spans="2:11" x14ac:dyDescent="0.25">
@@ -6006,25 +5996,25 @@
       </c>
       <c r="D160">
         <f>IF(OR(AND(Tabelle12141521[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141521[[#This Row],[DET]] &lt;= 19), AND(Tabelle12141521[[#This Row],[FTR/RET]]&lt;= 3, Tabelle12141521[[#This Row],[DET]] &lt;= 5)), 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E160">
         <f>IF(OR(AND(Tabelle12141521[[#This Row],[FTR/RET]]&lt;=1, Tabelle12141521[[#This Row],[DET]] &gt; 20), AND(Tabelle12141521[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141521[[#This Row],[FTR/RET]]&gt;=2, Tabelle12141521[[#This Row],[DET]] &gt;= 6, Tabelle12141521[[#This Row],[DET]] &lt;= 19), AND(Tabelle12141521[[#This Row],[FTR/RET]] &gt;= 5, Tabelle12141521[[#This Row],[DET]] &lt;= 5 )), 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160">
         <f>IF(AND(Tabelle12141521[[#This Row],[Simple]]=0,Tabelle12141521[[#This Row],[Average]]=0), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="G160">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I160">
         <f>Tabelle12141521[[#This Row],[Count]]*(Tabelle12141521[[#This Row],[Simple]]*4+Tabelle12141521[[#This Row],[Average]]*5+Tabelle12141521[[#This Row],[Complex]]*7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.25">
@@ -6047,10 +6037,10 @@
         <v>0</v>
       </c>
       <c r="G161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161">
         <f>Tabelle12141521[[#This Row],[Count]]*(3*Tabelle12141521[[#This Row],[Simple]]+4*Tabelle12141521[[#This Row],[Average]]+6*Tabelle12141521[[#This Row],[Complex]])</f>
@@ -6066,25 +6056,25 @@
       </c>
       <c r="D162">
         <f>IF(OR(AND(Tabelle12141521[[#This Row],[FTR/RET]]&lt;2, Tabelle12141521[[#This Row],[DET]] &lt;= 50), AND(Tabelle12141521[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141521[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E162">
         <f>IF(OR(AND(Tabelle12141521[[#This Row],[FTR/RET]]=1, Tabelle12141521[[#This Row],[DET]] &gt; 50), AND(Tabelle12141521[[#This Row],[FTR/RET]]&lt;=5, Tabelle12141521[[#This Row],[FTR/RET]]&gt;=2, Tabelle12141521[[#This Row],[DET]] &gt;= 20, Tabelle12141521[[#This Row],[DET]] &lt;= 50), AND(Tabelle12141521[[#This Row],[FTR/RET]] &gt;= 5, Tabelle12141521[[#This Row],[DET]] &lt; 20)), 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162">
         <f>IF(AND(Tabelle12141521[[#This Row],[Simple]]=0,Tabelle12141521[[#This Row],[Average]]=0), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="G162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I162">
         <f>Tabelle12141521[[#This Row],[Count]]*(7*Tabelle12141521[[#This Row],[Simple]]+10*Tabelle12141521[[#This Row],[Average]]+15*Tabelle12141521[[#This Row],[Complex]])</f>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.25">

--- a/doc/FP.xlsx
+++ b/doc/FP.xlsx
@@ -208,7 +208,7 @@
     <t>Outlier because first use case</t>
   </si>
   <si>
-    <t>Outlier because lot of tries</t>
+    <t>Outlier because lot of trying</t>
   </si>
 </sst>
 </file>
@@ -482,10 +482,10 @@
                   <c:v>7.6388888888888881E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.25E-2</c:v>
+                  <c:v>7.2916666666666671E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0.12499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.1423611111111111</c:v>
@@ -842,10 +842,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3888888888888888E-2</c:v>
+                  <c:v>2.4305555555555556E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.9444444444444441E-3</c:v>
+                  <c:v>2.0833333333333332E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>4.1666666666666664E-2</c:v>
@@ -955,10 +955,10 @@
                   <c:v>7.6388888888888881E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.25E-2</c:v>
+                  <c:v>7.2916666666666671E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0.12499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.1423611111111111</c:v>
@@ -973,6 +973,66 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-8E71-4C64-9F21-0A8419E9B8B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>total Estimation</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$L$17:$L$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$K$17:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.31290898521840227</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1932673143996014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1932673143996014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1932673143996014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E577-4DCF-B227-FFCCE6D1C7AB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1180,13 +1240,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
+      <xdr:colOff>15876</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>187324</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>121228</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -1944,8 +2004,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="B2:Q163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1955,8 +2015,10 @@
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="13" max="13" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3.28515625" customWidth="1"/>
-    <col min="15" max="15" width="28.28515625" customWidth="1"/>
+    <col min="15" max="15" width="25.28515625" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
@@ -2029,7 +2091,7 @@
       </c>
       <c r="K3" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.49413926258096663</v>
+        <v>0.49697309417040358</v>
       </c>
       <c r="L3">
         <f>LoginFP</f>
@@ -2071,7 +2133,7 @@
       </c>
       <c r="K4" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.24706963129048332</v>
+        <v>0.24848654708520179</v>
       </c>
       <c r="L4">
         <f>SearchBarFP</f>
@@ -2110,7 +2172,7 @@
       </c>
       <c r="K5" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.47583780841130124</v>
+        <v>0.47856668327520352</v>
       </c>
       <c r="L5">
         <f>RegisterFp</f>
@@ -2152,7 +2214,7 @@
       </c>
       <c r="K6" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.27592961671187882</v>
+        <v>0.27751204118917122</v>
       </c>
       <c r="L6">
         <f>SurveysFP</f>
@@ -2191,7 +2253,7 @@
       </c>
       <c r="K7" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.17386381461182157</v>
+        <v>0.17486090350440123</v>
       </c>
       <c r="L7">
         <f>SeePinboardsFP</f>
@@ -2230,7 +2292,7 @@
       </c>
       <c r="K8" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.17386381461182157</v>
+        <v>0.17486090350440123</v>
       </c>
       <c r="L8">
         <f>ChangePassword</f>
@@ -2269,7 +2331,7 @@
       </c>
       <c r="K9" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.39348126464780675</v>
+        <v>0.39573783424680281</v>
       </c>
       <c r="L9">
         <f>DeleteUser</f>
@@ -2308,7 +2370,7 @@
       </c>
       <c r="K10" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.21046672295115246</v>
+        <v>0.21167372529480155</v>
       </c>
       <c r="L10">
         <f>AddFriend</f>
@@ -2347,7 +2409,7 @@
       </c>
       <c r="K11" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.21961745003598518</v>
+        <v>0.22087693074240158</v>
       </c>
       <c r="L11">
         <f>ListReceivedFriendRequests</f>
@@ -2386,7 +2448,7 @@
       </c>
       <c r="K12" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.18301454169665429</v>
+        <v>0.18406410895200132</v>
       </c>
       <c r="L12">
         <f>ListSentFriendRequests</f>
@@ -2404,7 +2466,7 @@
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="E13" s="1">
-        <v>1.3888888888888888E-2</v>
+        <v>2.4305555555555556E-2</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2417,15 +2479,15 @@
       </c>
       <c r="I13" s="1">
         <f>SUM(Tabelle1[[#This Row],[Documentation]:[Testing]])+SUM(Tabelle1[[#This Row],[Deployment]:[Research]])</f>
-        <v>6.25E-2</v>
+        <v>7.2916666666666671E-2</v>
       </c>
       <c r="J13" s="2">
         <f>SUM(Tabelle1[[#This Row],[Documentation]:[Research]])</f>
-        <v>6.25E-2</v>
+        <v>7.2916666666666671E-2</v>
       </c>
       <c r="K13" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.32942617505397775</v>
+        <v>0.33131539611360245</v>
       </c>
       <c r="L13">
         <f>AcceptFriendRequests</f>
@@ -2443,7 +2505,7 @@
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="E14" s="1">
-        <v>6.9444444444444441E-3</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2456,15 +2518,15 @@
       </c>
       <c r="I14" s="1">
         <f>SUM(Tabelle1[[#This Row],[Documentation]:[Testing]])+SUM(Tabelle1[[#This Row],[Deployment]:[Research]])</f>
-        <v>0.1111111111111111</v>
+        <v>0.12499999999999999</v>
       </c>
       <c r="J14" s="2">
         <f>SUM(Tabelle1[[#This Row],[Documentation]:[Research]])</f>
-        <v>0.1111111111111111</v>
+        <v>0.12499999999999999</v>
       </c>
       <c r="K14" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.23791890420565062</v>
+        <v>0.23928334163760176</v>
       </c>
       <c r="L14">
         <f>DeleteFriend</f>
@@ -2503,7 +2565,7 @@
       </c>
       <c r="K15" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.41178271881747214</v>
+        <v>0.41414424514200299</v>
       </c>
       <c r="L15">
         <f>CreateNewRequest</f>
@@ -2542,7 +2604,7 @@
       </c>
       <c r="K16" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.41178271881747214</v>
+        <v>0.41414424514200299</v>
       </c>
       <c r="L16">
         <f>CreateNewOffer</f>
@@ -2581,7 +2643,7 @@
       </c>
       <c r="K17" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.31112472088431231</v>
+        <v>0.31290898521840227</v>
       </c>
       <c r="L17">
         <f>SearchOfferAndRequests</f>
@@ -2620,7 +2682,7 @@
       </c>
       <c r="K18" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.19216526878148701</v>
+        <v>0.1932673143996014</v>
       </c>
       <c r="L18">
         <f>ListRequests</f>
@@ -2659,7 +2721,7 @@
       </c>
       <c r="K19" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.19216526878148701</v>
+        <v>0.1932673143996014</v>
       </c>
       <c r="L19">
         <f>ListOffers</f>
@@ -2698,7 +2760,7 @@
       </c>
       <c r="K20" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.19216526878148701</v>
+        <v>0.1932673143996014</v>
       </c>
       <c r="L20">
         <f>EditStatus</f>
@@ -2901,7 +2963,7 @@
       </c>
       <c r="O27" s="4">
         <f>SUM(I3:I16)*24</f>
-        <v>101.71666666666665</v>
+        <v>102.29999999999998</v>
       </c>
       <c r="P27">
         <f>SUM(L3:L16)</f>
@@ -2909,7 +2971,7 @@
       </c>
       <c r="Q27" s="3">
         <f>P27/O27</f>
-        <v>2.9596919547763396</v>
+        <v>2.9428152492668622</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
@@ -4536,7 +4598,7 @@
       </c>
       <c r="K97">
         <f>SeeMapsFP/Tabelle15[Velocity]</f>
-        <v>4.3923490007197028</v>
+        <v>4.4175386148480316</v>
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.25">
@@ -4732,7 +4794,7 @@
       </c>
       <c r="K105">
         <f>SetTagsFP/Tabelle15[Velocity]</f>
-        <v>7.9062282012954661</v>
+        <v>7.9515695067264582</v>
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
@@ -4925,7 +4987,7 @@
       </c>
       <c r="K113">
         <f>AdministrateBarsFP/Tabelle15[Velocity]</f>
-        <v>5.7100537009356147</v>
+        <v>5.742800199302442</v>
       </c>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.25">

--- a/doc/FP.xlsx
+++ b/doc/FP.xlsx
@@ -1230,7 +1230,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1240,15 +1240,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>15876</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>187324</xdr:rowOff>
+      <xdr:rowOff>17319</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>121228</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1412,8 +1412,8 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabelle15" displayName="Tabelle15" ref="O26:Q27" totalsRowShown="0">
-  <autoFilter ref="O26:Q27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabelle15" displayName="Tabelle15" ref="O51:Q52" totalsRowShown="0">
+  <autoFilter ref="O51:Q52"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Time spent (w/o outliers)" dataDxfId="1">
       <calculatedColumnFormula>SUM(I3:I16)*24</calculatedColumnFormula>
@@ -1422,7 +1422,7 @@
       <calculatedColumnFormula>SUM(L3:L16)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="Velocity" dataDxfId="0">
-      <calculatedColumnFormula>P27/O27</calculatedColumnFormula>
+      <calculatedColumnFormula>P52/O52</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2004,8 +2004,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="B2:Q163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="K37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2611,7 +2611,7 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>39</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>40</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>13.65</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>13.65</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>42</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>13.65</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>5</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>12</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>17.55</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>13</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>14</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>15</v>
       </c>
@@ -2922,17 +2922,8 @@
         <f>Tabelle2[[#This Row],[Count]]*(7*Tabelle2[[#This Row],[Simple]]+10*Tabelle2[[#This Row],[Average]]+15*Tabelle2[[#This Row],[Complex]])</f>
         <v>7</v>
       </c>
-      <c r="O26" t="s">
-        <v>25</v>
-      </c>
-      <c r="P26" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>16</v>
       </c>
@@ -2961,20 +2952,8 @@
         <f>Tabelle2[[#This Row],[Count]]*(5*Tabelle2[[#This Row],[Simple]]+7*Tabelle2[[#This Row],[Average]]+10*Tabelle2[[#This Row],[Complex]])</f>
         <v>0</v>
       </c>
-      <c r="O27" s="4">
-        <f>SUM(I3:I16)*24</f>
-        <v>102.29999999999998</v>
-      </c>
-      <c r="P27">
-        <f>SUM(L3:L16)</f>
-        <v>301.04999999999995</v>
-      </c>
-      <c r="Q27" s="3">
-        <f>P27/O27</f>
-        <v>2.9428152492668622</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>6</v>
       </c>
@@ -3006,7 +2985,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>12</v>
       </c>
@@ -3040,7 +3019,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>13</v>
       </c>
@@ -3445,7 +3424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>14</v>
       </c>
@@ -3475,7 +3454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>15</v>
       </c>
@@ -3508,7 +3487,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>16</v>
       </c>
@@ -3537,8 +3516,31 @@
         <f>Tabelle5[[#This Row],[Count]]*(5*Tabelle5[[#This Row],[Simple]]+7*Tabelle5[[#This Row],[Average]]+10*Tabelle5[[#This Row],[Complex]])</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="O51" t="s">
+        <v>25</v>
+      </c>
+      <c r="P51" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="O52" s="4">
+        <f>SUM(I3:I16)*24</f>
+        <v>102.29999999999998</v>
+      </c>
+      <c r="P52">
+        <f>SUM(L3:L16)</f>
+        <v>301.04999999999995</v>
+      </c>
+      <c r="Q52" s="3">
+        <f>P52/O52</f>
+        <v>2.9428152492668622</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>47</v>
       </c>
@@ -3570,7 +3572,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>12</v>
       </c>
@@ -3604,7 +3606,7 @@
         <v>12.35</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>13</v>
       </c>
@@ -3634,7 +3636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>14</v>
       </c>
@@ -3664,7 +3666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>15</v>
       </c>
@@ -3697,7 +3699,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>16</v>
       </c>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>30</v>
       </c>
@@ -3759,7 +3761,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>12</v>
       </c>
@@ -3793,7 +3795,7 @@
         <v>27.95</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>13</v>
       </c>
@@ -6171,7 +6173,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="95" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="20">
     <tablePart r:id="rId3"/>

--- a/doc/FP.xlsx
+++ b/doc/FP.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="51">
   <si>
     <t>UC Name</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>Function points</t>
-  </si>
-  <si>
-    <t>The amount depends on the survey in the database. That makes presenting the survey more comlex</t>
   </si>
   <si>
     <t>Total w/o warmup</t>
@@ -257,7 +254,55 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="28">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -313,8 +358,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="27"/>
+      <tableStyleElement type="headerRow" dxfId="26"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -401,46 +446,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>35.1</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.55</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.800000000000004</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.35</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.35</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.95</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.950000000000001</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.600000000000001</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23.400000000000002</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.900000000000002</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.25</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29.25</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -521,46 +566,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>35.1</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.55</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.800000000000004</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.35</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.35</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.95</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.950000000000001</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.600000000000001</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23.400000000000002</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.900000000000002</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.25</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29.25</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -641,46 +686,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>35.1</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.55</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.800000000000004</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.35</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.35</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.95</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.950000000000001</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.600000000000001</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23.400000000000002</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.900000000000002</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.25</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29.25</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -761,46 +806,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>35.1</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.55</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.800000000000004</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.35</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.35</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.95</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.950000000000001</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.600000000000001</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23.400000000000002</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.900000000000002</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.25</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29.25</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -889,37 +934,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>33.800000000000004</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.35</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.35</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.95</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.950000000000001</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.600000000000001</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.400000000000002</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.900000000000002</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.25</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29.25</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -994,16 +1039,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>22.1</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.65</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.65</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.65</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1015,16 +1060,16 @@
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.31290898521840227</c:v>
+                  <c:v>0.31437093275488065</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1932673143996014</c:v>
+                  <c:v>0.19417028199566158</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1932673143996014</c:v>
+                  <c:v>0.19417028199566158</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1932673143996014</c:v>
+                  <c:v>0.19417028199566158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1285,18 +1330,18 @@
   <tableColumns count="12">
     <tableColumn id="1" name="UC Name"/>
     <tableColumn id="2" name="Documentation"/>
-    <tableColumn id="7" name="Development" dataDxfId="9"/>
-    <tableColumn id="8" name="Testing" dataDxfId="8"/>
-    <tableColumn id="9" name="Design" dataDxfId="7"/>
+    <tableColumn id="7" name="Development" dataDxfId="25"/>
+    <tableColumn id="8" name="Testing" dataDxfId="24"/>
+    <tableColumn id="9" name="Design" dataDxfId="23"/>
     <tableColumn id="3" name="Deployment"/>
     <tableColumn id="4" name="Research"/>
-    <tableColumn id="10" name="Total w/o warmup" dataDxfId="6">
+    <tableColumn id="10" name="Total w/o warmup" dataDxfId="22">
       <calculatedColumnFormula>SUM(Tabelle1[[#This Row],[Documentation]:[Testing]])+SUM(Tabelle1[[#This Row],[Deployment]:[Research]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Total" dataDxfId="5">
+    <tableColumn id="5" name="Total" dataDxfId="21">
       <calculatedColumnFormula>SUM(Tabelle1[[#This Row],[Documentation]:[Research]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Estimate" dataDxfId="4">
+    <tableColumn id="12" name="Estimate" dataDxfId="20">
       <calculatedColumnFormula>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="FP"/>
@@ -1321,7 +1366,7 @@
     <tableColumn id="7" name="DET"/>
     <tableColumn id="11" name="Points"/>
     <tableColumn id="8" name="Reason"/>
-    <tableColumn id="9" name="Function points"/>
+    <tableColumn id="9" name="Function points" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1363,7 +1408,7 @@
     <tableColumn id="7" name="DET"/>
     <tableColumn id="11" name="Points"/>
     <tableColumn id="8" name="Reason"/>
-    <tableColumn id="9" name="Function points"/>
+    <tableColumn id="9" name="Function points" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1405,7 +1450,7 @@
     <tableColumn id="7" name="DET"/>
     <tableColumn id="11" name="Points"/>
     <tableColumn id="8" name="Reason"/>
-    <tableColumn id="9" name="Function points"/>
+    <tableColumn id="9" name="Function points" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1415,13 +1460,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabelle15" displayName="Tabelle15" ref="O51:Q52" totalsRowShown="0">
   <autoFilter ref="O51:Q52"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Time spent (w/o outliers)" dataDxfId="1">
+    <tableColumn id="1" name="Time spent (w/o outliers)" dataDxfId="17">
       <calculatedColumnFormula>SUM(I3:I16)*24</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Function Points (w/o outliers)">
       <calculatedColumnFormula>SUM(L3:L16)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Velocity" dataDxfId="0">
+    <tableColumn id="3" name="Velocity" dataDxfId="16">
       <calculatedColumnFormula>P52/O52</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1444,7 +1489,7 @@
     <tableColumn id="7" name="DET"/>
     <tableColumn id="11" name="Points"/>
     <tableColumn id="8" name="Reason"/>
-    <tableColumn id="9" name="Function points"/>
+    <tableColumn id="9" name="Function points" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1465,7 +1510,7 @@
     <tableColumn id="7" name="DET"/>
     <tableColumn id="11" name="Points"/>
     <tableColumn id="8" name="Reason"/>
-    <tableColumn id="9" name="Function points"/>
+    <tableColumn id="9" name="Function points" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1486,7 +1531,7 @@
     <tableColumn id="7" name="DET"/>
     <tableColumn id="11" name="Points"/>
     <tableColumn id="8" name="Reason"/>
-    <tableColumn id="9" name="Function points"/>
+    <tableColumn id="9" name="Function points" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1507,7 +1552,7 @@
     <tableColumn id="7" name="DET"/>
     <tableColumn id="11" name="Points"/>
     <tableColumn id="8" name="Reason"/>
-    <tableColumn id="9" name="Function points"/>
+    <tableColumn id="9" name="Function points" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1520,17 +1565,17 @@
     <tableColumn id="1" name="Login"/>
     <tableColumn id="2" name="Count"/>
     <tableColumn id="3" name="Simple"/>
-    <tableColumn id="4" name="Average" dataDxfId="3">
+    <tableColumn id="4" name="Average" dataDxfId="19">
       <calculatedColumnFormula>IF(OR(AND(Tabelle2[[#This Row],[FTR/RET]]=1, Tabelle2[[#This Row],[DET]] &gt; 50), AND(Tabelle2[[#This Row],[FTR/RET]]&lt;=5, Tabelle2[[#This Row],[FTR/RET]]&gt;=2, Tabelle2[[#This Row],[DET]] &gt;= 20, Tabelle2[[#This Row],[DET]] &lt;= 50), AND(Tabelle2[[#This Row],[FTR/RET]] &gt;= 5, Tabelle2[[#This Row],[DET]] &lt; 20)), "x", "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Complex" dataDxfId="2">
+    <tableColumn id="5" name="Complex" dataDxfId="18">
       <calculatedColumnFormula>IF(AND(Tabelle2[[#This Row],[Simple]]="",Tabelle2[[#This Row],[Average]]=""), "x", "")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="FTR/RET"/>
     <tableColumn id="7" name="DET"/>
     <tableColumn id="12" name="Points"/>
     <tableColumn id="8" name="Reason"/>
-    <tableColumn id="9" name="Function points"/>
+    <tableColumn id="9" name="Function points" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1551,7 +1596,7 @@
     <tableColumn id="7" name="DET"/>
     <tableColumn id="11" name="Points"/>
     <tableColumn id="8" name="Reason"/>
-    <tableColumn id="9" name="Function points"/>
+    <tableColumn id="9" name="Function points" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1572,7 +1617,7 @@
     <tableColumn id="7" name="DET"/>
     <tableColumn id="11" name="Points"/>
     <tableColumn id="8" name="Reason"/>
-    <tableColumn id="9" name="Function points"/>
+    <tableColumn id="9" name="Function points" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1593,7 +1638,7 @@
     <tableColumn id="7" name="DET"/>
     <tableColumn id="11" name="Points"/>
     <tableColumn id="8" name="Reason"/>
-    <tableColumn id="9" name="Function points"/>
+    <tableColumn id="9" name="Function points" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1614,7 +1659,7 @@
     <tableColumn id="7" name="DET"/>
     <tableColumn id="11" name="Points"/>
     <tableColumn id="8" name="Reason"/>
-    <tableColumn id="9" name="Function points"/>
+    <tableColumn id="9" name="Function points" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1635,7 +1680,7 @@
     <tableColumn id="7" name="DET"/>
     <tableColumn id="11" name="Points"/>
     <tableColumn id="8" name="Reason"/>
-    <tableColumn id="9" name="Function points"/>
+    <tableColumn id="9" name="Function points" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1656,7 +1701,7 @@
     <tableColumn id="7" name="DET"/>
     <tableColumn id="11" name="Points"/>
     <tableColumn id="8" name="Reason"/>
-    <tableColumn id="9" name="Function points"/>
+    <tableColumn id="9" name="Function points" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1677,7 +1722,7 @@
     <tableColumn id="7" name="DET"/>
     <tableColumn id="11" name="Points"/>
     <tableColumn id="8" name="Reason"/>
-    <tableColumn id="9" name="Function points"/>
+    <tableColumn id="9" name="Function points" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1698,7 +1743,7 @@
     <tableColumn id="7" name="DET"/>
     <tableColumn id="11" name="Points"/>
     <tableColumn id="8" name="Reason"/>
-    <tableColumn id="9" name="Function points"/>
+    <tableColumn id="9" name="Function points" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2004,8 +2049,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="B2:Q163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K159" sqref="K159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2029,34 +2074,34 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
       <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" t="s">
-        <v>45</v>
-      </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
@@ -2091,14 +2136,14 @@
       </c>
       <c r="K3" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.49697309417040358</v>
+        <v>0.49929501084598699</v>
       </c>
       <c r="L3">
         <f>LoginFP</f>
-        <v>35.1</v>
+        <v>54</v>
       </c>
       <c r="M3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
@@ -2133,16 +2178,16 @@
       </c>
       <c r="K4" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.24848654708520179</v>
+        <v>0.24964750542299349</v>
       </c>
       <c r="L4">
         <f>SearchBarFP</f>
-        <v>17.55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1">
         <v>4.8611111111111112E-2</v>
@@ -2172,19 +2217,19 @@
       </c>
       <c r="K5" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.47856668327520352</v>
+        <v>0.48080260303687633</v>
       </c>
       <c r="L5">
         <f>RegisterFp</f>
-        <v>33.800000000000004</v>
+        <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1">
         <v>3.4722222222222224E-2</v>
@@ -2214,16 +2259,16 @@
       </c>
       <c r="K6" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.27751204118917122</v>
+        <v>0.25889370932754879</v>
       </c>
       <c r="L6">
         <f>SurveysFP</f>
-        <v>19.600000000000001</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1">
         <v>3.4722222222222224E-2</v>
@@ -2253,16 +2298,16 @@
       </c>
       <c r="K7" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.17486090350440123</v>
+        <v>0.17567787418655098</v>
       </c>
       <c r="L7">
         <f>SeePinboardsFP</f>
-        <v>12.35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -2292,16 +2337,16 @@
       </c>
       <c r="K8" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.17486090350440123</v>
+        <v>0.17567787418655098</v>
       </c>
       <c r="L8">
         <f>ChangePassword</f>
-        <v>12.35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1">
         <v>3.4722222222222224E-2</v>
@@ -2331,16 +2376,16 @@
       </c>
       <c r="K9" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.39573783424680281</v>
+        <v>0.39758676789587849</v>
       </c>
       <c r="L9">
         <f>DeleteUser</f>
-        <v>27.95</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1">
         <v>3.4722222222222224E-2</v>
@@ -2370,16 +2415,16 @@
       </c>
       <c r="K10" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.21167372529480155</v>
+        <v>0.21266268980477221</v>
       </c>
       <c r="L10">
         <f>AddFriend</f>
-        <v>14.950000000000001</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1">
         <v>3.8194444444444441E-2</v>
@@ -2409,16 +2454,16 @@
       </c>
       <c r="K11" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.22087693074240158</v>
+        <v>0.22190889370932754</v>
       </c>
       <c r="L11">
         <f>ListReceivedFriendRequests</f>
-        <v>15.600000000000001</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1">
         <v>3.8194444444444441E-2</v>
@@ -2448,16 +2493,16 @@
       </c>
       <c r="K12" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.18406410895200132</v>
+        <v>0.18492407809110625</v>
       </c>
       <c r="L12">
         <f>ListSentFriendRequests</f>
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1">
         <v>1.3888888888888888E-2</v>
@@ -2487,16 +2532,16 @@
       </c>
       <c r="K13" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.33131539611360245</v>
+        <v>0.33286334056399131</v>
       </c>
       <c r="L13">
         <f>AcceptFriendRequests</f>
-        <v>23.400000000000002</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1">
         <v>3.4722222222222224E-2</v>
@@ -2526,16 +2571,16 @@
       </c>
       <c r="K14" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.23928334163760176</v>
+        <v>0.24040130151843817</v>
       </c>
       <c r="L14">
         <f>DeleteFriend</f>
-        <v>16.900000000000002</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1">
         <v>6.9444444444444434E-2</v>
@@ -2565,16 +2610,16 @@
       </c>
       <c r="K15" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.41414424514200299</v>
+        <v>0.41607917570498909</v>
       </c>
       <c r="L15">
         <f>CreateNewRequest</f>
-        <v>29.25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1">
         <v>4.1666666666666664E-2</v>
@@ -2604,16 +2649,16 @@
       </c>
       <c r="K16" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.41414424514200299</v>
+        <v>0.41607917570498909</v>
       </c>
       <c r="L16">
         <f>CreateNewOffer</f>
-        <v>29.25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1">
         <v>2.7777777777777776E-2</v>
@@ -2643,16 +2688,16 @@
       </c>
       <c r="K17" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.31290898521840227</v>
+        <v>0.31437093275488065</v>
       </c>
       <c r="L17">
         <f>SearchOfferAndRequests</f>
-        <v>22.1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1">
         <v>2.7777777777777776E-2</v>
@@ -2682,16 +2727,16 @@
       </c>
       <c r="K18" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.1932673143996014</v>
+        <v>0.19417028199566158</v>
       </c>
       <c r="L18">
         <f>ListRequests</f>
-        <v>13.65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1">
         <v>3.4722222222222224E-2</v>
@@ -2721,16 +2766,16 @@
       </c>
       <c r="K19" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.1932673143996014</v>
+        <v>0.19417028199566158</v>
       </c>
       <c r="L19">
         <f>ListOffers</f>
-        <v>13.65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1">
         <v>2.4305555555555556E-2</v>
@@ -2760,11 +2805,11 @@
       </c>
       <c r="K20" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
-        <v>0.1932673143996014</v>
+        <v>0.19417028199566158</v>
       </c>
       <c r="L20">
         <f>EditStatus</f>
-        <v>13.65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -2784,13 +2829,13 @@
         <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H22" t="s">
         <v>17</v>
       </c>
       <c r="I22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -2829,8 +2874,8 @@
         <v>6</v>
       </c>
       <c r="K23">
-        <f>SUM(Tabelle2[Points])*0.65</f>
-        <v>17.55</v>
+        <f>SUM(Tabelle2[Points])</f>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -2970,13 +3015,13 @@
         <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H30" t="s">
         <v>17</v>
       </c>
       <c r="I30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -3015,8 +3060,8 @@
         <v>30</v>
       </c>
       <c r="K31">
-        <f>SUM(Tabelle3[Points])*0.65</f>
-        <v>35.1</v>
+        <f>SUM(Tabelle3[Points])</f>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
@@ -3141,7 +3186,7 @@
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
@@ -3156,13 +3201,13 @@
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H38" t="s">
         <v>17</v>
       </c>
       <c r="I38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -3201,8 +3246,8 @@
         <v>18</v>
       </c>
       <c r="K39">
-        <f>SUM(Tabelle4[Points])*0.65</f>
-        <v>33.800000000000004</v>
+        <f>SUM(Tabelle4[Points])</f>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
@@ -3327,7 +3372,7 @@
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
@@ -3342,13 +3387,13 @@
         <v>9</v>
       </c>
       <c r="G46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H46" t="s">
         <v>17</v>
       </c>
       <c r="I46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -3386,12 +3431,9 @@
         <f>Tabelle5[[#This Row],[Count]]*(3*Tabelle5[[#This Row],[Simple]]+4*Tabelle5[[#This Row],[Average]]+6*Tabelle5[[#This Row],[Complex]])</f>
         <v>9</v>
       </c>
-      <c r="J47" t="s">
-        <v>19</v>
-      </c>
       <c r="K47">
-        <f>SUM(Tabelle5[Points])*(0.65+(5)/100)</f>
-        <v>19.600000000000001</v>
+        <f>SUM(Tabelle5[Points])</f>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
@@ -3484,7 +3526,7 @@
         <v>7</v>
       </c>
       <c r="J50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.25">
@@ -3517,13 +3559,13 @@
         <v>5</v>
       </c>
       <c r="O51" t="s">
+        <v>24</v>
+      </c>
+      <c r="P51" t="s">
         <v>25</v>
       </c>
-      <c r="P51" t="s">
-        <v>26</v>
-      </c>
       <c r="Q51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.25">
@@ -3533,16 +3575,16 @@
       </c>
       <c r="P52">
         <f>SUM(L3:L16)</f>
-        <v>301.04999999999995</v>
+        <v>461</v>
       </c>
       <c r="Q52" s="3">
         <f>P52/O52</f>
-        <v>2.9428152492668622</v>
+        <v>4.5063538611925713</v>
       </c>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C54" t="s">
         <v>10</v>
@@ -3557,13 +3599,13 @@
         <v>9</v>
       </c>
       <c r="G54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H54" t="s">
         <v>17</v>
       </c>
       <c r="I54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J54" t="s">
         <v>11</v>
@@ -3602,8 +3644,8 @@
         <v>9</v>
       </c>
       <c r="K55">
-        <f>SUM(Tabelle6[Points])*0.65</f>
-        <v>12.35</v>
+        <f>SUM(Tabelle6[Points])</f>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.25">
@@ -3696,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
@@ -3731,7 +3773,7 @@
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C62" t="s">
         <v>10</v>
@@ -3746,13 +3788,13 @@
         <v>9</v>
       </c>
       <c r="G62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H62" t="s">
         <v>17</v>
       </c>
       <c r="I62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J62" t="s">
         <v>11</v>
@@ -3791,8 +3833,8 @@
         <v>12</v>
       </c>
       <c r="K63">
-        <f>SUM(Tabelle7[Points])*0.65</f>
-        <v>27.95</v>
+        <f>SUM(Tabelle7[Points])</f>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
@@ -3917,7 +3959,7 @@
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C70" t="s">
         <v>10</v>
@@ -3932,13 +3974,13 @@
         <v>9</v>
       </c>
       <c r="G70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H70" t="s">
         <v>17</v>
       </c>
       <c r="I70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J70" t="s">
         <v>11</v>
@@ -3977,8 +4019,8 @@
         <v>6</v>
       </c>
       <c r="K71">
-        <f>SUM(Tabelle8[Points])*(0.65+(5)/100)</f>
-        <v>14.000000000000002</v>
+        <f>SUM(Tabelle8[Points])</f>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
@@ -4103,7 +4145,7 @@
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C78" t="s">
         <v>10</v>
@@ -4118,13 +4160,13 @@
         <v>9</v>
       </c>
       <c r="G78" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H78" t="s">
         <v>17</v>
       </c>
       <c r="I78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J78" t="s">
         <v>11</v>
@@ -4163,8 +4205,8 @@
         <v>3</v>
       </c>
       <c r="K79">
-        <f>SUM(Tabelle9[Points])*0.65</f>
-        <v>14.950000000000001</v>
+        <f>SUM(Tabelle9[Points])</f>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
@@ -4289,7 +4331,7 @@
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C86" t="s">
         <v>10</v>
@@ -4304,13 +4346,13 @@
         <v>9</v>
       </c>
       <c r="G86" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H86" t="s">
         <v>17</v>
       </c>
       <c r="I86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J86" t="s">
         <v>11</v>
@@ -4349,8 +4391,8 @@
         <v>6</v>
       </c>
       <c r="K87">
-        <f>SUM(Tabelle10[Points])*0.65</f>
-        <v>15.600000000000001</v>
+        <f>SUM(Tabelle10[Points])</f>
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.25">
@@ -4475,7 +4517,7 @@
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C94" t="s">
         <v>10</v>
@@ -4490,13 +4532,13 @@
         <v>9</v>
       </c>
       <c r="G94" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H94" t="s">
         <v>17</v>
       </c>
       <c r="I94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J94" t="s">
         <v>11</v>
@@ -4535,8 +4577,8 @@
         <v>3</v>
       </c>
       <c r="K95">
-        <f>SUM(Tabelle11[Points])*0.65</f>
-        <v>13</v>
+        <f>SUM(Tabelle11[Points])</f>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.25">
@@ -4598,10 +4640,6 @@
         <f>Tabelle11[[#This Row],[Count]]*(3*Tabelle11[[#This Row],[Simple]]+4*Tabelle11[[#This Row],[Average]]+6*Tabelle11[[#This Row],[Complex]])</f>
         <v>6</v>
       </c>
-      <c r="K97">
-        <f>SeeMapsFP/Tabelle15[Velocity]</f>
-        <v>4.4175386148480316</v>
-      </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
@@ -4633,7 +4671,7 @@
         <v>7</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.25">
@@ -4666,12 +4704,12 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C102" t="s">
         <v>10</v>
@@ -4686,13 +4724,13 @@
         <v>9</v>
       </c>
       <c r="G102" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H102" t="s">
         <v>17</v>
       </c>
       <c r="I102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J102" t="s">
         <v>11</v>
@@ -4731,8 +4769,8 @@
         <v>3</v>
       </c>
       <c r="K103">
-        <f>SUM(Tabelle12[Points])*0.65</f>
-        <v>23.400000000000002</v>
+        <f>SUM(Tabelle12[Points])</f>
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
@@ -4794,10 +4832,6 @@
         <f>Tabelle12[[#This Row],[Count]]*(3*Tabelle12[[#This Row],[Simple]]+4*Tabelle12[[#This Row],[Average]]+6*Tabelle12[[#This Row],[Complex]])</f>
         <v>6</v>
       </c>
-      <c r="K105">
-        <f>SetTagsFP/Tabelle15[Velocity]</f>
-        <v>7.9515695067264582</v>
-      </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
@@ -4861,7 +4895,7 @@
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C110" t="s">
         <v>10</v>
@@ -4876,13 +4910,13 @@
         <v>9</v>
       </c>
       <c r="G110" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H110" t="s">
         <v>17</v>
       </c>
       <c r="I110" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J110" t="s">
         <v>11</v>
@@ -4921,11 +4955,11 @@
         <v>3</v>
       </c>
       <c r="J111" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K111">
-        <f>SUM(Tabelle1214[Points])*0.65</f>
-        <v>16.900000000000002</v>
+        <f>SUM(Tabelle1214[Points])</f>
+        <v>26</v>
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
@@ -4987,10 +5021,6 @@
         <f>Tabelle1214[[#This Row],[Count]]*(3*Tabelle1214[[#This Row],[Simple]]+4*Tabelle1214[[#This Row],[Average]]+6*Tabelle1214[[#This Row],[Complex]])</f>
         <v>6</v>
       </c>
-      <c r="K113">
-        <f>AdministrateBarsFP/Tabelle15[Velocity]</f>
-        <v>5.742800199302442</v>
-      </c>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
@@ -5022,7 +5052,7 @@
         <v>10</v>
       </c>
       <c r="J114" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.25">
@@ -5057,7 +5087,7 @@
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C118" t="s">
         <v>10</v>
@@ -5072,13 +5102,13 @@
         <v>9</v>
       </c>
       <c r="G118" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H118" t="s">
         <v>17</v>
       </c>
       <c r="I118" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J118" t="s">
         <v>11</v>
@@ -5117,8 +5147,8 @@
         <v>15</v>
       </c>
       <c r="K119">
-        <f>SUM(Tabelle121415[Points])*0.65</f>
-        <v>29.25</v>
+        <f>SUM(Tabelle121415[Points])</f>
+        <v>45</v>
       </c>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.25">
@@ -5243,7 +5273,7 @@
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C126" t="s">
         <v>10</v>
@@ -5258,13 +5288,13 @@
         <v>9</v>
       </c>
       <c r="G126" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H126" t="s">
         <v>17</v>
       </c>
       <c r="I126" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J126" t="s">
         <v>11</v>
@@ -5303,8 +5333,8 @@
         <v>15</v>
       </c>
       <c r="K127">
-        <f>SUM(Tabelle12141524[Points])*0.65</f>
-        <v>29.25</v>
+        <f>SUM(Tabelle12141524[Points])</f>
+        <v>45</v>
       </c>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.25">
@@ -5429,7 +5459,7 @@
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C134" t="s">
         <v>10</v>
@@ -5444,13 +5474,13 @@
         <v>9</v>
       </c>
       <c r="G134" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H134" t="s">
         <v>17</v>
       </c>
       <c r="I134" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J134" t="s">
         <v>11</v>
@@ -5489,8 +5519,8 @@
         <v>6</v>
       </c>
       <c r="K135">
-        <f>SUM(Tabelle12141518[Points])*0.65</f>
-        <v>22.1</v>
+        <f>SUM(Tabelle12141518[Points])</f>
+        <v>34</v>
       </c>
     </row>
     <row r="136" spans="2:11" x14ac:dyDescent="0.25">
@@ -5615,7 +5645,7 @@
     </row>
     <row r="142" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C142" t="s">
         <v>10</v>
@@ -5630,13 +5660,13 @@
         <v>9</v>
       </c>
       <c r="G142" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H142" t="s">
         <v>17</v>
       </c>
       <c r="I142" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J142" t="s">
         <v>11</v>
@@ -5675,8 +5705,8 @@
         <v>3</v>
       </c>
       <c r="K143">
-        <f>SUM(Tabelle12141519[Points])*0.65</f>
-        <v>13.65</v>
+        <f>SUM(Tabelle12141519[Points])</f>
+        <v>21</v>
       </c>
     </row>
     <row r="144" spans="2:11" x14ac:dyDescent="0.25">
@@ -5801,7 +5831,7 @@
     </row>
     <row r="150" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C150" t="s">
         <v>10</v>
@@ -5816,13 +5846,13 @@
         <v>9</v>
       </c>
       <c r="G150" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H150" t="s">
         <v>17</v>
       </c>
       <c r="I150" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J150" t="s">
         <v>11</v>
@@ -5861,8 +5891,8 @@
         <v>3</v>
       </c>
       <c r="K151">
-        <f>SUM(Tabelle12141520[Points])*0.65</f>
-        <v>13.65</v>
+        <f>SUM(Tabelle12141520[Points])</f>
+        <v>21</v>
       </c>
     </row>
     <row r="152" spans="2:11" x14ac:dyDescent="0.25">
@@ -5987,7 +6017,7 @@
     </row>
     <row r="158" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C158" t="s">
         <v>10</v>
@@ -6002,13 +6032,13 @@
         <v>9</v>
       </c>
       <c r="G158" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H158" t="s">
         <v>17</v>
       </c>
       <c r="I158" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J158" t="s">
         <v>11</v>
@@ -6047,8 +6077,8 @@
         <v>3</v>
       </c>
       <c r="K159">
-        <f>SUM(Tabelle12141521[Points])*0.65</f>
-        <v>13.65</v>
+        <f>SUM(Tabelle12141521[Points])</f>
+        <v>21</v>
       </c>
     </row>
     <row r="160" spans="2:11" x14ac:dyDescent="0.25">

--- a/doc/FP.xlsx
+++ b/doc/FP.xlsx
@@ -274,7 +274,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -307,7 +307,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1078,6 +1078,66 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E577-4DCF-B227-FFCCE6D1C7AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>total Real</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$L$17:$L$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$I$17:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.10416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0277777777777776E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11736111111111111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12847222222222221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9266-4A0C-9CCA-5583C37DE127}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1366,7 +1426,7 @@
     <tableColumn id="7" name="DET"/>
     <tableColumn id="11" name="Points"/>
     <tableColumn id="8" name="Reason"/>
-    <tableColumn id="9" name="Function points" dataDxfId="7"/>
+    <tableColumn id="9" name="Function points" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1408,7 +1468,7 @@
     <tableColumn id="7" name="DET"/>
     <tableColumn id="11" name="Points"/>
     <tableColumn id="8" name="Reason"/>
-    <tableColumn id="9" name="Function points" dataDxfId="6"/>
+    <tableColumn id="9" name="Function points" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1450,7 +1510,7 @@
     <tableColumn id="7" name="DET"/>
     <tableColumn id="11" name="Points"/>
     <tableColumn id="8" name="Reason"/>
-    <tableColumn id="9" name="Function points" dataDxfId="5"/>
+    <tableColumn id="9" name="Function points" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1460,13 +1520,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabelle15" displayName="Tabelle15" ref="O51:Q52" totalsRowShown="0">
   <autoFilter ref="O51:Q52"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Time spent (w/o outliers)" dataDxfId="17">
+    <tableColumn id="1" name="Time spent (w/o outliers)" dataDxfId="6">
       <calculatedColumnFormula>SUM(I3:I16)*24</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Function Points (w/o outliers)">
       <calculatedColumnFormula>SUM(L3:L16)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Velocity" dataDxfId="16">
+    <tableColumn id="3" name="Velocity" dataDxfId="5">
       <calculatedColumnFormula>P52/O52</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1489,7 +1549,7 @@
     <tableColumn id="7" name="DET"/>
     <tableColumn id="11" name="Points"/>
     <tableColumn id="8" name="Reason"/>
-    <tableColumn id="9" name="Function points" dataDxfId="3"/>
+    <tableColumn id="9" name="Function points" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1510,7 +1570,7 @@
     <tableColumn id="7" name="DET"/>
     <tableColumn id="11" name="Points"/>
     <tableColumn id="8" name="Reason"/>
-    <tableColumn id="9" name="Function points" dataDxfId="2"/>
+    <tableColumn id="9" name="Function points" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1531,7 +1591,7 @@
     <tableColumn id="7" name="DET"/>
     <tableColumn id="11" name="Points"/>
     <tableColumn id="8" name="Reason"/>
-    <tableColumn id="9" name="Function points" dataDxfId="1"/>
+    <tableColumn id="9" name="Function points" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1552,7 +1612,7 @@
     <tableColumn id="7" name="DET"/>
     <tableColumn id="11" name="Points"/>
     <tableColumn id="8" name="Reason"/>
-    <tableColumn id="9" name="Function points" dataDxfId="0"/>
+    <tableColumn id="9" name="Function points" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1575,7 +1635,7 @@
     <tableColumn id="7" name="DET"/>
     <tableColumn id="12" name="Points"/>
     <tableColumn id="8" name="Reason"/>
-    <tableColumn id="9" name="Function points" dataDxfId="15"/>
+    <tableColumn id="9" name="Function points" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1596,7 +1656,7 @@
     <tableColumn id="7" name="DET"/>
     <tableColumn id="11" name="Points"/>
     <tableColumn id="8" name="Reason"/>
-    <tableColumn id="9" name="Function points" dataDxfId="4"/>
+    <tableColumn id="9" name="Function points" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1617,7 +1677,7 @@
     <tableColumn id="7" name="DET"/>
     <tableColumn id="11" name="Points"/>
     <tableColumn id="8" name="Reason"/>
-    <tableColumn id="9" name="Function points" dataDxfId="14"/>
+    <tableColumn id="9" name="Function points" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1638,7 +1698,7 @@
     <tableColumn id="7" name="DET"/>
     <tableColumn id="11" name="Points"/>
     <tableColumn id="8" name="Reason"/>
-    <tableColumn id="9" name="Function points" dataDxfId="13"/>
+    <tableColumn id="9" name="Function points" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1659,7 +1719,7 @@
     <tableColumn id="7" name="DET"/>
     <tableColumn id="11" name="Points"/>
     <tableColumn id="8" name="Reason"/>
-    <tableColumn id="9" name="Function points" dataDxfId="12"/>
+    <tableColumn id="9" name="Function points" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1680,7 +1740,7 @@
     <tableColumn id="7" name="DET"/>
     <tableColumn id="11" name="Points"/>
     <tableColumn id="8" name="Reason"/>
-    <tableColumn id="9" name="Function points" dataDxfId="11"/>
+    <tableColumn id="9" name="Function points" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1701,7 +1761,7 @@
     <tableColumn id="7" name="DET"/>
     <tableColumn id="11" name="Points"/>
     <tableColumn id="8" name="Reason"/>
-    <tableColumn id="9" name="Function points" dataDxfId="10"/>
+    <tableColumn id="9" name="Function points" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1722,7 +1782,7 @@
     <tableColumn id="7" name="DET"/>
     <tableColumn id="11" name="Points"/>
     <tableColumn id="8" name="Reason"/>
-    <tableColumn id="9" name="Function points" dataDxfId="9"/>
+    <tableColumn id="9" name="Function points" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1743,7 +1803,7 @@
     <tableColumn id="7" name="DET"/>
     <tableColumn id="11" name="Points"/>
     <tableColumn id="8" name="Reason"/>
-    <tableColumn id="9" name="Function points" dataDxfId="8"/>
+    <tableColumn id="9" name="Function points" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2049,8 +2109,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="B2:Q163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K159" sqref="K159"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2664,7 +2724,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>7.6388888888888895E-2</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -2680,11 +2740,11 @@
       </c>
       <c r="I17" s="1">
         <f>SUM(Tabelle1[[#This Row],[Documentation]:[Testing]])+SUM(Tabelle1[[#This Row],[Deployment]:[Research]])</f>
-        <v>2.7777777777777776E-2</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="J17" s="2">
         <f>SUM(Tabelle1[[#This Row],[Documentation]:[Research]])</f>
-        <v>2.7777777777777776E-2</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="K17" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
@@ -2703,7 +2763,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -2719,11 +2779,11 @@
       </c>
       <c r="I18" s="1">
         <f>SUM(Tabelle1[[#This Row],[Documentation]:[Testing]])+SUM(Tabelle1[[#This Row],[Deployment]:[Research]])</f>
-        <v>2.7777777777777776E-2</v>
+        <v>9.0277777777777776E-2</v>
       </c>
       <c r="J18" s="2">
         <f>SUM(Tabelle1[[#This Row],[Documentation]:[Research]])</f>
-        <v>2.7777777777777776E-2</v>
+        <v>9.0277777777777776E-2</v>
       </c>
       <c r="K18" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
@@ -2742,7 +2802,7 @@
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>8.2638888888888887E-2</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -2758,11 +2818,11 @@
       </c>
       <c r="I19" s="1">
         <f>SUM(Tabelle1[[#This Row],[Documentation]:[Testing]])+SUM(Tabelle1[[#This Row],[Deployment]:[Research]])</f>
-        <v>3.4722222222222224E-2</v>
+        <v>0.11736111111111111</v>
       </c>
       <c r="J19" s="2">
         <f>SUM(Tabelle1[[#This Row],[Documentation]:[Research]])</f>
-        <v>3.4722222222222224E-2</v>
+        <v>0.11736111111111111</v>
       </c>
       <c r="K19" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>
@@ -2781,10 +2841,10 @@
         <v>2.4305555555555556E-2</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>6.9444444444444434E-2</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -2797,11 +2857,11 @@
       </c>
       <c r="I20" s="1">
         <f>SUM(Tabelle1[[#This Row],[Documentation]:[Testing]])+SUM(Tabelle1[[#This Row],[Deployment]:[Research]])</f>
-        <v>2.4305555555555556E-2</v>
+        <v>0.12847222222222221</v>
       </c>
       <c r="J20" s="2">
         <f>SUM(Tabelle1[[#This Row],[Documentation]:[Research]])</f>
-        <v>2.4305555555555556E-2</v>
+        <v>0.12847222222222221</v>
       </c>
       <c r="K20" s="2">
         <f>Tabelle1[[#This Row],[FP]]/Tabelle15[Velocity]/24</f>

--- a/doc/FP.xlsx
+++ b/doc/FP.xlsx
@@ -1340,6 +1340,493 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Function point</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Total w/o outliers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:forward val="5"/>
+            <c:backward val="12"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Tabelle1!$L$5,Tabelle1!$L$7:$L$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Tabelle1!$J$4,Tabelle1!$J$6:$J$16)</c:f>
+              <c:numCache>
+                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.34375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1701388888888889</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1701388888888889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20138888888888887</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36805555555555552</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18402777777777776</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.6388888888888881E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6388888888888881E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2916666666666671E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1423611111111111</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.54722222222222217</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-EA6D-4695-9066-F648650DE56D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>total Estimation</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$L$17:$L$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$K$17:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.31437093275488065</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19417028199566158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19417028199566158</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19417028199566158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-EA6D-4695-9066-F648650DE56D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>total Real</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$L$17:$L$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$I$17:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.10416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0277777777777776E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11736111111111111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12847222222222221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-EA6D-4695-9066-F648650DE56D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="317078048"/>
+        <c:axId val="318175904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="317078048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="318175904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="318175904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="h:mm;@" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="317078048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2.0833300000000003E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1373,6 +1860,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>121226</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88B58DB3-F0BD-4ACA-AC47-548E5ED8FD65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2109,8 +2634,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="B2:Q163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView tabSelected="1" topLeftCell="L85" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M68" sqref="M68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
